--- a/machine_learning/labs/lab_08/grid_search_results.xlsx
+++ b/machine_learning/labs/lab_08/grid_search_results.xlsx
@@ -619,16 +619,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006861448287963867</v>
+        <v>0.01759033203125</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001160451808828375</v>
+        <v>0.007672581668447013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003602123260498047</v>
+        <v>0.006675815582275391</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003516452943996007</v>
+        <v>0.00255925973591616</v>
       </c>
       <c r="E2" t="n">
         <v>0.1</v>
@@ -683,16 +683,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.006808996200561523</v>
+        <v>0.01502151489257813</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0007561908659159517</v>
+        <v>0.006446823963383353</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003456211090087891</v>
+        <v>0.006995105743408203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004872848964224761</v>
+        <v>0.003985798403965714</v>
       </c>
       <c r="E3" t="n">
         <v>0.1</v>
@@ -747,16 +747,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.04442963600158691</v>
+        <v>0.04792122840881348</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009846603779519248</v>
+        <v>0.002505802397616665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00746002197265625</v>
+        <v>0.007917499542236328</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0009764953097497215</v>
+        <v>0.001358262635894244</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
@@ -811,16 +811,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0225306510925293</v>
+        <v>0.02304949760437012</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0032902752322402</v>
+        <v>0.0019219915185454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007429122924804688</v>
+        <v>0.007304525375366211</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001340551071414184</v>
+        <v>0.001336711819677419</v>
       </c>
       <c r="E5" t="n">
         <v>0.1</v>
@@ -875,16 +875,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8083394050598145</v>
+        <v>0.7467369079589844</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09647823862522091</v>
+        <v>0.08344985347636034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0203371524810791</v>
+        <v>0.03389735221862793</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005092937191771146</v>
+        <v>0.005117903651379063</v>
       </c>
       <c r="E6" t="n">
         <v>0.1</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.986013986013986</v>
+        <v>0.993006993006993</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -928,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9972027972027971</v>
+        <v>0.9986013986013986</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.005594405594405583</v>
+        <v>0.002797202797202792</v>
       </c>
       <c r="R6" t="n">
         <v>33</v>
@@ -939,16 +939,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1649863719940186</v>
+        <v>0.235203218460083</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0271970638769588</v>
+        <v>0.02759064963005677</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02613859176635742</v>
+        <v>0.02244892120361328</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008121245592402154</v>
+        <v>0.005385141750326378</v>
       </c>
       <c r="E7" t="n">
         <v>0.1</v>
@@ -1003,16 +1003,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02842307090759277</v>
+        <v>0.0398141860961914</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01266439742267387</v>
+        <v>0.01592453311334849</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009203624725341798</v>
+        <v>0.01589388847351074</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005442778923140385</v>
+        <v>0.006651422899301965</v>
       </c>
       <c r="E8" t="n">
         <v>0.1</v>
@@ -1067,16 +1067,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.02531404495239258</v>
+        <v>0.01698336601257324</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01010160568141464</v>
+        <v>0.002933190126710615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009702825546264648</v>
+        <v>0.01011118888854981</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003739525524370389</v>
+        <v>0.005226586712616471</v>
       </c>
       <c r="E9" t="n">
         <v>0.1</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3872512340545654</v>
+        <v>0.4421526432037354</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05441936095616666</v>
+        <v>0.04325500274647682</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01407585144042969</v>
+        <v>0.01671671867370605</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004502444288076446</v>
+        <v>0.01143378264985641</v>
       </c>
       <c r="E10" t="n">
         <v>0.1</v>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.04747204780578614</v>
+        <v>0.03091139793395996</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02526180121466264</v>
+        <v>0.009270119504159378</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0117431640625</v>
+        <v>0.010296630859375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002006918854676226</v>
+        <v>0.00334116526315895</v>
       </c>
       <c r="E11" t="n">
         <v>0.1</v>
@@ -1259,16 +1259,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.265609121322631</v>
+        <v>6.49530668258667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.222131905736886</v>
+        <v>0.6744406879333775</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02076520919799805</v>
+        <v>0.0403740406036377</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01077636823990712</v>
+        <v>0.01591808798269742</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
@@ -1323,16 +1323,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.3028169631958008</v>
+        <v>0.370068883895874</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08569784979452494</v>
+        <v>0.02767765583902644</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02772669792175293</v>
+        <v>0.02736468315124512</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01471803577658787</v>
+        <v>0.0154946996459675</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
@@ -1387,16 +1387,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0254084587097168</v>
+        <v>0.04783864021301269</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00876160367845545</v>
+        <v>0.02752731973818302</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01247801780700684</v>
+        <v>0.01221551895141602</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002982751062649132</v>
+        <v>0.004875522885809541</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.01920328140258789</v>
+        <v>0.02346091270446777</v>
       </c>
       <c r="B15" t="n">
-        <v>0.002995200674430698</v>
+        <v>0.01425303997514766</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007706928253173828</v>
+        <v>0.01011123657226562</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001032113135617884</v>
+        <v>0.008353666869610385</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1515,16 +1515,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.07535581588745117</v>
+        <v>0.06888351440429688</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02012023780227661</v>
+        <v>0.01149162879490088</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009029960632324219</v>
+        <v>0.007790899276733399</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002423751429705781</v>
+        <v>0.001984415967269188</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1579,16 +1579,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.03165740966796875</v>
+        <v>0.03221631050109863</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00927026448682693</v>
+        <v>0.0171317206333989</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0132504940032959</v>
+        <v>0.009852361679077149</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003779997954560949</v>
+        <v>0.002516420679548092</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1643,16 +1643,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9780617713928222</v>
+        <v>0.836043405532837</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08929021045980844</v>
+        <v>0.126793137324449</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03610396385192871</v>
+        <v>0.0248934268951416</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01207493845613885</v>
+        <v>0.004251356181366276</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1707,16 +1707,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1826673030853271</v>
+        <v>0.2478198051452637</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03036089839761185</v>
+        <v>0.02858892560991781</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02284145355224609</v>
+        <v>0.03727130889892578</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001797441807514549</v>
+        <v>0.01194815200968771</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1771,16 +1771,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.02412419319152832</v>
+        <v>0.01971545219421387</v>
       </c>
       <c r="B20" t="n">
-        <v>0.005168732884063531</v>
+        <v>0.003044496983161547</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01011366844177246</v>
+        <v>0.01030540466308594</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004099878194898612</v>
+        <v>0.004702841712664912</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1835,16 +1835,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.01550445556640625</v>
+        <v>0.02324552536010742</v>
       </c>
       <c r="B21" t="n">
-        <v>0.003871031691502264</v>
+        <v>0.00220363093248963</v>
       </c>
       <c r="C21" t="n">
-        <v>0.006992959976196289</v>
+        <v>0.01197357177734375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001736033521685897</v>
+        <v>0.003646457720912421</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1899,16 +1899,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4371673583984375</v>
+        <v>0.4955040454864502</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07239004530689803</v>
+        <v>0.06255967315377513</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01183490753173828</v>
+        <v>0.01761660575866699</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00159456397201948</v>
+        <v>0.004939579530014752</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.03421506881713867</v>
+        <v>0.04767842292785644</v>
       </c>
       <c r="B23" t="n">
-        <v>0.007649125207993857</v>
+        <v>0.007173172387494729</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01246109008789062</v>
+        <v>0.01711440086364746</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003330596263203223</v>
+        <v>0.003760701253730355</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -2027,16 +2027,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.220325326919555</v>
+        <v>7.088434410095215</v>
       </c>
       <c r="B24" t="n">
-        <v>2.167099961642164</v>
+        <v>0.4162332285272494</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01570525169372559</v>
+        <v>0.01694059371948242</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01187928908998782</v>
+        <v>0.006710194926541999</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -2091,16 +2091,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.3080463409423828</v>
+        <v>0.4547834396362305</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1329096875773057</v>
+        <v>0.02482207054053146</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02463216781616211</v>
+        <v>0.0587404727935791</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01640031519659487</v>
+        <v>0.02203927270354503</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.02551813125610352</v>
+        <v>0.03332386016845703</v>
       </c>
       <c r="B26" t="n">
-        <v>0.005221860791278515</v>
+        <v>0.008109916080554398</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01091408729553223</v>
+        <v>0.01525979042053223</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002168527883951314</v>
+        <v>0.002501303641111338</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2219,16 +2219,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.02794046401977539</v>
+        <v>0.04044013023376465</v>
       </c>
       <c r="B27" t="n">
-        <v>0.006809158918149604</v>
+        <v>0.0165255104053683</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0143439769744873</v>
+        <v>0.01703166961669922</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003757719837476573</v>
+        <v>0.00789234555239466</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2283,16 +2283,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.0841148853302002</v>
+        <v>0.0952071189880371</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01625989054913772</v>
+        <v>0.01271425739540765</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01425495147705078</v>
+        <v>0.0140932559967041</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003421849086832534</v>
+        <v>0.00401205762222384</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2347,16 +2347,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.03445420265197754</v>
+        <v>0.05240187644958496</v>
       </c>
       <c r="B29" t="n">
-        <v>0.002763500231296237</v>
+        <v>0.008652041984419063</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01238899230957031</v>
+        <v>0.02268242835998535</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002125318778768598</v>
+        <v>0.005648735066159858</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2411,16 +2411,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.04179105758667</v>
+        <v>0.9355908393859863</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1679133368065987</v>
+        <v>0.1149266353038741</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02476596832275391</v>
+        <v>0.03144092559814453</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01026434428747391</v>
+        <v>0.008999359370066237</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2475,16 +2475,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2720667362213135</v>
+        <v>0.2311656475067139</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05931505499501036</v>
+        <v>0.02664698545378987</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03388471603393554</v>
+        <v>0.01928119659423828</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01274081144148633</v>
+        <v>0.005257390503240692</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2539,16 +2539,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.04288673400878906</v>
+        <v>0.03443975448608398</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0122716642431525</v>
+        <v>0.01543106370336139</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02880325317382813</v>
+        <v>0.01397705078125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0178326475288647</v>
+        <v>0.005267408518575351</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2603,16 +2603,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.02214512825012207</v>
+        <v>0.01841521263122559</v>
       </c>
       <c r="B33" t="n">
-        <v>0.008218333141558261</v>
+        <v>0.004136554176586337</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01078004837036133</v>
+        <v>0.006453132629394532</v>
       </c>
       <c r="D33" t="n">
-        <v>0.005884543468506124</v>
+        <v>0.0009520250197081098</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -2667,16 +2667,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5504166126251221</v>
+        <v>0.5500071048736572</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1106975157690965</v>
+        <v>0.1608256228711105</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01882243156433105</v>
+        <v>0.0249837875366211</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00543825155545076</v>
+        <v>0.01240341760002157</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -2731,16 +2731,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.05009322166442871</v>
+        <v>0.04004850387573242</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01605940833001256</v>
+        <v>0.001617850798150129</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01357336044311524</v>
+        <v>0.0169276237487793</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002634762353718106</v>
+        <v>0.002919076124450064</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -2795,16 +2795,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.690765190124512</v>
+        <v>3.642265319824219</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7049583909484691</v>
+        <v>0.2721318661453211</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02567505836486816</v>
+        <v>0.007009077072143555</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01286486965386521</v>
+        <v>0.001504746259893569</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -2859,16 +2859,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.462450647354126</v>
+        <v>0.4294622898101806</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03587403140419746</v>
+        <v>0.08786427510180633</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04576954841613769</v>
+        <v>0.03464741706848144</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01743388600228931</v>
+        <v>0.01871913626414119</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3034,16 +3034,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01586308479309082</v>
+        <v>0.01948380470275879</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003635191844160187</v>
+        <v>0.002763051451326993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008152627944946289</v>
+        <v>0.008026266098022461</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001752617596248223</v>
+        <v>0.001746896658776666</v>
       </c>
       <c r="E2" t="n">
         <v>0.1</v>
@@ -3098,16 +3098,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01444220542907715</v>
+        <v>0.01442933082580566</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0009294148020644583</v>
+        <v>0.001681344331886364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006651496887207032</v>
+        <v>0.007606029510498047</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009948085378395977</v>
+        <v>0.00149455038623291</v>
       </c>
       <c r="E3" t="n">
         <v>0.1</v>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3355391502380371</v>
+        <v>0.3261642932891846</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01937010106785134</v>
+        <v>0.05309875384417944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08950815200805665</v>
+        <v>0.05400457382202149</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01436811511207095</v>
+        <v>0.003436137941367229</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
@@ -3226,16 +3226,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2216113567352295</v>
+        <v>0.235170841217041</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03404426155200372</v>
+        <v>0.01659932427483089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04411978721618652</v>
+        <v>0.02832846641540527</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0186130181234055</v>
+        <v>0.008698940305067364</v>
       </c>
       <c r="E5" t="n">
         <v>0.1</v>
@@ -3290,16 +3290,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.06216683387756348</v>
+        <v>0.05188345909118652</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02426066433049061</v>
+        <v>0.02573866725091408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01829357147216797</v>
+        <v>0.0181760311126709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008152250749363038</v>
+        <v>0.007738443147054768</v>
       </c>
       <c r="E6" t="n">
         <v>0.1</v>
@@ -3354,16 +3354,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02476601600646973</v>
+        <v>0.01980557441711426</v>
       </c>
       <c r="B7" t="n">
-        <v>0.005699606047416776</v>
+        <v>0.006365906397238906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008472204208374023</v>
+        <v>0.009228229522705078</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000810269068064442</v>
+        <v>0.005317199141449733</v>
       </c>
       <c r="E7" t="n">
         <v>0.1</v>
@@ -3418,16 +3418,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3773630619049072</v>
+        <v>0.3913259506225586</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07045319870599018</v>
+        <v>0.08107445642635074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01598320007324219</v>
+        <v>0.02025952339172363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004566601133537383</v>
+        <v>0.01126992445953185</v>
       </c>
       <c r="E8" t="n">
         <v>0.1</v>
@@ -3482,16 +3482,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.06234583854675293</v>
+        <v>0.08178925514221191</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01781816977279304</v>
+        <v>0.0459308523946324</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01451168060302734</v>
+        <v>0.01382789611816406</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004680614890136789</v>
+        <v>0.005399708360042298</v>
       </c>
       <c r="E9" t="n">
         <v>0.1</v>
@@ -3546,16 +3546,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.03844919204711914</v>
+        <v>0.04508085250854492</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01693457237093555</v>
+        <v>0.02214242716025515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01299753189086914</v>
+        <v>0.01416201591491699</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004352469140652503</v>
+        <v>0.003428104022788878</v>
       </c>
       <c r="E10" t="n">
         <v>0.1</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02772531509399414</v>
+        <v>0.03564267158508301</v>
       </c>
       <c r="B11" t="n">
-        <v>0.006799139640265218</v>
+        <v>0.01011568839605383</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01443314552307129</v>
+        <v>0.01429157257080078</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01071583776394548</v>
+        <v>0.00330125206206295</v>
       </c>
       <c r="E11" t="n">
         <v>0.1</v>
@@ -3674,16 +3674,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2483139991760254</v>
+        <v>0.2577434539794922</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02964074040151518</v>
+        <v>0.1174105678581004</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08819055557250977</v>
+        <v>0.09125571250915528</v>
       </c>
       <c r="D12" t="n">
-        <v>0.006562059872030535</v>
+        <v>0.03702329886074172</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
@@ -3738,16 +3738,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.239201545715332</v>
+        <v>0.2954594135284424</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05971886305027362</v>
+        <v>0.0853920904155694</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11312575340271</v>
+        <v>0.0812753677368164</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04564696660439726</v>
+        <v>0.0162705758403405</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
@@ -3802,16 +3802,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03992323875427246</v>
+        <v>0.03082914352416992</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01835696072546163</v>
+        <v>0.007482995683990156</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01585783958435059</v>
+        <v>0.0117030143737793</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003439803761211099</v>
+        <v>0.003618938295026523</v>
       </c>
       <c r="E14" t="n">
         <v>0.1</v>
@@ -3866,16 +3866,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.03945026397705078</v>
+        <v>0.02884716987609863</v>
       </c>
       <c r="B15" t="n">
-        <v>0.008118440077645516</v>
+        <v>0.008155477731617827</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01661577224731445</v>
+        <v>0.01297111511230469</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001825689422434113</v>
+        <v>0.005297621121244878</v>
       </c>
       <c r="E15" t="n">
         <v>0.1</v>
@@ -3930,16 +3930,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4247849941253662</v>
+        <v>0.4642256736755371</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03019207264649436</v>
+        <v>0.09037849088902351</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0180811882019043</v>
+        <v>0.02040300369262695</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01100649526709671</v>
+        <v>0.002920514106881127</v>
       </c>
       <c r="E16" t="n">
         <v>0.1</v>
@@ -3994,16 +3994,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.08536930084228515</v>
+        <v>0.05175671577453613</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02470497920614244</v>
+        <v>0.0139133010300651</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02842330932617188</v>
+        <v>0.01253194808959961</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01239680379012107</v>
+        <v>0.0031611546565935</v>
       </c>
       <c r="E17" t="n">
         <v>0.1</v>
@@ -4058,16 +4058,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.02752914428710938</v>
+        <v>0.02825832366943359</v>
       </c>
       <c r="B18" t="n">
-        <v>0.006392280042909677</v>
+        <v>0.01060775720004332</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008943939208984375</v>
+        <v>0.009340858459472657</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001521340300507443</v>
+        <v>0.00217770907140333</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -4122,16 +4122,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.02063779830932617</v>
+        <v>0.01626763343811035</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01107818198845643</v>
+        <v>0.002108367406661176</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008797979354858399</v>
+        <v>0.006441354751586914</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001657347429168765</v>
+        <v>0.001083672813479565</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -4186,16 +4186,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2913229942321777</v>
+        <v>0.2465144634246826</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04979327661094276</v>
+        <v>0.0436381407575455</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05270013809204101</v>
+        <v>0.04159693717956543</v>
       </c>
       <c r="D20" t="n">
-        <v>0.019867195935084</v>
+        <v>0.01287206934294038</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -4250,16 +4250,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1017604351043701</v>
+        <v>0.06553468704223633</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01384470999784685</v>
+        <v>0.01162399149259167</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01943445205688477</v>
+        <v>0.02103033065795899</v>
       </c>
       <c r="D21" t="n">
-        <v>0.006849409330463113</v>
+        <v>0.007103273634953586</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4314,16 +4314,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.02584562301635742</v>
+        <v>0.03034467697143555</v>
       </c>
       <c r="B22" t="n">
-        <v>0.006776884164395617</v>
+        <v>0.006784815105893202</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01111717224121094</v>
+        <v>0.01210713386535645</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001974422027540277</v>
+        <v>0.00354947921664047</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -4378,16 +4378,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.01821131706237793</v>
+        <v>0.03664741516113281</v>
       </c>
       <c r="B23" t="n">
-        <v>0.006435658675092528</v>
+        <v>0.01096674566808661</v>
       </c>
       <c r="C23" t="n">
-        <v>0.009517383575439454</v>
+        <v>0.01976957321166992</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003610976044418989</v>
+        <v>0.009166889745663771</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4442,16 +4442,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4118081092834472</v>
+        <v>0.3755631923675537</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07063170261783294</v>
+        <v>0.04116122881721102</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01611146926879883</v>
+        <v>0.01886749267578125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003441140508517334</v>
+        <v>0.007174900004469256</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -4506,16 +4506,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.06071853637695312</v>
+        <v>0.05871124267578125</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01845908537003725</v>
+        <v>0.02240989646451766</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01083846092224121</v>
+        <v>0.01051654815673828</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003300359759064619</v>
+        <v>0.005084615629209348</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4570,16 +4570,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.02707958221435547</v>
+        <v>0.02562646865844726</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01025113083801627</v>
+        <v>0.01082635339673728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009656572341918945</v>
+        <v>0.01165509223937988</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002094914853698407</v>
+        <v>0.008846043617009547</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4634,16 +4634,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.02426671981811523</v>
+        <v>0.02872762680053711</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01794462863585987</v>
+        <v>0.0150380404606041</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01749224662780762</v>
+        <v>0.01350569725036621</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01373682028467298</v>
+        <v>0.006210444084839764</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1851054191589356</v>
+        <v>0.1251672267913818</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03082424226712092</v>
+        <v>0.01365205920216024</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03250894546508789</v>
+        <v>0.03494720458984375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.007472695848758249</v>
+        <v>0.008276357393497219</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -4762,16 +4762,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1459063053131104</v>
+        <v>0.1550321102142334</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01512493031952847</v>
+        <v>0.01531629119159177</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02144393920898437</v>
+        <v>0.02855286598205566</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003484895707392412</v>
+        <v>0.01075558572199369</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4826,16 +4826,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.03542113304138184</v>
+        <v>0.03088803291320801</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01335078075090541</v>
+        <v>0.008292146179141455</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0115532398223877</v>
+        <v>0.01307392120361328</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005107817982436136</v>
+        <v>0.004889769220080741</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -4890,16 +4890,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.02926020622253418</v>
+        <v>0.02176012992858887</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01096607296672898</v>
+        <v>0.006732213367712513</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01412100791931152</v>
+        <v>0.01022210121154785</v>
       </c>
       <c r="D31" t="n">
-        <v>0.007794162828776913</v>
+        <v>0.004084413897956878</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -4954,16 +4954,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3292461395263672</v>
+        <v>0.3336957931518555</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04438651615136699</v>
+        <v>0.02932009406373651</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01262431144714355</v>
+        <v>0.01147441864013672</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003561583103726683</v>
+        <v>0.001377228114917613</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -5018,16 +5018,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.04836740493774414</v>
+        <v>0.05640401840209961</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0133124933453247</v>
+        <v>0.02851019083334461</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009530591964721679</v>
+        <v>0.01262750625610352</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003183109555768563</v>
+        <v>0.004951974445845827</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -5082,16 +5082,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.02548422813415527</v>
+        <v>0.02864608764648437</v>
       </c>
       <c r="B34" t="n">
-        <v>0.007729235914425132</v>
+        <v>0.007421080663716972</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006836080551147461</v>
+        <v>0.01236863136291504</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0007413747010999985</v>
+        <v>0.005758305404593382</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -5146,16 +5146,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.01689505577087402</v>
+        <v>0.02038545608520508</v>
       </c>
       <c r="B35" t="n">
-        <v>0.004152217102730781</v>
+        <v>0.00689638836653048</v>
       </c>
       <c r="C35" t="n">
-        <v>0.007386636734008789</v>
+        <v>0.01080341339111328</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001539463809305065</v>
+        <v>0.00490541433053682</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -5210,16 +5210,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1963343620300293</v>
+        <v>0.1509881019592285</v>
       </c>
       <c r="B36" t="n">
-        <v>0.008185759167504417</v>
+        <v>0.03955607719152569</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02109718322753906</v>
+        <v>0.02520136833190918</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003578648649768154</v>
+        <v>0.009402694936537366</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -5274,16 +5274,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.0775071144104004</v>
+        <v>0.09589581489562989</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0201161293841631</v>
+        <v>0.0243810649037597</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01605286598205567</v>
+        <v>0.0235870361328125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.006067800674549692</v>
+        <v>0.01446288521821553</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -5338,16 +5338,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.03456692695617676</v>
+        <v>0.02305512428283691</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01330236548272918</v>
+        <v>0.005470714916416858</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0133537769317627</v>
+        <v>0.01124477386474609</v>
       </c>
       <c r="D38" t="n">
-        <v>0.006766467876428958</v>
+        <v>0.003644183537327938</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -5402,16 +5402,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.02276530265808106</v>
+        <v>0.04356164932250976</v>
       </c>
       <c r="B39" t="n">
-        <v>0.005682933445751937</v>
+        <v>0.01705446637452877</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01130599975585938</v>
+        <v>0.01612629890441895</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002251149857101704</v>
+        <v>0.005058119108542377</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -5466,16 +5466,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.3164071559906006</v>
+        <v>0.2961014747619629</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06511438454461679</v>
+        <v>0.08924507700627292</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01346588134765625</v>
+        <v>0.01243124008178711</v>
       </c>
       <c r="D40" t="n">
-        <v>0.007952416883377233</v>
+        <v>0.007538840056691077</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -5530,16 +5530,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.06072330474853516</v>
+        <v>0.05639901161193848</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02121659895386709</v>
+        <v>0.01032116015981558</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01227927207946777</v>
+        <v>0.01019191741943359</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002546291489655745</v>
+        <v>0.002024002006129505</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -5594,16 +5594,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.03760619163513183</v>
+        <v>0.03722858428955078</v>
       </c>
       <c r="B42" t="n">
-        <v>0.006725986152919299</v>
+        <v>0.01207142229333602</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01702046394348145</v>
+        <v>0.01416392326354981</v>
       </c>
       <c r="D42" t="n">
-        <v>0.005100021844459669</v>
+        <v>0.004560670371647072</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -5658,16 +5658,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.0270449161529541</v>
+        <v>0.01628227233886719</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01200178958028462</v>
+        <v>0.00196848996794597</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01168484687805176</v>
+        <v>0.006641483306884766</v>
       </c>
       <c r="D43" t="n">
-        <v>0.004570854339174974</v>
+        <v>0.001628257559623108</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -5722,16 +5722,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1365140914916992</v>
+        <v>0.1298904895782471</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02635982289911019</v>
+        <v>0.03840370215842268</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03308067321777344</v>
+        <v>0.03327035903930664</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01566621206777882</v>
+        <v>0.009019083751465238</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -5786,16 +5786,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.05744919776916504</v>
+        <v>0.05589971542358398</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01409734610906511</v>
+        <v>0.009334686913607473</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01339740753173828</v>
+        <v>0.01518650054931641</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003164559125782354</v>
+        <v>0.005653452093341975</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -5850,16 +5850,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.02492742538452148</v>
+        <v>0.0292294979095459</v>
       </c>
       <c r="B46" t="n">
-        <v>0.004249659659692994</v>
+        <v>0.005383190406778263</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01029930114746094</v>
+        <v>0.009924793243408203</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003150355944334555</v>
+        <v>0.002703488496260394</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -5914,16 +5914,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.03223276138305664</v>
+        <v>0.01713428497314453</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01083316279899016</v>
+        <v>0.007970305825031889</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01514320373535156</v>
+        <v>0.01068720817565918</v>
       </c>
       <c r="D47" t="n">
-        <v>0.007969646727265706</v>
+        <v>0.008974173672235413</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -5978,16 +5978,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1800868511199951</v>
+        <v>0.1810742378234863</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09284294102155034</v>
+        <v>0.07744617658613476</v>
       </c>
       <c r="C48" t="n">
-        <v>0.00549478530883789</v>
+        <v>0.005713844299316406</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0007690408991414939</v>
+        <v>0.0003304972962993957</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -6042,16 +6042,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.03869314193725586</v>
+        <v>0.04582509994506836</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02809741819048932</v>
+        <v>0.023982966272589</v>
       </c>
       <c r="C49" t="n">
-        <v>0.010906982421875</v>
+        <v>0.008390140533447266</v>
       </c>
       <c r="D49" t="n">
-        <v>0.007941145083407796</v>
+        <v>0.003314234844512141</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -6217,16 +6217,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.27218918800354</v>
+        <v>0.3041504859924317</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01973496036308807</v>
+        <v>0.02684356271213288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0161592960357666</v>
+        <v>0.01824502944946289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000888471433516814</v>
+        <v>0.00311039180303603</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -6273,16 +6273,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3456806659698486</v>
+        <v>0.3159913063049317</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02180812848485347</v>
+        <v>0.008502293544980312</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01755733489990234</v>
+        <v>0.01681103706359863</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001157564236106546</v>
+        <v>0.003353779861768459</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -6329,16 +6329,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6610127925872803</v>
+        <v>0.6013609409332276</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08718988881993595</v>
+        <v>0.04151242350011761</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0235844612121582</v>
+        <v>0.02651925086975098</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000985532704863622</v>
+        <v>0.002967485624780861</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -6385,16 +6385,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7409787178039551</v>
+        <v>0.6353859424591064</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07023106481699376</v>
+        <v>0.02784309444329952</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02753944396972656</v>
+        <v>0.02824854850769043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00283189127116626</v>
+        <v>0.005235236567576628</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -6441,16 +6441,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3356391429901123</v>
+        <v>0.2982461929321289</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05950095293937251</v>
+        <v>0.02386303541933906</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01808395385742188</v>
+        <v>0.01640219688415527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006805360321312627</v>
+        <v>0.001476353878261887</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -6497,16 +6497,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3521809101104736</v>
+        <v>0.3321562767028808</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02932405021746287</v>
+        <v>0.03002600910346339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.018719482421875</v>
+        <v>0.01755051612854004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002722748513384336</v>
+        <v>0.002729926589689211</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -6553,16 +6553,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5322170257568359</v>
+        <v>0.568495512008667</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01830927836598852</v>
+        <v>0.03528830253998393</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02266926765441895</v>
+        <v>0.02538962364196777</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001234013655882113</v>
+        <v>0.003408777767616983</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -6609,16 +6609,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.6599376201629639</v>
+        <v>0.6422585010528564</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04496089881639979</v>
+        <v>0.08092967453851896</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02871627807617188</v>
+        <v>0.02653837203979492</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004053990307327734</v>
+        <v>0.00236050104331201</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -6665,16 +6665,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2975856781005859</v>
+        <v>0.2927299499511719</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03765184339767626</v>
+        <v>0.03186376028896629</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01401867866516113</v>
+        <v>0.01687984466552734</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0009201272825168355</v>
+        <v>0.002843801393455058</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
@@ -6721,16 +6721,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3257953643798828</v>
+        <v>0.3483455657958984</v>
       </c>
       <c r="B11" t="n">
-        <v>0.011682784389085</v>
+        <v>0.04667947726046948</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01657013893127441</v>
+        <v>0.0209136962890625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002149679714633214</v>
+        <v>0.006915333607795914</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
@@ -6777,16 +6777,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5577617168426514</v>
+        <v>0.5743406295776368</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03440290716111279</v>
+        <v>0.04510222661339556</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02311816215515137</v>
+        <v>0.02414383888244629</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0006405578542736394</v>
+        <v>0.001078669455923698</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
@@ -6833,16 +6833,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6596768379211426</v>
+        <v>0.6618286609649658</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05378897373407746</v>
+        <v>0.04263695678026605</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02616767883300781</v>
+        <v>0.02734708786010742</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002285309323936862</v>
+        <v>0.002998317698289188</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
@@ -6889,16 +6889,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2851054668426514</v>
+        <v>0.2881369113922119</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01110987687920225</v>
+        <v>0.03529091216723228</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01507482528686523</v>
+        <v>0.0153684139251709</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001020981544586541</v>
+        <v>0.001495070114353302</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
@@ -6945,16 +6945,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3254783153533936</v>
+        <v>0.3654116630554199</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02525917664396087</v>
+        <v>0.03590513550709444</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0164924144744873</v>
+        <v>0.03606739044189453</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001773810831295058</v>
+        <v>0.01281769059636913</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
@@ -7001,16 +7001,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.565199613571167</v>
+        <v>0.6560186386108399</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03986929938598379</v>
+        <v>0.04081842867977352</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02578535079956055</v>
+        <v>0.02687735557556152</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002807365365208986</v>
+        <v>0.004194709628792067</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
@@ -7057,16 +7057,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.6384788990020752</v>
+        <v>0.7490833282470704</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04885468412315256</v>
+        <v>0.06797479502579927</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02660584449768066</v>
+        <v>0.02671570777893066</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002899624301100138</v>
+        <v>0.003563874458795069</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
@@ -7113,16 +7113,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2943907260894775</v>
+        <v>0.2876410007476807</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02467287164979825</v>
+        <v>0.01587345835070982</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01559419631958008</v>
+        <v>0.01472830772399902</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00190008314124953</v>
+        <v>0.001158625232350626</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -7171,16 +7171,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3205539226531983</v>
+        <v>0.334312105178833</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01818368248440778</v>
+        <v>0.02550444749026195</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01629037857055664</v>
+        <v>0.01749267578125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001057642159607864</v>
+        <v>0.001314208638246143</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -7229,16 +7229,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5595791816711426</v>
+        <v>0.5603192329406739</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02564822256787186</v>
+        <v>0.03823776563149739</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02651305198669434</v>
+        <v>0.02473893165588379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003383851586780799</v>
+        <v>0.00309266403044303</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -7287,16 +7287,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6855872631072998</v>
+        <v>0.646356201171875</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03066938242012108</v>
+        <v>0.05075980034323822</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03148989677429199</v>
+        <v>0.02737584114074707</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002501824046769545</v>
+        <v>0.002990302720408264</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -7345,16 +7345,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2694519519805908</v>
+        <v>0.2747166633605957</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0076510383096529</v>
+        <v>0.01309259421857756</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0144190788269043</v>
+        <v>0.01493315696716309</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0004974399196108044</v>
+        <v>0.002599059212222494</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -7403,16 +7403,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.3199639320373535</v>
+        <v>0.3506791114807129</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01586337419482809</v>
+        <v>0.03109261002636898</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0158073902130127</v>
+        <v>0.01747426986694336</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001002522166539273</v>
+        <v>0.004893532875183819</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -7461,16 +7461,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5573395729064942</v>
+        <v>0.5998172283172607</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05226853832725287</v>
+        <v>0.03898136884566596</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02650632858276367</v>
+        <v>0.02387576103210449</v>
       </c>
       <c r="D24" t="n">
-        <v>0.004290236559224113</v>
+        <v>0.001436262534141047</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -7519,16 +7519,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.6464538097381591</v>
+        <v>0.769077730178833</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04059450488535248</v>
+        <v>0.04086404849520216</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0267977237701416</v>
+        <v>0.02660908699035645</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001793080346947662</v>
+        <v>0.002691766654339782</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -7577,16 +7577,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2781548976898193</v>
+        <v>0.3131368637084961</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01056919962610014</v>
+        <v>0.05072372322914516</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01593341827392578</v>
+        <v>0.01457624435424805</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0012036817073716</v>
+        <v>0.001142133371152278</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -7635,16 +7635,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3181487560272217</v>
+        <v>0.3604159355163574</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02410753192350606</v>
+        <v>0.06534996875156514</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01619668006896973</v>
+        <v>0.01740989685058594</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001681560869666729</v>
+        <v>0.003024183588432019</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -7693,16 +7693,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5783164978027344</v>
+        <v>0.5760008335113526</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03197950029759906</v>
+        <v>0.05209653379657909</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02722330093383789</v>
+        <v>0.02462220191955566</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003814283987546535</v>
+        <v>0.001449213568581359</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -7751,16 +7751,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.6601856708526611</v>
+        <v>0.6472743034362793</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05455284335448412</v>
+        <v>0.0388544908732209</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0263918399810791</v>
+        <v>0.02831196784973145</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001902030496114897</v>
+        <v>0.003767600729002051</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -7809,16 +7809,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.2591589450836181</v>
+        <v>0.2832871913909912</v>
       </c>
       <c r="B30" t="n">
-        <v>0.007300242586289534</v>
+        <v>0.02900935601683801</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01417436599731445</v>
+        <v>0.01744508743286133</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0008371527384919713</v>
+        <v>0.006616095482735598</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -7867,16 +7867,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3283989906311035</v>
+        <v>0.3293128490447998</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01473442366388382</v>
+        <v>0.01456741079944184</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01664290428161621</v>
+        <v>0.01599359512329102</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001246261934202118</v>
+        <v>0.0005481075232026161</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -7925,16 +7925,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.5804096698760987</v>
+        <v>0.578593397140503</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02738245662889258</v>
+        <v>0.06937198872100918</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0255826473236084</v>
+        <v>0.02544589042663574</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003408328107718955</v>
+        <v>0.003637952682827057</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -7983,16 +7983,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.6599639892578125</v>
+        <v>0.6203779220581055</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06147223235064677</v>
+        <v>0.02101219125241495</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02802090644836426</v>
+        <v>0.02702302932739258</v>
       </c>
       <c r="D33" t="n">
-        <v>0.004347333465073766</v>
+        <v>0.002909662712600075</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -8041,16 +8041,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2724163055419922</v>
+        <v>0.28537278175354</v>
       </c>
       <c r="B34" t="n">
-        <v>0.009198734975688507</v>
+        <v>0.01663880335244062</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01461277008056641</v>
+        <v>0.01450858116149902</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0009934276012262349</v>
+        <v>0.0006938072675900861</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -8099,16 +8099,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3294816970825195</v>
+        <v>0.3396347999572754</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02345587058862896</v>
+        <v>0.03914665501448995</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01536779403686523</v>
+        <v>0.01800541877746582</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0005287260719452813</v>
+        <v>0.003705842313928405</v>
       </c>
       <c r="E35" t="n">
         <v>20</v>
@@ -8157,16 +8157,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5710292816162109</v>
+        <v>0.5518327236175538</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03577254185912548</v>
+        <v>0.03322488312990739</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02494416236877441</v>
+        <v>0.02389273643493652</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003685112806629711</v>
+        <v>0.0008290886651857893</v>
       </c>
       <c r="E36" t="n">
         <v>20</v>
@@ -8215,16 +8215,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.6680615901947021</v>
+        <v>0.6393847465515137</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02913612351740358</v>
+        <v>0.0396174015603798</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02829766273498535</v>
+        <v>0.02461519241333008</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003662570325829155</v>
+        <v>0.0009226496836916326</v>
       </c>
       <c r="E37" t="n">
         <v>20</v>
@@ -8273,16 +8273,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2980832576751709</v>
+        <v>0.3029354095458984</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02443592955700167</v>
+        <v>0.03067955704200262</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02041325569152832</v>
+        <v>0.01475424766540527</v>
       </c>
       <c r="D38" t="n">
-        <v>0.005491595794822712</v>
+        <v>0.0005763067268824456</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -8331,16 +8331,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3278753757476807</v>
+        <v>0.3164714336395263</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01834418860537554</v>
+        <v>0.01473573748398266</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0175271987915039</v>
+        <v>0.01644024848937988</v>
       </c>
       <c r="D39" t="n">
-        <v>0.002119560185830926</v>
+        <v>0.001075519012234604</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
@@ -8389,16 +8389,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.586545753479004</v>
+        <v>0.6010930061340332</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03514956817632851</v>
+        <v>0.05805725567880207</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02654609680175781</v>
+        <v>0.0233522891998291</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002430061652880397</v>
+        <v>0.0006114547899161266</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
@@ -8447,16 +8447,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.6688118934631347</v>
+        <v>0.6514202117919922</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03984474070118924</v>
+        <v>0.03998738326611338</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02906312942504883</v>
+        <v>0.02867279052734375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002972764159057856</v>
+        <v>0.004815856378526361</v>
       </c>
       <c r="E41" t="n">
         <v>20</v>
@@ -8505,16 +8505,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2900308609008789</v>
+        <v>0.2796150207519531</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01492816939648221</v>
+        <v>0.01319149708828831</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01614346504211426</v>
+        <v>0.01496405601501465</v>
       </c>
       <c r="D42" t="n">
-        <v>0.003006583382879906</v>
+        <v>0.001168446207287175</v>
       </c>
       <c r="E42" t="n">
         <v>20</v>
@@ -8563,16 +8563,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.3190459728240967</v>
+        <v>0.3590517044067383</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01122720910387547</v>
+        <v>0.03279738657375141</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01656637191772461</v>
+        <v>0.01952323913574219</v>
       </c>
       <c r="D43" t="n">
-        <v>0.002554157225035361</v>
+        <v>0.005237236142374713</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -8621,16 +8621,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.601174783706665</v>
+        <v>0.5831630229949951</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0526738411314924</v>
+        <v>0.04671928470988205</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02457647323608398</v>
+        <v>0.02399682998657227</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001512675511100872</v>
+        <v>0.001833549330004531</v>
       </c>
       <c r="E44" t="n">
         <v>20</v>
@@ -8679,16 +8679,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6208935260772706</v>
+        <v>0.6650797367095947</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02775513148002164</v>
+        <v>0.02827654758236395</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02646007537841797</v>
+        <v>0.02799720764160156</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003194628701889494</v>
+        <v>0.003265277327390262</v>
       </c>
       <c r="E45" t="n">
         <v>20</v>
@@ -8737,16 +8737,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.2774422168731689</v>
+        <v>0.3188194274902344</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03168223265766268</v>
+        <v>0.03094376164102479</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01478266716003418</v>
+        <v>0.01556110382080078</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001369833550973081</v>
+        <v>0.001121074460300354</v>
       </c>
       <c r="E46" t="n">
         <v>20</v>
@@ -8795,16 +8795,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.339962911605835</v>
+        <v>0.324685001373291</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0240520530267054</v>
+        <v>0.01232352939687857</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01633181571960449</v>
+        <v>0.0160771369934082</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001870262513987309</v>
+        <v>0.001477546277202616</v>
       </c>
       <c r="E47" t="n">
         <v>20</v>
@@ -8853,16 +8853,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.5137487411499023</v>
+        <v>0.5206279754638672</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03250734297501468</v>
+        <v>0.01268083147659357</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01984176635742187</v>
+        <v>0.0189633846282959</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003320726666872904</v>
+        <v>0.003463450571725237</v>
       </c>
       <c r="E48" t="n">
         <v>20</v>
@@ -8911,16 +8911,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.5108921527862549</v>
+        <v>0.5105763435363769</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03782945708704525</v>
+        <v>0.04139541943980554</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01404509544372559</v>
+        <v>0.01301479339599609</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002208257038500781</v>
+        <v>0.000993357841354518</v>
       </c>
       <c r="E49" t="n">
         <v>20</v>
@@ -9080,16 +9080,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2948955535888672</v>
+        <v>0.2401586532592773</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03096794644058757</v>
+        <v>0.009087172331574678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005884170532226562</v>
+        <v>0.004668092727661133</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001992521097472328</v>
+        <v>0.0004211451480275677</v>
       </c>
       <c r="E2" t="n">
         <v>0.01</v>
@@ -9138,16 +9138,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.03878583908081</v>
+        <v>1.898581981658936</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3020541794526561</v>
+        <v>0.2060345288182105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005101346969604492</v>
+        <v>0.005904245376586914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004406569696772036</v>
+        <v>0.001144679230378271</v>
       </c>
       <c r="E3" t="n">
         <v>0.01</v>
@@ -9196,16 +9196,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.273594856262207</v>
+        <v>0.2567145824432373</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02169189728203185</v>
+        <v>0.01802189773903016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00674285888671875</v>
+        <v>0.004496574401855469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004160375170346791</v>
+        <v>0.0008907735848484715</v>
       </c>
       <c r="E4" t="n">
         <v>0.01</v>
@@ -9254,16 +9254,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.770934534072876</v>
+        <v>1.654277658462525</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07114332387956054</v>
+        <v>0.1479305672738842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00500030517578125</v>
+        <v>0.005382490158081055</v>
       </c>
       <c r="D5" t="n">
-        <v>4.687394153994368e-05</v>
+        <v>0.0007579423511410323</v>
       </c>
       <c r="E5" t="n">
         <v>0.01</v>
@@ -9312,16 +9312,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4602866172790527</v>
+        <v>0.4479108333587646</v>
       </c>
       <c r="B6" t="n">
-        <v>0.016916245840358</v>
+        <v>0.007294543976189943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004738283157348633</v>
+        <v>0.004062366485595703</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005103563934877696</v>
+        <v>0.0002456434106486777</v>
       </c>
       <c r="E6" t="n">
         <v>0.01</v>
@@ -9370,16 +9370,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.140317678451538</v>
+        <v>4.243521308898925</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6717115506349653</v>
+        <v>0.6117736078663776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005257797241210937</v>
+        <v>0.005854940414428711</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0004606013805499526</v>
+        <v>0.0008317479120643862</v>
       </c>
       <c r="E7" t="n">
         <v>0.01</v>
@@ -9428,16 +9428,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4897852420806885</v>
+        <v>0.4484874248504639</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01466058006885245</v>
+        <v>0.02038803978618396</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005864572525024414</v>
+        <v>0.004520988464355469</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002778364734365765</v>
+        <v>0.000559154256872762</v>
       </c>
       <c r="E8" t="n">
         <v>0.01</v>
@@ -9486,16 +9486,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.110356378555298</v>
+        <v>2.892759990692139</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1550762467679276</v>
+        <v>0.1761674541072087</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006102514266967773</v>
+        <v>0.00531930923461914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0008295251871925254</v>
+        <v>0.0003911865331495267</v>
       </c>
       <c r="E9" t="n">
         <v>0.01</v>
@@ -9544,16 +9544,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2815080642700195</v>
+        <v>0.2709400653839111</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01548852267280831</v>
+        <v>0.02391768388550839</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004713201522827148</v>
+        <v>0.004219818115234375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0005739726051177834</v>
+        <v>0.0002452424265992402</v>
       </c>
       <c r="E10" t="n">
         <v>0.01</v>
@@ -9602,16 +9602,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.312691736221313</v>
+        <v>2.094063329696655</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3165414183609306</v>
+        <v>0.4567856599838101</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005325746536254883</v>
+        <v>0.005532073974609375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0004764347858287704</v>
+        <v>0.0004811052849768247</v>
       </c>
       <c r="E11" t="n">
         <v>0.01</v>
@@ -9660,16 +9660,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2917157173156738</v>
+        <v>0.2814150333404541</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0236727208558767</v>
+        <v>0.01175634344811262</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007239341735839844</v>
+        <v>0.005054140090942382</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003320668905553603</v>
+        <v>0.0007657662802076743</v>
       </c>
       <c r="E12" t="n">
         <v>0.01</v>
@@ -9718,16 +9718,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.894804954528809</v>
+        <v>1.806627655029297</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05884868219493347</v>
+        <v>0.09183279303018771</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004832696914672851</v>
+        <v>0.005228042602539062</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002954340962736855</v>
+        <v>0.0002571757899667009</v>
       </c>
       <c r="E13" t="n">
         <v>0.01</v>
@@ -9776,16 +9776,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5015084266662597</v>
+        <v>0.4736497402191162</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05739303315798195</v>
+        <v>0.02464794017089383</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00534219741821289</v>
+        <v>0.004346418380737305</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001665727051288974</v>
+        <v>0.0004849299660609243</v>
       </c>
       <c r="E14" t="n">
         <v>0.01</v>
@@ -9834,16 +9834,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.00509467124939</v>
+        <v>5.045019054412842</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9285860516183073</v>
+        <v>0.7404273992688811</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005649805068969727</v>
+        <v>0.006202936172485352</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0006253061303566162</v>
+        <v>0.00133909710586234</v>
       </c>
       <c r="E15" t="n">
         <v>0.01</v>
@@ -9892,16 +9892,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.453012752532959</v>
+        <v>0.4999983787536621</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02375330251600698</v>
+        <v>0.05152516055296706</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004706716537475586</v>
+        <v>0.00557413101196289</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001028412670705961</v>
+        <v>0.001593796003582809</v>
       </c>
       <c r="E16" t="n">
         <v>0.01</v>
@@ -9950,16 +9950,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.810722255706787</v>
+        <v>3.21928596496582</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1888177461145982</v>
+        <v>0.08875789952259636</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004942417144775391</v>
+        <v>0.005117082595825195</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00016940857261667</v>
+        <v>0.0003275178713934078</v>
       </c>
       <c r="E17" t="n">
         <v>0.01</v>
@@ -10008,16 +10008,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1989680290222168</v>
+        <v>0.2477166175842285</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01164466079848423</v>
+        <v>0.03014696982804575</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00362558364868164</v>
+        <v>0.005932855606079102</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001651868392908647</v>
+        <v>0.002261874581507816</v>
       </c>
       <c r="E18" t="n">
         <v>0.1</v>
@@ -10066,16 +10066,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.5863112449646</v>
+        <v>1.747190618515015</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4167005732477618</v>
+        <v>0.1922428214602743</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004962682723999023</v>
+        <v>0.006471824645996094</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0007614504917718302</v>
+        <v>0.002133950840396957</v>
       </c>
       <c r="E19" t="n">
         <v>0.1</v>
@@ -10124,16 +10124,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1935188293457031</v>
+        <v>0.2167123794555664</v>
       </c>
       <c r="B20" t="n">
-        <v>0.003659938207757753</v>
+        <v>0.01250422359739094</v>
       </c>
       <c r="C20" t="n">
-        <v>0.003783464431762695</v>
+        <v>0.005112552642822265</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000186046986398521</v>
+        <v>0.001987452382312324</v>
       </c>
       <c r="E20" t="n">
         <v>0.1</v>
@@ -10182,16 +10182,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.24723048210144</v>
+        <v>1.238561820983887</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07493353437976676</v>
+        <v>0.07387230303769379</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00558314323425293</v>
+        <v>0.004969406127929688</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0004983472248986622</v>
+        <v>0.0005009295517927941</v>
       </c>
       <c r="E21" t="n">
         <v>0.1</v>
@@ -10240,16 +10240,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.409599494934082</v>
+        <v>0.3924705982208252</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0246186192313804</v>
+        <v>0.03042320613480646</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004247045516967774</v>
+        <v>0.004624700546264649</v>
       </c>
       <c r="D22" t="n">
-        <v>9.66522689749481e-05</v>
+        <v>0.001032468055876938</v>
       </c>
       <c r="E22" t="n">
         <v>0.1</v>
@@ -10298,16 +10298,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.085968255996704</v>
+        <v>2.362762308120728</v>
       </c>
       <c r="B23" t="n">
-        <v>0.25823848420374</v>
+        <v>0.2505844605466726</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005355548858642578</v>
+        <v>0.005105018615722656</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0004785052780843965</v>
+        <v>0.000399264155356063</v>
       </c>
       <c r="E23" t="n">
         <v>0.1</v>
@@ -10356,16 +10356,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4327977180480957</v>
+        <v>0.3902744293212891</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04959062951048521</v>
+        <v>0.01572385880190723</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004705953598022461</v>
+        <v>0.004595708847045898</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0004535540196954287</v>
+        <v>0.0005758549245751034</v>
       </c>
       <c r="E24" t="n">
         <v>0.1</v>
@@ -10414,16 +10414,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.366840648651123</v>
+        <v>2.169717359542847</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2011914482618783</v>
+        <v>0.08337673752030446</v>
       </c>
       <c r="C25" t="n">
-        <v>0.005088281631469726</v>
+        <v>0.005681180953979492</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001962344173581947</v>
+        <v>0.001183116895259458</v>
       </c>
       <c r="E25" t="n">
         <v>0.1</v>
@@ -10472,16 +10472,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2291605949401855</v>
+        <v>0.2140758037567139</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01240623157627871</v>
+        <v>0.009819848793288099</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004381799697875976</v>
+        <v>0.004513788223266602</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0004731814103942878</v>
+        <v>0.0007001414851403017</v>
       </c>
       <c r="E26" t="n">
         <v>0.1</v>
@@ -10530,16 +10530,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.686868190765381</v>
+        <v>1.821027135848999</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3165235393507051</v>
+        <v>0.3813412305592101</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005545663833618164</v>
+        <v>0.004994726181030274</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0007152630233393548</v>
+        <v>0.0002251075247721263</v>
       </c>
       <c r="E27" t="n">
         <v>0.1</v>
@@ -10588,16 +10588,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2208036899566651</v>
+        <v>0.2089676856994629</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01906904875119493</v>
+        <v>0.007993444235284936</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005340051651000976</v>
+        <v>0.00424036979675293</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001020466438480294</v>
+        <v>0.00062359866966993</v>
       </c>
       <c r="E28" t="n">
         <v>0.1</v>
@@ -10646,16 +10646,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.278072214126587</v>
+        <v>1.250311136245728</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05751924129886481</v>
+        <v>0.05486910667510827</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004789972305297851</v>
+        <v>0.004732418060302735</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003732008476225396</v>
+        <v>0.0003103897999037927</v>
       </c>
       <c r="E29" t="n">
         <v>0.1</v>
@@ -10704,16 +10704,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4504657745361328</v>
+        <v>0.4078182220458985</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01877427552151878</v>
+        <v>0.02651471252917241</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004708337783813477</v>
+        <v>0.004967164993286133</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0003896508150775843</v>
+        <v>0.001214255401810783</v>
       </c>
       <c r="E30" t="n">
         <v>0.1</v>
@@ -10762,16 +10762,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.597908878326416</v>
+        <v>2.328103542327881</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3630076506110756</v>
+        <v>0.2183064480313682</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00427241325378418</v>
+        <v>0.003396463394165039</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001143617290460607</v>
+        <v>0.0007654456668196479</v>
       </c>
       <c r="E31" t="n">
         <v>0.1</v>
@@ -10820,16 +10820,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4374557971954346</v>
+        <v>0.4025423049926758</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05554807333484187</v>
+        <v>0.01726131812502799</v>
       </c>
       <c r="C32" t="n">
-        <v>0.004363012313842773</v>
+        <v>0.004160118103027344</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0003086055091145505</v>
+        <v>0.0004039746393410334</v>
       </c>
       <c r="E32" t="n">
         <v>0.1</v>
@@ -10878,16 +10878,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.882624101638794</v>
+        <v>1.756406402587891</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03533795767467596</v>
+        <v>0.08980579306050827</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003428840637207031</v>
+        <v>0.003134632110595703</v>
       </c>
       <c r="D33" t="n">
-        <v>0.000359183285937381</v>
+        <v>0.0002346404461938297</v>
       </c>
       <c r="E33" t="n">
         <v>0.1</v>

--- a/machine_learning/labs/lab_08/grid_search_results.xlsx
+++ b/machine_learning/labs/lab_08/grid_search_results.xlsx
@@ -619,16 +619,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01759033203125</v>
+        <v>0.01198005676269531</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007672581668447013</v>
+        <v>0.0009476076882357335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006675815582275391</v>
+        <v>0.004894542694091797</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00255925973591616</v>
+        <v>0.0003469029291989376</v>
       </c>
       <c r="E2" t="n">
         <v>0.1</v>
@@ -683,16 +683,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01502151489257813</v>
+        <v>0.01589970588684082</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006446823963383353</v>
+        <v>0.007050606857149434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006995105743408203</v>
+        <v>0.006173324584960937</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003985798403965714</v>
+        <v>0.00275656284232954</v>
       </c>
       <c r="E3" t="n">
         <v>0.1</v>
@@ -747,16 +747,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.04792122840881348</v>
+        <v>0.06222381591796875</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002505802397616665</v>
+        <v>0.02148178264670067</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007917499542236328</v>
+        <v>0.007443523406982422</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001358262635894244</v>
+        <v>0.002508987150990662</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
@@ -811,16 +811,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02304949760437012</v>
+        <v>0.01755175590515137</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0019219915185454</v>
+        <v>0.002326478499742708</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007304525375366211</v>
+        <v>0.00552663803100586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001336711819677419</v>
+        <v>0.001086554997189041</v>
       </c>
       <c r="E5" t="n">
         <v>0.1</v>
@@ -875,16 +875,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7467369079589844</v>
+        <v>0.603055763244629</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08344985347636034</v>
+        <v>0.04636780106161526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03389735221862793</v>
+        <v>0.0319880485534668</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005117903651379063</v>
+        <v>0.01274101299471022</v>
       </c>
       <c r="E6" t="n">
         <v>0.1</v>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.993006993006993</v>
+        <v>0.986013986013986</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -928,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9986013986013986</v>
+        <v>0.9972027972027971</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002797202797202792</v>
+        <v>0.005594405594405583</v>
       </c>
       <c r="R6" t="n">
         <v>33</v>
@@ -939,16 +939,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.235203218460083</v>
+        <v>0.1906403064727783</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02759064963005677</v>
+        <v>0.04345859808136513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02244892120361328</v>
+        <v>0.02225117683410644</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005385141750326378</v>
+        <v>0.006563725541178581</v>
       </c>
       <c r="E7" t="n">
         <v>0.1</v>
@@ -1003,16 +1003,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0398141860961914</v>
+        <v>0.01674656867980957</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01592453311334849</v>
+        <v>0.002532514300076723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01589388847351074</v>
+        <v>0.006944799423217773</v>
       </c>
       <c r="D8" t="n">
-        <v>0.006651422899301965</v>
+        <v>0.0007245349520629466</v>
       </c>
       <c r="E8" t="n">
         <v>0.1</v>
@@ -1067,16 +1067,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01698336601257324</v>
+        <v>0.02041740417480469</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002933190126710615</v>
+        <v>0.005919201326686531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01011118888854981</v>
+        <v>0.00737757682800293</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005226586712616471</v>
+        <v>0.002886587552285542</v>
       </c>
       <c r="E9" t="n">
         <v>0.1</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4421526432037354</v>
+        <v>0.3962140560150146</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04325500274647682</v>
+        <v>0.0424872487102903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01671671867370605</v>
+        <v>0.01877436637878418</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01143378264985641</v>
+        <v>0.006649839260643139</v>
       </c>
       <c r="E10" t="n">
         <v>0.1</v>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03091139793395996</v>
+        <v>0.03934059143066406</v>
       </c>
       <c r="B11" t="n">
-        <v>0.009270119504159378</v>
+        <v>0.01308846673307559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.010296630859375</v>
+        <v>0.01379199028015137</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00334116526315895</v>
+        <v>0.005348570660878327</v>
       </c>
       <c r="E11" t="n">
         <v>0.1</v>
@@ -1259,16 +1259,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.49530668258667</v>
+        <v>6.417144775390625</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6744406879333775</v>
+        <v>0.260495822479391</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0403740406036377</v>
+        <v>0.04306483268737793</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01591808798269742</v>
+        <v>0.02973682495215769</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
@@ -1323,16 +1323,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.370068883895874</v>
+        <v>0.3091858863830567</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02767765583902644</v>
+        <v>0.04736260486245322</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02736468315124512</v>
+        <v>0.03041338920593262</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0154946996459675</v>
+        <v>0.01076550497104619</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
@@ -1387,16 +1387,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.04783864021301269</v>
+        <v>0.02804765701293945</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02752731973818302</v>
+        <v>0.01231763657177221</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01221551895141602</v>
+        <v>0.02039761543273926</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004875522885809541</v>
+        <v>0.01609068161035661</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02346091270446777</v>
+        <v>0.02358417510986328</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01425303997514766</v>
+        <v>0.004348869341569565</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01011123657226562</v>
+        <v>0.014306640625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.008353666869610385</v>
+        <v>0.009405794296160178</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1515,16 +1515,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.06888351440429688</v>
+        <v>0.1059271335601807</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01149162879490088</v>
+        <v>0.05880806617192712</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007790899276733399</v>
+        <v>0.01628456115722656</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001984415967269188</v>
+        <v>0.0107483830709407</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1579,16 +1579,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.03221631050109863</v>
+        <v>0.04224720001220703</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0171317206333989</v>
+        <v>0.02246430681012304</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009852361679077149</v>
+        <v>0.01312141418457031</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002516420679548092</v>
+        <v>0.009637445763242698</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1643,16 +1643,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.836043405532837</v>
+        <v>0.8262686729431152</v>
       </c>
       <c r="B18" t="n">
-        <v>0.126793137324449</v>
+        <v>0.1296042774983967</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0248934268951416</v>
+        <v>0.02433714866638183</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004251356181366276</v>
+        <v>0.004873970724501285</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1707,16 +1707,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2478198051452637</v>
+        <v>0.3216852188110352</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02858892560991781</v>
+        <v>0.1113461608176588</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03727130889892578</v>
+        <v>0.02464933395385742</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01194815200968771</v>
+        <v>0.004839191198304826</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1771,16 +1771,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.01971545219421387</v>
+        <v>0.0217318058013916</v>
       </c>
       <c r="B20" t="n">
-        <v>0.003044496983161547</v>
+        <v>0.006986932503358526</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01030540466308594</v>
+        <v>0.006912326812744141</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004702841712664912</v>
+        <v>0.0006905701948782202</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1835,16 +1835,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.02324552536010742</v>
+        <v>0.01802339553833008</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00220363093248963</v>
+        <v>0.005271083811907953</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01197357177734375</v>
+        <v>0.008058547973632812</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003646457720912421</v>
+        <v>0.002776461623112851</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1899,16 +1899,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4955040454864502</v>
+        <v>0.5104670047760009</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06255967315377513</v>
+        <v>0.1209791650635805</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01761660575866699</v>
+        <v>0.01575555801391602</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004939579530014752</v>
+        <v>0.003292011145396907</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.04767842292785644</v>
+        <v>0.0571476936340332</v>
       </c>
       <c r="B23" t="n">
-        <v>0.007173172387494729</v>
+        <v>0.01516431530787107</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01711440086364746</v>
+        <v>0.01894044876098633</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003760701253730355</v>
+        <v>0.003482258297634069</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -2027,16 +2027,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.088434410095215</v>
+        <v>7.050355768203735</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4162332285272494</v>
+        <v>0.4901562496455248</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01694059371948242</v>
+        <v>0.02948489189147949</v>
       </c>
       <c r="D24" t="n">
-        <v>0.006710194926541999</v>
+        <v>0.008146388174779345</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -2091,16 +2091,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4547834396362305</v>
+        <v>0.4570487976074219</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02482207054053146</v>
+        <v>0.0572147296943171</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0587404727935791</v>
+        <v>0.03857517242431641</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02203927270354503</v>
+        <v>0.01079487182869684</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.03332386016845703</v>
+        <v>0.04375176429748535</v>
       </c>
       <c r="B26" t="n">
-        <v>0.008109916080554398</v>
+        <v>0.003960664709951487</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01525979042053223</v>
+        <v>0.02505278587341309</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002501303641111338</v>
+        <v>0.006653994626946164</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2219,16 +2219,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.04044013023376465</v>
+        <v>0.04035072326660157</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0165255104053683</v>
+        <v>0.006600231081958519</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01703166961669922</v>
+        <v>0.02046422958374023</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00789234555239466</v>
+        <v>0.006309076525935117</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2283,16 +2283,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.0952071189880371</v>
+        <v>0.1539031505584717</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01271425739540765</v>
+        <v>0.04792957652284923</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0140932559967041</v>
+        <v>0.02769045829772949</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00401205762222384</v>
+        <v>0.004209041604642435</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2347,16 +2347,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.05240187644958496</v>
+        <v>0.07928466796875</v>
       </c>
       <c r="B29" t="n">
-        <v>0.008652041984419063</v>
+        <v>0.02318683544375668</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02268242835998535</v>
+        <v>0.0384831428527832</v>
       </c>
       <c r="D29" t="n">
-        <v>0.005648735066159858</v>
+        <v>0.02244339685692095</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2411,16 +2411,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9355908393859863</v>
+        <v>1.019865369796753</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1149266353038741</v>
+        <v>0.1486433138093457</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03144092559814453</v>
+        <v>0.03101472854614258</v>
       </c>
       <c r="D30" t="n">
-        <v>0.008999359370066237</v>
+        <v>0.01288802482890908</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2475,16 +2475,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2311656475067139</v>
+        <v>0.2660086631774902</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02664698545378987</v>
+        <v>0.05640783162466472</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01928119659423828</v>
+        <v>0.02637968063354492</v>
       </c>
       <c r="D31" t="n">
-        <v>0.005257390503240692</v>
+        <v>0.004817564096733159</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2539,16 +2539,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.03443975448608398</v>
+        <v>0.02374424934387207</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01543106370336139</v>
+        <v>0.004389142852055546</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01397705078125</v>
+        <v>0.01077866554260254</v>
       </c>
       <c r="D32" t="n">
-        <v>0.005267408518575351</v>
+        <v>0.002776317364272295</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2603,16 +2603,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.01841521263122559</v>
+        <v>0.02456703186035156</v>
       </c>
       <c r="B33" t="n">
-        <v>0.004136554176586337</v>
+        <v>0.004796267086974686</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006453132629394532</v>
+        <v>0.01012187004089355</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0009520250197081098</v>
+        <v>0.003736785130949449</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -2667,16 +2667,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.5500071048736572</v>
+        <v>0.7025235652923584</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1608256228711105</v>
+        <v>0.2190981576704042</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0249837875366211</v>
+        <v>0.03203878402709961</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01240341760002157</v>
+        <v>0.0185703701161049</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -2731,16 +2731,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.04004850387573242</v>
+        <v>0.04012656211853027</v>
       </c>
       <c r="B35" t="n">
-        <v>0.001617850798150129</v>
+        <v>0.008049340036589274</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0169276237487793</v>
+        <v>0.01537704467773438</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002919076124450064</v>
+        <v>0.002042248948291809</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -2795,16 +2795,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.642265319824219</v>
+        <v>3.596441650390625</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2721318661453211</v>
+        <v>0.233927001087489</v>
       </c>
       <c r="C36" t="n">
-        <v>0.007009077072143555</v>
+        <v>0.006464672088623047</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001504746259893569</v>
+        <v>0.0004472028772502385</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -2859,16 +2859,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.4294622898101806</v>
+        <v>0.4528108119964599</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08786427510180633</v>
+        <v>0.04611442329754659</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03464741706848144</v>
+        <v>0.03293948173522949</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01871913626414119</v>
+        <v>0.0111540168058021</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3034,16 +3034,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01948380470275879</v>
+        <v>0.01922941207885742</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002763051451326993</v>
+        <v>0.002097400792628028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008026266098022461</v>
+        <v>0.007384109497070313</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001746896658776666</v>
+        <v>0.0005224243529979882</v>
       </c>
       <c r="E2" t="n">
         <v>0.1</v>
@@ -3098,16 +3098,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01442933082580566</v>
+        <v>0.01392664909362793</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001681344331886364</v>
+        <v>0.001184735439706876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007606029510498047</v>
+        <v>0.006607770919799805</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00149455038623291</v>
+        <v>0.001800234748266558</v>
       </c>
       <c r="E3" t="n">
         <v>0.1</v>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3261642932891846</v>
+        <v>0.3003021240234375</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05309875384417944</v>
+        <v>0.04476070198286854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05400457382202149</v>
+        <v>0.06249508857727051</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003436137941367229</v>
+        <v>0.01677825168993279</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
@@ -3226,16 +3226,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.235170841217041</v>
+        <v>0.2384111404418945</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01659932427483089</v>
+        <v>0.02505832331392248</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02832846641540527</v>
+        <v>0.02831349372863769</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008698940305067364</v>
+        <v>0.005916674248421636</v>
       </c>
       <c r="E5" t="n">
         <v>0.1</v>
@@ -3290,16 +3290,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.05188345909118652</v>
+        <v>0.05372638702392578</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02573866725091408</v>
+        <v>0.02101684451128739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0181760311126709</v>
+        <v>0.02503757476806641</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007738443147054768</v>
+        <v>0.01772364970897991</v>
       </c>
       <c r="E6" t="n">
         <v>0.1</v>
@@ -3354,16 +3354,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01980557441711426</v>
+        <v>0.01538543701171875</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006365906397238906</v>
+        <v>0.004993888955440164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009228229522705078</v>
+        <v>0.007589149475097656</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005317199141449733</v>
+        <v>0.00405629465715763</v>
       </c>
       <c r="E7" t="n">
         <v>0.1</v>
@@ -3418,16 +3418,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3913259506225586</v>
+        <v>0.3563826084136963</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08107445642635074</v>
+        <v>0.06669069741755117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02025952339172363</v>
+        <v>0.01767740249633789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01126992445953185</v>
+        <v>0.00458880559184378</v>
       </c>
       <c r="E8" t="n">
         <v>0.1</v>
@@ -3482,16 +3482,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.08178925514221191</v>
+        <v>0.05273466110229492</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0459308523946324</v>
+        <v>0.02065065775876807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01382789611816406</v>
+        <v>0.01120338439941406</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005399708360042298</v>
+        <v>0.006573048851378848</v>
       </c>
       <c r="E9" t="n">
         <v>0.1</v>
@@ -3546,16 +3546,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04508085250854492</v>
+        <v>0.03743762969970703</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02214242716025515</v>
+        <v>0.003071318253860426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01416201591491699</v>
+        <v>0.01207156181335449</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003428104022788878</v>
+        <v>0.002451635006979271</v>
       </c>
       <c r="E10" t="n">
         <v>0.1</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03564267158508301</v>
+        <v>0.03611187934875489</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01011568839605383</v>
+        <v>0.006390358987578264</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01429157257080078</v>
+        <v>0.01468591690063476</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00330125206206295</v>
+        <v>0.003865581265085115</v>
       </c>
       <c r="E11" t="n">
         <v>0.1</v>
@@ -3674,16 +3674,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2577434539794922</v>
+        <v>0.2442879676818848</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1174105678581004</v>
+        <v>0.05225107240309068</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09125571250915528</v>
+        <v>0.0697669506072998</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03702329886074172</v>
+        <v>0.01050518806000304</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
@@ -3738,16 +3738,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2954594135284424</v>
+        <v>0.2490078449249268</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0853920904155694</v>
+        <v>0.09173163283204763</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0812753677368164</v>
+        <v>0.09880356788635254</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0162705758403405</v>
+        <v>0.05209406888963723</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
@@ -3802,16 +3802,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03082914352416992</v>
+        <v>0.05774526596069336</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007482995683990156</v>
+        <v>0.01833922687644699</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0117030143737793</v>
+        <v>0.01787972450256348</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003618938295026523</v>
+        <v>0.005948427936905906</v>
       </c>
       <c r="E14" t="n">
         <v>0.1</v>
@@ -3866,16 +3866,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02884716987609863</v>
+        <v>0.03135914802551269</v>
       </c>
       <c r="B15" t="n">
-        <v>0.008155477731617827</v>
+        <v>0.01023979009572253</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01297111511230469</v>
+        <v>0.01621770858764648</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005297621121244878</v>
+        <v>0.01138608460627852</v>
       </c>
       <c r="E15" t="n">
         <v>0.1</v>
@@ -3930,16 +3930,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4642256736755371</v>
+        <v>0.4640603542327881</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09037849088902351</v>
+        <v>0.09897946302220237</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02040300369262695</v>
+        <v>0.02615227699279785</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002920514106881127</v>
+        <v>0.01276845692051451</v>
       </c>
       <c r="E16" t="n">
         <v>0.1</v>
@@ -3994,16 +3994,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.05175671577453613</v>
+        <v>0.06418385505676269</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0139133010300651</v>
+        <v>0.01459266073012993</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01253194808959961</v>
+        <v>0.01866374015808105</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0031611546565935</v>
+        <v>0.007597888052509057</v>
       </c>
       <c r="E17" t="n">
         <v>0.1</v>
@@ -4058,16 +4058,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.02825832366943359</v>
+        <v>0.02044544219970703</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01060775720004332</v>
+        <v>0.001888027612038162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.009340858459472657</v>
+        <v>0.01052489280700684</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00217770907140333</v>
+        <v>0.003687051108693569</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -4122,16 +4122,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.01626763343811035</v>
+        <v>0.0284853458404541</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002108367406661176</v>
+        <v>0.01211831618677749</v>
       </c>
       <c r="C19" t="n">
-        <v>0.006441354751586914</v>
+        <v>0.01418881416320801</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001083672813479565</v>
+        <v>0.007568702405476075</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -4186,16 +4186,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2465144634246826</v>
+        <v>0.22183518409729</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0436381407575455</v>
+        <v>0.03029028271011538</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04159693717956543</v>
+        <v>0.05809001922607422</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01287206934294038</v>
+        <v>0.03101793643967419</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -4250,16 +4250,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.06553468704223633</v>
+        <v>0.09421029090881347</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01162399149259167</v>
+        <v>0.02777023606747189</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02103033065795899</v>
+        <v>0.01985611915588379</v>
       </c>
       <c r="D21" t="n">
-        <v>0.007103273634953586</v>
+        <v>0.01004824232835426</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4314,16 +4314,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.03034467697143555</v>
+        <v>0.03060951232910156</v>
       </c>
       <c r="B22" t="n">
-        <v>0.006784815105893202</v>
+        <v>0.0127575071283235</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01210713386535645</v>
+        <v>0.01296095848083496</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00354947921664047</v>
+        <v>0.007321898714751551</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -4378,16 +4378,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.03664741516113281</v>
+        <v>0.02882447242736817</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01096674566808661</v>
+        <v>0.009856475706214543</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01976957321166992</v>
+        <v>0.01766080856323242</v>
       </c>
       <c r="D23" t="n">
-        <v>0.009166889745663771</v>
+        <v>0.007584454330055439</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4442,16 +4442,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.3755631923675537</v>
+        <v>0.397434139251709</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04116122881721102</v>
+        <v>0.06081674922084607</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01886749267578125</v>
+        <v>0.01537408828735352</v>
       </c>
       <c r="D24" t="n">
-        <v>0.007174900004469256</v>
+        <v>0.003001545748835493</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -4506,16 +4506,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.05871124267578125</v>
+        <v>0.06005206108093262</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02240989646451766</v>
+        <v>0.01518614972221106</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01051654815673828</v>
+        <v>0.01395978927612305</v>
       </c>
       <c r="D25" t="n">
-        <v>0.005084615629209348</v>
+        <v>0.002742434413133677</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4570,16 +4570,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.02562646865844726</v>
+        <v>0.03358230590820312</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01082635339673728</v>
+        <v>0.008696052943482351</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01165509223937988</v>
+        <v>0.01166830062866211</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008846043617009547</v>
+        <v>0.003446972573953685</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4634,16 +4634,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.02872762680053711</v>
+        <v>0.01556792259216309</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0150380404606041</v>
+        <v>0.0003496810970880597</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01350569725036621</v>
+        <v>0.006830072402954102</v>
       </c>
       <c r="D27" t="n">
-        <v>0.006210444084839764</v>
+        <v>0.001186910719939126</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1251672267913818</v>
+        <v>0.1583560466766357</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01365205920216024</v>
+        <v>0.04240422120888348</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03494720458984375</v>
+        <v>0.04133086204528809</v>
       </c>
       <c r="D28" t="n">
-        <v>0.008276357393497219</v>
+        <v>0.01307921687695708</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -4762,16 +4762,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1550321102142334</v>
+        <v>0.1313022613525391</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01531629119159177</v>
+        <v>0.008832507937791353</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02855286598205566</v>
+        <v>0.02211565971374512</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01075558572199369</v>
+        <v>0.004984625190591302</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4826,16 +4826,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.03088803291320801</v>
+        <v>0.02868762016296387</v>
       </c>
       <c r="B30" t="n">
-        <v>0.008292146179141455</v>
+        <v>0.008223711868101101</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01307392120361328</v>
+        <v>0.01039190292358399</v>
       </c>
       <c r="D30" t="n">
-        <v>0.004889769220080741</v>
+        <v>0.0023337944282012</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -4890,16 +4890,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.02176012992858887</v>
+        <v>0.03283901214599609</v>
       </c>
       <c r="B31" t="n">
-        <v>0.006732213367712513</v>
+        <v>0.002766003551453363</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01022210121154785</v>
+        <v>0.02105116844177246</v>
       </c>
       <c r="D31" t="n">
-        <v>0.004084413897956878</v>
+        <v>0.008699010499406166</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -4954,16 +4954,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3336957931518555</v>
+        <v>0.3036283969879151</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02932009406373651</v>
+        <v>0.04878918087124831</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01147441864013672</v>
+        <v>0.01413993835449219</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001377228114917613</v>
+        <v>0.002394476655889456</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -5018,16 +5018,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.05640401840209961</v>
+        <v>0.04728412628173828</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02851019083334461</v>
+        <v>0.02679662129912054</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01262750625610352</v>
+        <v>0.00985870361328125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.004951974445845827</v>
+        <v>0.003567519210333072</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -5082,16 +5082,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.02864608764648437</v>
+        <v>0.02730364799499512</v>
       </c>
       <c r="B34" t="n">
-        <v>0.007421080663716972</v>
+        <v>0.004171065416630073</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01236863136291504</v>
+        <v>0.01013660430908203</v>
       </c>
       <c r="D34" t="n">
-        <v>0.005758305404593382</v>
+        <v>0.002471579808120569</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -5146,16 +5146,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.02038545608520508</v>
+        <v>0.02273311614990235</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00689638836653048</v>
+        <v>0.006951596343952159</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01080341339111328</v>
+        <v>0.009218692779541016</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00490541433053682</v>
+        <v>0.002231611028657102</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -5210,16 +5210,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1509881019592285</v>
+        <v>0.153862476348877</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03955607719152569</v>
+        <v>0.03349968577935182</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02520136833190918</v>
+        <v>0.02810688018798828</v>
       </c>
       <c r="D36" t="n">
-        <v>0.009402694936537366</v>
+        <v>0.01418739690425547</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -5274,16 +5274,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.09589581489562989</v>
+        <v>0.0880772590637207</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0243810649037597</v>
+        <v>0.02367471006463722</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0235870361328125</v>
+        <v>0.0205528736114502</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01446288521821553</v>
+        <v>0.006005043427238599</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -5338,16 +5338,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.02305512428283691</v>
+        <v>0.03269028663635254</v>
       </c>
       <c r="B38" t="n">
-        <v>0.005470714916416858</v>
+        <v>0.009823720332878495</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01124477386474609</v>
+        <v>0.01118178367614746</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003644183537327938</v>
+        <v>0.003094047089980215</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -5402,16 +5402,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.04356164932250976</v>
+        <v>0.02177448272705078</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01705446637452877</v>
+        <v>0.006929336787644092</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01612629890441895</v>
+        <v>0.009203338623046875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005058119108542377</v>
+        <v>0.001394371002770817</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -5466,16 +5466,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2961014747619629</v>
+        <v>0.3004221439361572</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08924507700627292</v>
+        <v>0.05740671815713614</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01243124008178711</v>
+        <v>0.01539392471313477</v>
       </c>
       <c r="D40" t="n">
-        <v>0.007538840056691077</v>
+        <v>0.01007466056376526</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -5530,16 +5530,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.05639901161193848</v>
+        <v>0.05132761001586914</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01032116015981558</v>
+        <v>0.01536113799279811</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01019191741943359</v>
+        <v>0.007125616073608398</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002024002006129505</v>
+        <v>0.0008789423975075966</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -5594,16 +5594,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.03722858428955078</v>
+        <v>0.02694435119628906</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01207142229333602</v>
+        <v>0.005256883536305507</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01416392326354981</v>
+        <v>0.008645248413085938</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004560670371647072</v>
+        <v>0.002260205551540337</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -5658,16 +5658,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.01628227233886719</v>
+        <v>0.01636381149291992</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00196848996794597</v>
+        <v>0.002941485817645424</v>
       </c>
       <c r="C43" t="n">
-        <v>0.006641483306884766</v>
+        <v>0.006408405303955078</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001628257559623108</v>
+        <v>0.001386369325099937</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -5722,16 +5722,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1298904895782471</v>
+        <v>0.1459310531616211</v>
       </c>
       <c r="B44" t="n">
-        <v>0.03840370215842268</v>
+        <v>0.01227026309241197</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03327035903930664</v>
+        <v>0.02446298599243164</v>
       </c>
       <c r="D44" t="n">
-        <v>0.009019083751465238</v>
+        <v>0.007361729654015403</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -5786,16 +5786,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.05589971542358398</v>
+        <v>0.0630836009979248</v>
       </c>
       <c r="B45" t="n">
-        <v>0.009334686913607473</v>
+        <v>0.0406155228051751</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01518650054931641</v>
+        <v>0.01733870506286621</v>
       </c>
       <c r="D45" t="n">
-        <v>0.005653452093341975</v>
+        <v>0.007429278703851054</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -5850,16 +5850,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0292294979095459</v>
+        <v>0.0146395206451416</v>
       </c>
       <c r="B46" t="n">
-        <v>0.005383190406778263</v>
+        <v>0.00388214742663139</v>
       </c>
       <c r="C46" t="n">
-        <v>0.009924793243408203</v>
+        <v>0.005051422119140625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002703488496260394</v>
+        <v>0.0003886951015565357</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -5914,16 +5914,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.01713428497314453</v>
+        <v>0.01829347610473633</v>
       </c>
       <c r="B47" t="n">
-        <v>0.007970305825031889</v>
+        <v>0.006193796496555096</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01068720817565918</v>
+        <v>0.008722448348999023</v>
       </c>
       <c r="D47" t="n">
-        <v>0.008974173672235413</v>
+        <v>0.001603354819879154</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -5978,16 +5978,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1810742378234863</v>
+        <v>0.2060820579528809</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07744617658613476</v>
+        <v>0.09457747906151558</v>
       </c>
       <c r="C48" t="n">
-        <v>0.005713844299316406</v>
+        <v>0.006368017196655274</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0003304972962993957</v>
+        <v>0.001625919462306117</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -6042,16 +6042,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.04582509994506836</v>
+        <v>0.05044760704040527</v>
       </c>
       <c r="B49" t="n">
-        <v>0.023982966272589</v>
+        <v>0.02072734313949632</v>
       </c>
       <c r="C49" t="n">
-        <v>0.008390140533447266</v>
+        <v>0.01492114067077637</v>
       </c>
       <c r="D49" t="n">
-        <v>0.003314234844512141</v>
+        <v>0.005904136423098981</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -6217,16 +6217,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3041504859924317</v>
+        <v>0.2958269119262695</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02684356271213288</v>
+        <v>0.02020571414588377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01824502944946289</v>
+        <v>0.01534638404846191</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00311039180303603</v>
+        <v>0.001417765903406797</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -6273,16 +6273,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3159913063049317</v>
+        <v>0.3502821445465088</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008502293544980312</v>
+        <v>0.02126039270363875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01681103706359863</v>
+        <v>0.0178257942199707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003353779861768459</v>
+        <v>0.003042460410500076</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -6329,16 +6329,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6013609409332276</v>
+        <v>0.5856868267059326</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04151242350011761</v>
+        <v>0.03600511707838328</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02651925086975098</v>
+        <v>0.02620849609375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002967485624780861</v>
+        <v>0.003077262157780125</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -6385,16 +6385,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6353859424591064</v>
+        <v>0.6674427509307861</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02784309444329952</v>
+        <v>0.04484098429618533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02824854850769043</v>
+        <v>0.02695760726928711</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005235236567576628</v>
+        <v>0.00397905566466614</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -6441,16 +6441,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2982461929321289</v>
+        <v>0.2877766609191895</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02386303541933906</v>
+        <v>0.02190216639929089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01640219688415527</v>
+        <v>0.01479077339172363</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001476353878261887</v>
+        <v>0.0006283776643204065</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -6497,16 +6497,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3321562767028808</v>
+        <v>0.3237441062927246</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03002600910346339</v>
+        <v>0.006594419961913649</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01755051612854004</v>
+        <v>0.01618680953979492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002729926589689211</v>
+        <v>0.001227118165077544</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -6553,16 +6553,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.568495512008667</v>
+        <v>0.6182753086090088</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03528830253998393</v>
+        <v>0.06145001628721251</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02538962364196777</v>
+        <v>0.02522835731506348</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003408777767616983</v>
+        <v>0.003198100488963286</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -6609,16 +6609,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.6422585010528564</v>
+        <v>0.7049998283386231</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08092967453851896</v>
+        <v>0.06637976293096892</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02653837203979492</v>
+        <v>0.02687458992004394</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00236050104331201</v>
+        <v>0.003154776953937709</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -6665,16 +6665,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2927299499511719</v>
+        <v>0.2788980007171631</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03186376028896629</v>
+        <v>0.01807754245835672</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01687984466552734</v>
+        <v>0.01447267532348633</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002843801393455058</v>
+        <v>0.001133251739934557</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
@@ -6721,16 +6721,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3483455657958984</v>
+        <v>0.3437389373779297</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04667947726046948</v>
+        <v>0.03399640359024586</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0209136962890625</v>
+        <v>0.02101969718933105</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006915333607795914</v>
+        <v>0.003673691412132166</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
@@ -6777,16 +6777,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5743406295776368</v>
+        <v>0.5844845771789551</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04510222661339556</v>
+        <v>0.03287056178141251</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02414383888244629</v>
+        <v>0.02419872283935547</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001078669455923698</v>
+        <v>0.001738326281636231</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
@@ -6833,16 +6833,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6618286609649658</v>
+        <v>0.6863741874694824</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04263695678026605</v>
+        <v>0.04716338535549034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02734708786010742</v>
+        <v>0.02698898315429688</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002998317698289188</v>
+        <v>0.002217570538710776</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
@@ -6889,16 +6889,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2881369113922119</v>
+        <v>0.2749049186706543</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03529091216723228</v>
+        <v>0.007838795826256312</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0153684139251709</v>
+        <v>0.01396327018737793</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001495070114353302</v>
+        <v>0.000469306740556033</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
@@ -6945,16 +6945,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3654116630554199</v>
+        <v>0.3560141563415528</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03590513550709444</v>
+        <v>0.04497512082018089</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03606739044189453</v>
+        <v>0.01892557144165039</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01281769059636913</v>
+        <v>0.002562903480496987</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
@@ -7001,16 +7001,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.6560186386108399</v>
+        <v>0.6236851215362549</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04081842867977352</v>
+        <v>0.04039302239606974</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02687735557556152</v>
+        <v>0.03202238082885742</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004194709628792067</v>
+        <v>0.007472519481137458</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
@@ -7057,16 +7057,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7490833282470704</v>
+        <v>0.7013503551483155</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06797479502579927</v>
+        <v>0.1135067482346414</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02671570777893066</v>
+        <v>0.02609000205993652</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003563874458795069</v>
+        <v>0.001342591314332887</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
@@ -7113,16 +7113,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2876410007476807</v>
+        <v>0.3022891521453858</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01587345835070982</v>
+        <v>0.01612549194661375</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01472830772399902</v>
+        <v>0.01808433532714844</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001158625232350626</v>
+        <v>0.007696111580886944</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -7171,16 +7171,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.334312105178833</v>
+        <v>0.3514134883880615</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02550444749026195</v>
+        <v>0.02890476408485871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01749267578125</v>
+        <v>0.01704916954040527</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001314208638246143</v>
+        <v>0.002755660789545396</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -7229,16 +7229,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5603192329406739</v>
+        <v>0.6451800346374512</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03823776563149739</v>
+        <v>0.1199514283472944</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02473893165588379</v>
+        <v>0.02932538986206055</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00309266403044303</v>
+        <v>0.004940183141075128</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -7287,16 +7287,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.646356201171875</v>
+        <v>0.6984891891479492</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05075980034323822</v>
+        <v>0.0446288289003325</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02737584114074707</v>
+        <v>0.02711343765258789</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002990302720408264</v>
+        <v>0.00439056909996712</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -7345,16 +7345,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2747166633605957</v>
+        <v>0.3563690662384033</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01309259421857756</v>
+        <v>0.08466114928875086</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01493315696716309</v>
+        <v>0.02125988006591797</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002599059212222494</v>
+        <v>0.009782963571982979</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -7403,16 +7403,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.3506791114807129</v>
+        <v>0.3682597637176513</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03109261002636898</v>
+        <v>0.05798573702928077</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01747426986694336</v>
+        <v>0.01629142761230469</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004893532875183819</v>
+        <v>0.001056394551585524</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -7461,16 +7461,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5998172283172607</v>
+        <v>0.5708157539367675</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03898136884566596</v>
+        <v>0.04605736265528113</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02387576103210449</v>
+        <v>0.0251929759979248</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001436262534141047</v>
+        <v>0.001983737599407815</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -7519,16 +7519,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.769077730178833</v>
+        <v>0.7246158123016357</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04086404849520216</v>
+        <v>0.04991899576261333</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02660908699035645</v>
+        <v>0.02919383049011231</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002691766654339782</v>
+        <v>0.004652231131338487</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -7577,16 +7577,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3131368637084961</v>
+        <v>0.287867021560669</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05072372322914516</v>
+        <v>0.01821332850925886</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01457624435424805</v>
+        <v>0.01838669776916504</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001142133371152278</v>
+        <v>0.005692337996214036</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -7635,16 +7635,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3604159355163574</v>
+        <v>0.3280497550964355</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06534996875156514</v>
+        <v>0.01781281884422218</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01740989685058594</v>
+        <v>0.01711664199829101</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003024183588432019</v>
+        <v>0.002521238043111182</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -7693,16 +7693,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5760008335113526</v>
+        <v>0.5604515552520752</v>
       </c>
       <c r="B28" t="n">
-        <v>0.05209653379657909</v>
+        <v>0.02832619119414559</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02462220191955566</v>
+        <v>0.02470536231994629</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001449213568581359</v>
+        <v>0.002310359421869608</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -7751,16 +7751,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.6472743034362793</v>
+        <v>0.6569996356964112</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0388544908732209</v>
+        <v>0.03118805112651883</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02831196784973145</v>
+        <v>0.02887067794799805</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003767600729002051</v>
+        <v>0.004130126056264732</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -7809,16 +7809,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.2832871913909912</v>
+        <v>0.2691638946533203</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02900935601683801</v>
+        <v>0.01210777905576254</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01744508743286133</v>
+        <v>0.01472735404968262</v>
       </c>
       <c r="D30" t="n">
-        <v>0.006616095482735598</v>
+        <v>0.0008872478007062918</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -7867,16 +7867,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3293128490447998</v>
+        <v>0.3274716377258301</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01456741079944184</v>
+        <v>0.03043294869188587</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01599359512329102</v>
+        <v>0.01675982475280762</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0005481075232026161</v>
+        <v>0.002651367862305722</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -7925,16 +7925,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.578593397140503</v>
+        <v>0.5874533653259277</v>
       </c>
       <c r="B32" t="n">
-        <v>0.06937198872100918</v>
+        <v>0.05354679266268635</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02544589042663574</v>
+        <v>0.02605633735656738</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003637952682827057</v>
+        <v>0.002821055891165201</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -7983,16 +7983,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.6203779220581055</v>
+        <v>0.6415965557098389</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02101219125241495</v>
+        <v>0.02541301616662889</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02702302932739258</v>
+        <v>0.02875065803527832</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002909662712600075</v>
+        <v>0.00236258959628778</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -8041,16 +8041,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.28537278175354</v>
+        <v>0.2804548740386963</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01663880335244062</v>
+        <v>0.01556560627568549</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01450858116149902</v>
+        <v>0.01540555953979492</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0006938072675900861</v>
+        <v>0.0007351684357527132</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -8099,16 +8099,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3396347999572754</v>
+        <v>0.3324438095092773</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03914665501448995</v>
+        <v>0.01874619218112513</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01800541877746582</v>
+        <v>0.01684150695800781</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003705842313928405</v>
+        <v>0.001278941622585787</v>
       </c>
       <c r="E35" t="n">
         <v>20</v>
@@ -8157,16 +8157,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.5518327236175538</v>
+        <v>0.6002527236938476</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03322488312990739</v>
+        <v>0.05898742552664924</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02389273643493652</v>
+        <v>0.02640681266784668</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0008290886651857893</v>
+        <v>0.002451057289479097</v>
       </c>
       <c r="E36" t="n">
         <v>20</v>
@@ -8215,16 +8215,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.6393847465515137</v>
+        <v>0.6324922561645507</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0396174015603798</v>
+        <v>0.02050919946038994</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02461519241333008</v>
+        <v>0.02671055793762207</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0009226496836916326</v>
+        <v>0.001027786898676842</v>
       </c>
       <c r="E37" t="n">
         <v>20</v>
@@ -8273,16 +8273,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.3029354095458984</v>
+        <v>0.3257069110870361</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03067955704200262</v>
+        <v>0.04385948662639649</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01475424766540527</v>
+        <v>0.01990466117858887</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0005763067268824456</v>
+        <v>0.006394648357044831</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -8331,16 +8331,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3164714336395263</v>
+        <v>0.3686078071594238</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01473573748398266</v>
+        <v>0.05953060597682242</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01644024848937988</v>
+        <v>0.0163276195526123</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001075519012234604</v>
+        <v>0.001662825591849968</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
@@ -8389,16 +8389,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.6010930061340332</v>
+        <v>0.5717700481414795</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05805725567880207</v>
+        <v>0.0356560154442155</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0233522891998291</v>
+        <v>0.0293571949005127</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0006114547899161266</v>
+        <v>0.01061967662638765</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
@@ -8447,16 +8447,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.6514202117919922</v>
+        <v>0.690358304977417</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03998738326611338</v>
+        <v>0.08339117210491546</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02867279052734375</v>
+        <v>0.02681803703308105</v>
       </c>
       <c r="D41" t="n">
-        <v>0.004815856378526361</v>
+        <v>0.003713943306975416</v>
       </c>
       <c r="E41" t="n">
         <v>20</v>
@@ -8505,16 +8505,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2796150207519531</v>
+        <v>0.304823637008667</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01319149708828831</v>
+        <v>0.02836965718188969</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01496405601501465</v>
+        <v>0.01693840026855469</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001168446207287175</v>
+        <v>0.005108294700719777</v>
       </c>
       <c r="E42" t="n">
         <v>20</v>
@@ -8563,16 +8563,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.3590517044067383</v>
+        <v>0.3336862087249756</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03279738657375141</v>
+        <v>0.02200361481055106</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01952323913574219</v>
+        <v>0.01563920974731445</v>
       </c>
       <c r="D43" t="n">
-        <v>0.005237236142374713</v>
+        <v>0.0009362319001716717</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -8621,16 +8621,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5831630229949951</v>
+        <v>0.5755544185638428</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04671928470988205</v>
+        <v>0.0443550482342174</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02399682998657227</v>
+        <v>0.02697410583496094</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001833549330004531</v>
+        <v>0.003966816654992152</v>
       </c>
       <c r="E44" t="n">
         <v>20</v>
@@ -8679,16 +8679,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6650797367095947</v>
+        <v>0.626926040649414</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02827654758236395</v>
+        <v>0.04047129124248659</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02799720764160156</v>
+        <v>0.02718033790588379</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003265277327390262</v>
+        <v>0.001777954255689506</v>
       </c>
       <c r="E45" t="n">
         <v>20</v>
@@ -8737,16 +8737,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.3188194274902344</v>
+        <v>0.2831298351287842</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03094376164102479</v>
+        <v>0.02828865582797882</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01556110382080078</v>
+        <v>0.01588234901428223</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001121074460300354</v>
+        <v>0.0020306371003239</v>
       </c>
       <c r="E46" t="n">
         <v>20</v>
@@ -8795,16 +8795,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.324685001373291</v>
+        <v>0.3485227108001709</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01232352939687857</v>
+        <v>0.04064616377377994</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0160771369934082</v>
+        <v>0.01660237312316894</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001477546277202616</v>
+        <v>0.001223797950498109</v>
       </c>
       <c r="E47" t="n">
         <v>20</v>
@@ -8853,16 +8853,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.5206279754638672</v>
+        <v>0.4989845752716064</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01268083147659357</v>
+        <v>0.02693338505912797</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0189633846282959</v>
+        <v>0.01748833656311035</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003463450571725237</v>
+        <v>0.002813381754828632</v>
       </c>
       <c r="E48" t="n">
         <v>20</v>
@@ -8911,16 +8911,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.5105763435363769</v>
+        <v>0.5116800308227539</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04139541943980554</v>
+        <v>0.04799554453151965</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01301479339599609</v>
+        <v>0.01286311149597168</v>
       </c>
       <c r="D49" t="n">
-        <v>0.000993357841354518</v>
+        <v>0.00102989599848605</v>
       </c>
       <c r="E49" t="n">
         <v>20</v>
@@ -9080,16 +9080,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2401586532592773</v>
+        <v>0.2278040885925293</v>
       </c>
       <c r="B2" t="n">
-        <v>0.009087172331574678</v>
+        <v>0.004937397149645039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004668092727661133</v>
+        <v>0.004578638076782227</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004211451480275677</v>
+        <v>0.0001575493639197839</v>
       </c>
       <c r="E2" t="n">
         <v>0.01</v>
@@ -9138,16 +9138,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.898581981658936</v>
+        <v>1.987168264389038</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2060345288182105</v>
+        <v>0.09842691202987125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005904245376586914</v>
+        <v>0.005258035659790039</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001144679230378271</v>
+        <v>0.0004831363031656717</v>
       </c>
       <c r="E3" t="n">
         <v>0.01</v>
@@ -9196,16 +9196,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2567145824432373</v>
+        <v>0.2784756183624267</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01802189773903016</v>
+        <v>0.02039781053593129</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004496574401855469</v>
+        <v>0.005597209930419922</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0008907735848484715</v>
+        <v>0.001291368720924959</v>
       </c>
       <c r="E4" t="n">
         <v>0.01</v>
@@ -9254,16 +9254,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.654277658462525</v>
+        <v>1.681682920455933</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1479305672738842</v>
+        <v>0.08424852745831422</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005382490158081055</v>
+        <v>0.005423164367675782</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0007579423511410323</v>
+        <v>0.0006843923084479614</v>
       </c>
       <c r="E5" t="n">
         <v>0.01</v>
@@ -9312,16 +9312,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4479108333587646</v>
+        <v>0.4653010845184326</v>
       </c>
       <c r="B6" t="n">
-        <v>0.007294543976189943</v>
+        <v>0.0224161382333016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004062366485595703</v>
+        <v>0.004253005981445313</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002456434106486777</v>
+        <v>0.0001271667218133905</v>
       </c>
       <c r="E6" t="n">
         <v>0.01</v>
@@ -9370,16 +9370,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.243521308898925</v>
+        <v>4.465656709671021</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6117736078663776</v>
+        <v>0.1926863506532195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005854940414428711</v>
+        <v>0.005522680282592773</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0008317479120643862</v>
+        <v>0.0004108336198799247</v>
       </c>
       <c r="E7" t="n">
         <v>0.01</v>
@@ -9428,16 +9428,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4484874248504639</v>
+        <v>0.4901026248931885</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02038803978618396</v>
+        <v>0.03026845051877209</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004520988464355469</v>
+        <v>0.00429534912109375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000559154256872762</v>
+        <v>0.0002243160792857192</v>
       </c>
       <c r="E8" t="n">
         <v>0.01</v>
@@ -9486,16 +9486,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.892759990692139</v>
+        <v>2.944373035430908</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1761674541072087</v>
+        <v>0.1932622129744223</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00531930923461914</v>
+        <v>0.00528569221496582</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0003911865331495267</v>
+        <v>0.0006108575712708246</v>
       </c>
       <c r="E9" t="n">
         <v>0.01</v>
@@ -9544,16 +9544,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2709400653839111</v>
+        <v>0.252858829498291</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02391768388550839</v>
+        <v>0.009495280454285427</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004219818115234375</v>
+        <v>0.004961204528808594</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002452424265992402</v>
+        <v>0.001232275566776823</v>
       </c>
       <c r="E10" t="n">
         <v>0.01</v>
@@ -9602,16 +9602,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.094063329696655</v>
+        <v>2.388978719711304</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4567856599838101</v>
+        <v>0.3617414104597856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005532073974609375</v>
+        <v>0.00650181770324707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0004811052849768247</v>
+        <v>0.002929714995617786</v>
       </c>
       <c r="E11" t="n">
         <v>0.01</v>
@@ -9660,16 +9660,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2814150333404541</v>
+        <v>0.2655713081359863</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01175634344811262</v>
+        <v>0.02354636212093307</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005054140090942382</v>
+        <v>0.00431985855102539</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0007657662802076743</v>
+        <v>0.00062559345850583</v>
       </c>
       <c r="E12" t="n">
         <v>0.01</v>
@@ -9718,16 +9718,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.806627655029297</v>
+        <v>1.819629621505737</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09183279303018771</v>
+        <v>0.1103349619014754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005228042602539062</v>
+        <v>0.005365276336669922</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002571757899667009</v>
+        <v>0.000514200939577703</v>
       </c>
       <c r="E13" t="n">
         <v>0.01</v>
@@ -9776,16 +9776,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4736497402191162</v>
+        <v>0.4733738899230957</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02464794017089383</v>
+        <v>0.01860322467144144</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004346418380737305</v>
+        <v>0.005267715454101563</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0004849299660609243</v>
+        <v>0.001269978367290952</v>
       </c>
       <c r="E14" t="n">
         <v>0.01</v>
@@ -9834,16 +9834,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.045019054412842</v>
+        <v>5.402458667755127</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7404273992688811</v>
+        <v>0.8769298417192123</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006202936172485352</v>
+        <v>0.005261135101318359</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00133909710586234</v>
+        <v>0.0001575443848354106</v>
       </c>
       <c r="E15" t="n">
         <v>0.01</v>
@@ -9892,16 +9892,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4999983787536621</v>
+        <v>0.5134970188140869</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05152516055296706</v>
+        <v>0.05968311048387675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00557413101196289</v>
+        <v>0.005191850662231445</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001593796003582809</v>
+        <v>0.0003356089675552479</v>
       </c>
       <c r="E16" t="n">
         <v>0.01</v>
@@ -9950,16 +9950,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.21928596496582</v>
+        <v>3.103811979293823</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08875789952259636</v>
+        <v>0.1063751775390017</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005117082595825195</v>
+        <v>0.005261850357055664</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003275178713934078</v>
+        <v>0.0003987100180872502</v>
       </c>
       <c r="E17" t="n">
         <v>0.01</v>
@@ -10008,16 +10008,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2477166175842285</v>
+        <v>0.230049991607666</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03014696982804575</v>
+        <v>0.02613584885887539</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005932855606079102</v>
+        <v>0.00392756462097168</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002261874581507816</v>
+        <v>0.0001811207179338508</v>
       </c>
       <c r="E18" t="n">
         <v>0.1</v>
@@ -10066,16 +10066,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.747190618515015</v>
+        <v>1.724667119979858</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1922428214602743</v>
+        <v>0.3378083392950943</v>
       </c>
       <c r="C19" t="n">
-        <v>0.006471824645996094</v>
+        <v>0.005274724960327148</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002133950840396957</v>
+        <v>0.0005025952635163662</v>
       </c>
       <c r="E19" t="n">
         <v>0.1</v>
@@ -10124,16 +10124,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2167123794555664</v>
+        <v>0.2211357116699219</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01250422359739094</v>
+        <v>0.01344810757426153</v>
       </c>
       <c r="C20" t="n">
-        <v>0.005112552642822265</v>
+        <v>0.004402637481689453</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001987452382312324</v>
+        <v>0.0006160547117754282</v>
       </c>
       <c r="E20" t="n">
         <v>0.1</v>
@@ -10182,16 +10182,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.238561820983887</v>
+        <v>1.231485748291016</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07387230303769379</v>
+        <v>0.09874725791095139</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004969406127929688</v>
+        <v>0.005667877197265625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0005009295517927941</v>
+        <v>0.001143253412355752</v>
       </c>
       <c r="E21" t="n">
         <v>0.1</v>
@@ -10240,16 +10240,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3924705982208252</v>
+        <v>0.3892970561981201</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03042320613480646</v>
+        <v>0.009432842614677318</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004624700546264649</v>
+        <v>0.004415035247802734</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001032468055876938</v>
+        <v>0.0003722193727973537</v>
       </c>
       <c r="E22" t="n">
         <v>0.1</v>
@@ -10298,16 +10298,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.362762308120728</v>
+        <v>2.488258266448975</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2505844605466726</v>
+        <v>0.4477520247147929</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005105018615722656</v>
+        <v>0.005164194107055664</v>
       </c>
       <c r="D23" t="n">
-        <v>0.000399264155356063</v>
+        <v>0.0002609240294169344</v>
       </c>
       <c r="E23" t="n">
         <v>0.1</v>
@@ -10356,16 +10356,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.3902744293212891</v>
+        <v>0.3950511455535889</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01572385880190723</v>
+        <v>0.02671847547416273</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004595708847045898</v>
+        <v>0.004832172393798828</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0005758549245751034</v>
+        <v>0.0007626578973756498</v>
       </c>
       <c r="E24" t="n">
         <v>0.1</v>
@@ -10414,16 +10414,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.169717359542847</v>
+        <v>2.170387935638428</v>
       </c>
       <c r="B25" t="n">
-        <v>0.08337673752030446</v>
+        <v>0.09721657611981852</v>
       </c>
       <c r="C25" t="n">
-        <v>0.005681180953979492</v>
+        <v>0.005866098403930664</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001183116895259458</v>
+        <v>0.00111794140120275</v>
       </c>
       <c r="E25" t="n">
         <v>0.1</v>
@@ -10472,16 +10472,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2140758037567139</v>
+        <v>0.2231451511383057</v>
       </c>
       <c r="B26" t="n">
-        <v>0.009819848793288099</v>
+        <v>0.01028733361061927</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004513788223266602</v>
+        <v>0.004168510437011719</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0007001414851403017</v>
+        <v>0.0003740351519636346</v>
       </c>
       <c r="E26" t="n">
         <v>0.1</v>
@@ -10530,16 +10530,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.821027135848999</v>
+        <v>1.557092094421387</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3813412305592101</v>
+        <v>0.2359614548846886</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004994726181030274</v>
+        <v>0.005808973312377929</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0002251075247721263</v>
+        <v>0.000738866071431923</v>
       </c>
       <c r="E27" t="n">
         <v>0.1</v>
@@ -10588,16 +10588,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2089676856994629</v>
+        <v>0.2205078601837158</v>
       </c>
       <c r="B28" t="n">
-        <v>0.007993444235284936</v>
+        <v>0.01140045818780994</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00424036979675293</v>
+        <v>0.00412149429321289</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00062359866966993</v>
+        <v>0.0003178151818046214</v>
       </c>
       <c r="E28" t="n">
         <v>0.1</v>
@@ -10646,16 +10646,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.250311136245728</v>
+        <v>1.29622917175293</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05486910667510827</v>
+        <v>0.08028174712228001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004732418060302735</v>
+        <v>0.005247783660888672</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003103897999037927</v>
+        <v>0.0006801178785638975</v>
       </c>
       <c r="E29" t="n">
         <v>0.1</v>
@@ -10704,16 +10704,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4078182220458985</v>
+        <v>0.4144733905792236</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02651471252917241</v>
+        <v>0.03373572888209279</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004967164993286133</v>
+        <v>0.004173660278320312</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001214255401810783</v>
+        <v>0.0001657109360441852</v>
       </c>
       <c r="E30" t="n">
         <v>0.1</v>
@@ -10762,16 +10762,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.328103542327881</v>
+        <v>2.40603461265564</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2183064480313682</v>
+        <v>0.2444550790598887</v>
       </c>
       <c r="C31" t="n">
-        <v>0.003396463394165039</v>
+        <v>0.003897476196289063</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0007654456668196479</v>
+        <v>0.0009295453264045432</v>
       </c>
       <c r="E31" t="n">
         <v>0.1</v>
@@ -10820,16 +10820,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4025423049926758</v>
+        <v>0.3908119678497314</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01726131812502799</v>
+        <v>0.01841857006458894</v>
       </c>
       <c r="C32" t="n">
-        <v>0.004160118103027344</v>
+        <v>0.005478668212890625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0004039746393410334</v>
+        <v>0.002541943546131004</v>
       </c>
       <c r="E32" t="n">
         <v>0.1</v>
@@ -10878,16 +10878,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.756406402587891</v>
+        <v>1.821315717697144</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08980579306050827</v>
+        <v>0.04892649464718569</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003134632110595703</v>
+        <v>0.002837944030761719</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0002346404461938297</v>
+        <v>0.0004009881670294328</v>
       </c>
       <c r="E33" t="n">
         <v>0.1</v>

--- a/machine_learning/labs/lab_08/grid_search_results.xlsx
+++ b/machine_learning/labs/lab_08/grid_search_results.xlsx
@@ -461,36 +461,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.8300403821530583</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8268156424581006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Случайный лес</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8314291342460358</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.8212290502793296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Случайный лес</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8229981286319316</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8156424581005587</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.837043238451689</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8100558659217877</v>
       </c>
     </row>
   </sheetData>
@@ -619,16 +619,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01198005676269531</v>
+        <v>0.01703915596008301</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0009476076882357335</v>
+        <v>0.003273030117198052</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004894542694091797</v>
+        <v>0.007067680358886719</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003469029291989376</v>
+        <v>0.002895107037979281</v>
       </c>
       <c r="E2" t="n">
         <v>0.1</v>
@@ -657,42 +657,42 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0.8187826258248794</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.02090071388795638</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01589970588684082</v>
+        <v>0.01929268836975098</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007050606857149434</v>
+        <v>0.008614436678654653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006173324584960937</v>
+        <v>0.008627891540527344</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00275656284232954</v>
+        <v>0.006590775509261609</v>
       </c>
       <c r="E3" t="n">
         <v>0.1</v>
@@ -721,42 +721,42 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.7878755047769133</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.02929801078937208</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.06222381591796875</v>
+        <v>0.04794869422912598</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02148178264670067</v>
+        <v>0.008513648916830072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007443523406982422</v>
+        <v>0.007007598876953125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002508987150990662</v>
+        <v>0.001515172156106174</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
@@ -785,42 +785,42 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.8159657244164287</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.024049213131814</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01755175590515137</v>
+        <v>0.02080526351928711</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002326478499742708</v>
+        <v>0.003875572314977514</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00552663803100586</v>
+        <v>0.00588068962097168</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001086554997189041</v>
+        <v>0.001093284605825514</v>
       </c>
       <c r="E5" t="n">
         <v>0.1</v>
@@ -849,42 +849,42 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.7878755047769133</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.02929801078937208</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.603055763244629</v>
+        <v>0.5123631477355957</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04636780106161526</v>
+        <v>0.04397310282108922</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0319880485534668</v>
+        <v>0.01718082427978516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01274101299471022</v>
+        <v>0.00200199256385104</v>
       </c>
       <c r="E6" t="n">
         <v>0.1</v>
@@ -913,42 +913,42 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9972027972027971</v>
+        <v>0.801900915985423</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.005594405594405583</v>
+        <v>0.02764915347417314</v>
       </c>
       <c r="R6" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1906403064727783</v>
+        <v>0.1404029369354248</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04345859808136513</v>
+        <v>0.01185959099569847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02225117683410644</v>
+        <v>0.01692938804626465</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006563725541178581</v>
+        <v>0.002234970498023619</v>
       </c>
       <c r="E7" t="n">
         <v>0.1</v>
@@ -977,42 +977,42 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.7878755047769133</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.02929801078937208</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01674656867980957</v>
+        <v>0.01442036628723145</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002532514300076723</v>
+        <v>0.002374569720165012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006944799423217773</v>
+        <v>0.005746316909790039</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0007245349520629466</v>
+        <v>0.001124228577420804</v>
       </c>
       <c r="E8" t="n">
         <v>0.1</v>
@@ -1041,42 +1041,42 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0.817374175120654</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.02426798952279241</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.02041740417480469</v>
+        <v>0.01995906829833984</v>
       </c>
       <c r="B9" t="n">
-        <v>0.005919201326686531</v>
+        <v>0.007279765953547307</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00737757682800293</v>
+        <v>0.01363053321838379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002886587552285542</v>
+        <v>0.007784198337973653</v>
       </c>
       <c r="E9" t="n">
         <v>0.1</v>
@@ -1105,42 +1105,42 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0.801920614596671</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.03249214719366798</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3962140560150146</v>
+        <v>0.4790103435516357</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0424872487102903</v>
+        <v>0.08418865420828692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01877436637878418</v>
+        <v>0.01450142860412598</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006649839260643139</v>
+        <v>0.003941514209310779</v>
       </c>
       <c r="E10" t="n">
         <v>0.1</v>
@@ -1169,42 +1169,42 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9929577464788732</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9929577464788732</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9915689943858957</v>
+        <v>0.8117403723037526</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005248986889422162</v>
+        <v>0.04232412230152331</v>
       </c>
       <c r="R10" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03934059143066406</v>
+        <v>0.03867573738098144</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01308846673307559</v>
+        <v>0.008025682987940035</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01379199028015137</v>
+        <v>0.01307439804077148</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005348570660878327</v>
+        <v>0.004847959894097948</v>
       </c>
       <c r="E11" t="n">
         <v>0.1</v>
@@ -1233,42 +1233,42 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0.8201910765291048</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.02277165850369518</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.417144775390625</v>
+        <v>9.957475328445435</v>
       </c>
       <c r="B12" t="n">
-        <v>0.260495822479391</v>
+        <v>3.392939789164199</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04306483268737793</v>
+        <v>0.02773776054382324</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02973682495215769</v>
+        <v>0.00909932151259063</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
@@ -1297,42 +1297,42 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0.775219147050133</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.02408469616928486</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.3091858863830567</v>
+        <v>0.4095721244812012</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04736260486245322</v>
+        <v>0.1100111816673276</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03041338920593262</v>
+        <v>0.02336311340332031</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01076550497104619</v>
+        <v>0.009326890054792335</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
@@ -1361,25 +1361,25 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0.8300403821530583</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.02582305742314681</v>
       </c>
       <c r="R13" t="n">
         <v>1</v>
@@ -1387,16 +1387,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02804765701293945</v>
+        <v>0.03587150573730469</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01231763657177221</v>
+        <v>0.003982012800536796</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02039761543273926</v>
+        <v>0.01829190254211426</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01609068161035661</v>
+        <v>0.01229848634847335</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1425,42 +1425,42 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0.8159755737220525</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.01991683029990426</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02358417510986328</v>
+        <v>0.02209620475769043</v>
       </c>
       <c r="B15" t="n">
-        <v>0.004348869341569565</v>
+        <v>0.007474002180497548</v>
       </c>
       <c r="C15" t="n">
-        <v>0.014306640625</v>
+        <v>0.008479070663452149</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009405794296160178</v>
+        <v>0.002872596210796177</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1489,42 +1489,42 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0.8173643258150299</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.02666193751999689</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1059271335601807</v>
+        <v>0.2937754154205322</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05880806617192712</v>
+        <v>0.09295465006362953</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01628456115722656</v>
+        <v>0.01419157981872559</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0107483830709407</v>
+        <v>0.005284447829094424</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1553,42 +1553,42 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0.8131488230079779</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.0360282349235998</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.04224720001220703</v>
+        <v>0.05827531814575195</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02246430681012304</v>
+        <v>0.03054239107727738</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01312141418457031</v>
+        <v>0.01840720176696777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009637445763242698</v>
+        <v>0.004539877461757743</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1617,42 +1617,42 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0.8243967300305328</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.02382036595244125</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8262686729431152</v>
+        <v>1.268102359771728</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1296042774983967</v>
+        <v>0.05862659350422877</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02433714866638183</v>
+        <v>0.03135585784912109</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004873970724501285</v>
+        <v>0.0145746029195558</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1681,42 +1681,42 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0.7902097902097902</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0.7893036540923865</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.03001564536725451</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3216852188110352</v>
+        <v>0.2875335693359375</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1113461608176588</v>
+        <v>0.06151708980920371</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02464933395385742</v>
+        <v>0.03281397819519043</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004839191198304826</v>
+        <v>0.01104382201397341</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1745,42 +1745,42 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.8671328671328671</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0.8257953314291342</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.02744416005028493</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0217318058013916</v>
+        <v>0.04288911819458008</v>
       </c>
       <c r="B20" t="n">
-        <v>0.006986932503358526</v>
+        <v>0.005063250800330601</v>
       </c>
       <c r="C20" t="n">
-        <v>0.006912326812744141</v>
+        <v>0.0149848461151123</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0006905701948782202</v>
+        <v>0.002733371591890811</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1809,42 +1809,42 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0.8187924751305033</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.01984845500164973</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.01802339553833008</v>
+        <v>0.02790298461914063</v>
       </c>
       <c r="B21" t="n">
-        <v>0.005271083811907953</v>
+        <v>0.004520295370372686</v>
       </c>
       <c r="C21" t="n">
-        <v>0.008058547973632812</v>
+        <v>0.01475753784179687</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002776461623112851</v>
+        <v>0.004304261469168557</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1873,42 +1873,42 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0.8187924751305033</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.02175570043464084</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5104670047760009</v>
+        <v>0.9619048595428467</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1209791650635805</v>
+        <v>0.04095274863165142</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01575555801391602</v>
+        <v>0.02164044380187988</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003292011145396907</v>
+        <v>0.008627173601929954</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1937,42 +1937,42 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9929577464788732</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="O22" t="n">
-        <v>0.9929577464788732</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P22" t="n">
-        <v>0.9915689943858957</v>
+        <v>0.8089333202009259</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.005248986889422162</v>
+        <v>0.02962962536303764</v>
       </c>
       <c r="R22" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.0571476936340332</v>
+        <v>0.07287302017211914</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01516431530787107</v>
+        <v>0.02135844435979074</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01894044876098633</v>
+        <v>0.01848282814025879</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003482258297634069</v>
+        <v>0.008496101259453994</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -2001,42 +2001,42 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0.8201910765291046</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.02750629813982354</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.050355768203735</v>
+        <v>20.27140822410583</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4901562496455248</v>
+        <v>3.047357154073624</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02948489189147949</v>
+        <v>0.02194256782531738</v>
       </c>
       <c r="D24" t="n">
-        <v>0.008146388174779345</v>
+        <v>0.0109674890321065</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -2065,42 +2065,42 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0.768196592140254</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.02963482409548485</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4570487976074219</v>
+        <v>0.6731324195861816</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0572147296943171</v>
+        <v>0.03789035813085674</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03857517242431641</v>
+        <v>0.01841616630554199</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01079487182869684</v>
+        <v>0.002716980682327913</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -2129,42 +2129,42 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0.8215699793164581</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.02615932556822723</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.04375176429748535</v>
+        <v>0.1143515586853027</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003960664709951487</v>
+        <v>0.03923544969452166</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02505278587341309</v>
+        <v>0.01250920295715332</v>
       </c>
       <c r="D26" t="n">
-        <v>0.006653994626946164</v>
+        <v>0.008008918251379008</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2193,42 +2193,42 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0.817374175120654</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>0.02426229256145701</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.04035072326660157</v>
+        <v>0.03199033737182617</v>
       </c>
       <c r="B27" t="n">
-        <v>0.006600231081958519</v>
+        <v>0.007344967746010387</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02046422958374023</v>
+        <v>0.009955739974975586</v>
       </c>
       <c r="D27" t="n">
-        <v>0.006309076525935117</v>
+        <v>0.002521125379052579</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2257,42 +2257,42 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0.8201910765291046</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.02048507351311921</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1539031505584717</v>
+        <v>2.22862753868103</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04792957652284923</v>
+        <v>0.7388987535487239</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02769045829772949</v>
+        <v>0.02133145332336426</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004209041604642435</v>
+        <v>0.006162726281963088</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2321,42 +2321,42 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0.783679700581109</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.0153840857073331</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.07928466796875</v>
+        <v>0.09949698448181152</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02318683544375668</v>
+        <v>0.03950290068168737</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0384831428527832</v>
+        <v>0.01392836570739746</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02244339685692095</v>
+        <v>0.005358845674209865</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2385,42 +2385,42 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0.8243770314192851</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.03671095841157928</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.019865369796753</v>
+        <v>5.32930097579956</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1486433138093457</v>
+        <v>1.211140324831153</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03101472854614258</v>
+        <v>0.04149289131164551</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01288802482890908</v>
+        <v>0.01352180728765943</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2449,42 +2449,42 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0.7412587412587412</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0.7542105781542401</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.02634224362986855</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2660086631774902</v>
+        <v>0.3164121150970459</v>
       </c>
       <c r="B31" t="n">
-        <v>0.05640783162466472</v>
+        <v>0.04468870548060265</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02637968063354492</v>
+        <v>0.02858066558837891</v>
       </c>
       <c r="D31" t="n">
-        <v>0.004817564096733159</v>
+        <v>0.003853565546302548</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2513,42 +2513,42 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0.8103516202107752</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.02696802111767347</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.02374424934387207</v>
+        <v>0.04631710052490234</v>
       </c>
       <c r="B32" t="n">
-        <v>0.004389142852055546</v>
+        <v>0.02027567732095322</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01077866554260254</v>
+        <v>0.01659655570983887</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002776317364272295</v>
+        <v>0.006649698329197325</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2577,42 +2577,42 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0.8159755737220525</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>0.02314176886565691</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.02456703186035156</v>
+        <v>0.0263343334197998</v>
       </c>
       <c r="B33" t="n">
-        <v>0.004796267086974686</v>
+        <v>0.009148055423087815</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01012187004089355</v>
+        <v>0.01155252456665039</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003736785130949449</v>
+        <v>0.003872216815037456</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -2641,42 +2641,42 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0.817374175120654</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.02426798952279241</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.7025235652923584</v>
+        <v>2.110765886306763</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2190981576704042</v>
+        <v>0.4536662984283061</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03203878402709961</v>
+        <v>0.02204213142395019</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0185703701161049</v>
+        <v>0.009096674040644024</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -2705,42 +2705,42 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0.7902097902097902</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9929577464788732</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="P34" t="n">
-        <v>0.9929774450901212</v>
+        <v>0.7864769033783118</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.006276844321548392</v>
+        <v>0.01959205891184657</v>
       </c>
       <c r="R34" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.04012656211853027</v>
+        <v>0.0904416561126709</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008049340036589274</v>
+        <v>0.0211521112144245</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01537704467773438</v>
+        <v>0.01678571701049805</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002042248948291809</v>
+        <v>0.002893059710936756</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -2769,42 +2769,42 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0.8215699793164581</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>0.0307042115136677</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.596441650390625</v>
+        <v>18.51182813644409</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233927001087489</v>
+        <v>2.004291851807555</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006464672088623047</v>
+        <v>0.00716242790222168</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0004472028772502385</v>
+        <v>0.001807768810424404</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -2833,42 +2833,42 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0.7762237762237763</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0.7555697823303458</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.03195444150876548</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.4528108119964599</v>
+        <v>1.7086989402771</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04611442329754659</v>
+        <v>0.364876995681309</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03293948173522949</v>
+        <v>0.0295997142791748</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0111540168058021</v>
+        <v>0.007655621784344355</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -2897,28 +2897,28 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0.8131685216192258</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.0263955951497136</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3034,16 +3034,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01922941207885742</v>
+        <v>0.07346081733703613</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002097400792628028</v>
+        <v>0.01800251292836285</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007384109497070313</v>
+        <v>0.01534576416015625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0005224243529979882</v>
+        <v>0.003275579714397778</v>
       </c>
       <c r="E2" t="n">
         <v>0.1</v>
@@ -3072,42 +3072,42 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.958041958041958</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9790209790209791</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M2" t="n">
-        <v>0.971830985915493</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9733280803703339</v>
+        <v>0.8047670639219934</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.008121742434134795</v>
+        <v>0.01916021854428922</v>
       </c>
       <c r="R2" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01392664909362793</v>
+        <v>0.05374341011047364</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001184735439706876</v>
+        <v>0.01088277360442921</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006607770919799805</v>
+        <v>0.01588163375854492</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001800234748266558</v>
+        <v>0.003125346283654647</v>
       </c>
       <c r="E3" t="n">
         <v>0.1</v>
@@ -3136,42 +3136,42 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.8005121638924455</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.02727182556082701</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3003021240234375</v>
+        <v>0.2969259262084961</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04476070198286854</v>
+        <v>0.08324865893195026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06249508857727051</v>
+        <v>0.1044406414031982</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01677825168993279</v>
+        <v>0.0166175727670483</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
@@ -3200,25 +3200,25 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.6573426573426573</v>
+        <v>0.6223776223776224</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6573426573426573</v>
+        <v>0.6223776223776224</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6549295774647887</v>
+        <v>0.6267605633802817</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6549295774647887</v>
+        <v>0.6267605633802817</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6549295774647887</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6558948094159363</v>
+        <v>0.6235989362749926</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001182162881871095</v>
+        <v>0.00275805179635607</v>
       </c>
       <c r="R4" t="n">
         <v>47</v>
@@ -3226,16 +3226,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2384111404418945</v>
+        <v>0.30638108253479</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02505832331392248</v>
+        <v>0.06729155494120116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02831349372863769</v>
+        <v>0.05273656845092774</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005916674248421636</v>
+        <v>0.0171961149454062</v>
       </c>
       <c r="E5" t="n">
         <v>0.1</v>
@@ -3264,42 +3264,42 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.8047375160051216</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.02230266465536802</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.05372638702392578</v>
+        <v>0.09832162857055664</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02101684451128739</v>
+        <v>0.02283234268187808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02503757476806641</v>
+        <v>0.01805615425109863</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01772364970897991</v>
+        <v>0.009997970784075823</v>
       </c>
       <c r="E6" t="n">
         <v>0.1</v>
@@ -3328,42 +3328,42 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0.8187826258248794</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.01992206560979367</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01538543701171875</v>
+        <v>0.05447330474853516</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004993888955440164</v>
+        <v>0.01086338990302126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007589149475097656</v>
+        <v>0.01583652496337891</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00405629465715763</v>
+        <v>0.005532507560241607</v>
       </c>
       <c r="E7" t="n">
         <v>0.1</v>
@@ -3392,42 +3392,42 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.7878755047769133</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.02929801078937208</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3563826084136963</v>
+        <v>0.1599667549133301</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06669069741755117</v>
+        <v>0.04737872045444416</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01767740249633789</v>
+        <v>0.013427734375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00458880559184378</v>
+        <v>0.003628849981257294</v>
       </c>
       <c r="E8" t="n">
         <v>0.1</v>
@@ -3456,42 +3456,42 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9943858957943466</v>
+        <v>0.8005023145868216</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.006875915876166394</v>
+        <v>0.02211306208906859</v>
       </c>
       <c r="R8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.05273466110229492</v>
+        <v>0.1622718334197998</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02065065775876807</v>
+        <v>0.02740758254495024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01120338439941406</v>
+        <v>0.02223367691040039</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006573048851378848</v>
+        <v>0.006147294363769765</v>
       </c>
       <c r="E9" t="n">
         <v>0.1</v>
@@ -3520,42 +3520,42 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0.8202009258347287</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.02131718325311405</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.03743762969970703</v>
+        <v>0.04264945983886718</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003071318253860426</v>
+        <v>0.009928660089233666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01207156181335449</v>
+        <v>0.01520962715148926</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002451635006979271</v>
+        <v>0.005477159866638911</v>
       </c>
       <c r="E10" t="n">
         <v>0.1</v>
@@ -3584,42 +3584,42 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.958041958041958</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9790209790209791</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M10" t="n">
-        <v>0.971830985915493</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9733280803703339</v>
+        <v>0.8061755146262188</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.008121742434134795</v>
+        <v>0.0192238261716743</v>
       </c>
       <c r="R10" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03611187934875489</v>
+        <v>0.05147442817687988</v>
       </c>
       <c r="B11" t="n">
-        <v>0.006390358987578264</v>
+        <v>0.01471811329319253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01468591690063476</v>
+        <v>0.02581000328063965</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003865581265085115</v>
+        <v>0.008880856169057358</v>
       </c>
       <c r="E11" t="n">
         <v>0.1</v>
@@ -3648,42 +3648,42 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0.7878558061656653</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.02164429226682847</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2442879676818848</v>
+        <v>0.2715997219085693</v>
       </c>
       <c r="B12" t="n">
-        <v>0.05225107240309068</v>
+        <v>0.08507896898530622</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0697669506072998</v>
+        <v>0.07851452827453613</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01050518806000304</v>
+        <v>0.02388658757295798</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
@@ -3712,25 +3712,25 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.6993006993006993</v>
+        <v>0.6713286713286714</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6713286713286714</v>
+        <v>0.6293706293706294</v>
       </c>
       <c r="M12" t="n">
+        <v>0.6690140845070423</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.6830985915492958</v>
       </c>
-      <c r="N12" t="n">
-        <v>0.6690140845070423</v>
-      </c>
       <c r="O12" t="n">
-        <v>0.6830985915492958</v>
+        <v>0.6549295774647887</v>
       </c>
       <c r="P12" t="n">
-        <v>0.681168127647001</v>
+        <v>0.6615483108440856</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01077756189331264</v>
+        <v>0.01841205389206605</v>
       </c>
       <c r="R12" t="n">
         <v>46</v>
@@ -3738,16 +3738,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2490078449249268</v>
+        <v>0.2168123245239258</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09173163283204763</v>
+        <v>0.04413159127859111</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09880356788635254</v>
+        <v>0.1005650520324707</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05209406888963723</v>
+        <v>0.03897615084963669</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
@@ -3776,25 +3776,25 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.6573426573426573</v>
+        <v>0.6223776223776224</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6573426573426573</v>
+        <v>0.6223776223776224</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6549295774647887</v>
+        <v>0.6267605633802817</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6549295774647887</v>
+        <v>0.6267605633802817</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6549295774647887</v>
+        <v>0.6197183098591549</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6558948094159363</v>
+        <v>0.6235989362749926</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001182162881871095</v>
+        <v>0.00275805179635607</v>
       </c>
       <c r="R13" t="n">
         <v>47</v>
@@ -3802,16 +3802,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.05774526596069336</v>
+        <v>0.06182847023010254</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01833922687644699</v>
+        <v>0.01861019595067509</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01787972450256348</v>
+        <v>0.01510004997253418</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005948427936905906</v>
+        <v>0.006200259533424975</v>
       </c>
       <c r="E14" t="n">
         <v>0.1</v>
@@ -3840,42 +3840,42 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0.8187826258248794</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.01992206560979367</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.03135914802551269</v>
+        <v>0.04154610633850098</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01023979009572253</v>
+        <v>0.01189816064998174</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01621770858764648</v>
+        <v>0.01274833679199219</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01138608460627852</v>
+        <v>0.00257551315607976</v>
       </c>
       <c r="E15" t="n">
         <v>0.1</v>
@@ -3904,42 +3904,42 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0.7878755047769133</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.02929801078937208</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4640603542327881</v>
+        <v>0.2618557453155518</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09897946302220237</v>
+        <v>0.05663666426948028</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02615227699279785</v>
+        <v>0.01830182075500488</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01276845692051451</v>
+        <v>0.007121113523522763</v>
       </c>
       <c r="E16" t="n">
         <v>0.1</v>
@@ -3968,42 +3968,42 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9943858957943466</v>
+        <v>0.8005023145868216</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.006875915876166394</v>
+        <v>0.02211306208906859</v>
       </c>
       <c r="R16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.06418385505676269</v>
+        <v>0.2161958694458008</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01459266073012993</v>
+        <v>0.09095964787510392</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01866374015808105</v>
+        <v>0.02088265419006348</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007597888052509057</v>
+        <v>0.01178142319958622</v>
       </c>
       <c r="E17" t="n">
         <v>0.1</v>
@@ -4032,42 +4032,42 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0.8202009258347287</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.02131718325311405</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.02044544219970703</v>
+        <v>0.07234458923339844</v>
       </c>
       <c r="B18" t="n">
-        <v>0.001888027612038162</v>
+        <v>0.02206731058034352</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01052489280700684</v>
+        <v>0.03085322380065918</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003687051108693569</v>
+        <v>0.01119624173002791</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -4096,42 +4096,42 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.9790209790209791</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M18" t="n">
-        <v>0.971830985915493</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9929577464788732</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9859450408746184</v>
+        <v>0.8131685216192258</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.009938510642241343</v>
+        <v>0.01735184908370087</v>
       </c>
       <c r="R18" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0284853458404541</v>
+        <v>0.03824830055236816</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01211831618677749</v>
+        <v>0.007847485316054703</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01418881416320801</v>
+        <v>0.01431727409362793</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007568702405476075</v>
+        <v>0.003746273623365945</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -4160,42 +4160,42 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0.8187924751305033</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.01772170647036952</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.22183518409729</v>
+        <v>0.2098266124725342</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03029028271011538</v>
+        <v>0.08768759137201898</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05809001922607422</v>
+        <v>0.05729775428771973</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03101793643967419</v>
+        <v>0.02741561766141079</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -4224,42 +4224,42 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.965034965034965</v>
+        <v>0.7902097902097902</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N20" t="n">
-        <v>0.971830985915493</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O20" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="P20" t="n">
-        <v>0.9789224859647396</v>
+        <v>0.8061558160149709</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01172534911097367</v>
+        <v>0.02129397097549299</v>
       </c>
       <c r="R20" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.09421029090881347</v>
+        <v>0.1170624256134033</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02777023606747189</v>
+        <v>0.03040274716003512</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01985611915588379</v>
+        <v>0.02876653671264649</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01004824232835426</v>
+        <v>0.007775876292405764</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4288,42 +4288,42 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0.814586821629075</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.01987298474194031</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.03060951232910156</v>
+        <v>0.2173095703125</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0127575071283235</v>
+        <v>0.05623662203830511</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01296095848083496</v>
+        <v>0.008170461654663086</v>
       </c>
       <c r="D22" t="n">
-        <v>0.007321898714751551</v>
+        <v>0.001297965666287857</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -4352,42 +4352,42 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0.8117403723037526</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.02493507682239605</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.02882447242736817</v>
+        <v>0.04246296882629395</v>
       </c>
       <c r="B23" t="n">
-        <v>0.009856475706214543</v>
+        <v>0.008182208495229768</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01766080856323242</v>
+        <v>0.0103485107421875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.007584454330055439</v>
+        <v>0.003810211582343191</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4416,42 +4416,42 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0.8145769723234512</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.02045597635197729</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.397434139251709</v>
+        <v>0.3648327350616455</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06081674922084607</v>
+        <v>0.08273846536177051</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01537408828735352</v>
+        <v>0.0124204158782959</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003001545748835493</v>
+        <v>0.001758018248159629</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -4480,42 +4480,42 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P24" t="n">
-        <v>0.9943858957943466</v>
+        <v>0.7934797596769428</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.006875915876166394</v>
+        <v>0.03010658373146632</v>
       </c>
       <c r="R24" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.06005206108093262</v>
+        <v>0.08867855072021484</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01518614972221106</v>
+        <v>0.03241796638639131</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01395978927612305</v>
+        <v>0.01161918640136719</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002742434413133677</v>
+        <v>0.004599393633159045</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4544,42 +4544,42 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0.8159755737220526</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.02479699178692453</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.03358230590820312</v>
+        <v>0.04562554359436035</v>
       </c>
       <c r="B26" t="n">
-        <v>0.008696052943482351</v>
+        <v>0.01516286410095492</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01166830062866211</v>
+        <v>0.01204094886779785</v>
       </c>
       <c r="D26" t="n">
-        <v>0.003446972573953685</v>
+        <v>0.002718598856453256</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4608,42 +4608,42 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0.9790209790209791</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M26" t="n">
-        <v>0.971830985915493</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9929577464788732</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P26" t="n">
-        <v>0.9859450408746184</v>
+        <v>0.8145671230178273</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.009938510642241343</v>
+        <v>0.01850662249039511</v>
       </c>
       <c r="R26" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.01556792259216309</v>
+        <v>0.0264686107635498</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0003496810970880597</v>
+        <v>0.002293207027109724</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006830072402954102</v>
+        <v>0.009299516677856445</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001186910719939126</v>
+        <v>0.001161811167320576</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4672,42 +4672,42 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0.7878755047769133</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.02929801078937208</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1583560466766357</v>
+        <v>0.1391372680664062</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04240422120888348</v>
+        <v>0.06308160077488749</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04133086204528809</v>
+        <v>0.04494357109069824</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01307921687695708</v>
+        <v>0.01237577363804108</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -4736,42 +4736,42 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.972027972027972</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9507042253521126</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N28" t="n">
-        <v>0.9577464788732394</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O28" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="P28" t="n">
-        <v>0.9718703831379887</v>
+        <v>0.7990840145769724</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0172501077242867</v>
+        <v>0.02775088658649951</v>
       </c>
       <c r="R28" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1313022613525391</v>
+        <v>0.1295916557312012</v>
       </c>
       <c r="B29" t="n">
-        <v>0.008832507937791353</v>
+        <v>0.04825016130399482</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02211565971374512</v>
+        <v>0.05185542106628418</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004984625190591302</v>
+        <v>0.01156580437335655</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4800,42 +4800,42 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0.7878755047769133</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.02929801078937208</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.02868762016296387</v>
+        <v>0.1969847679138184</v>
       </c>
       <c r="B30" t="n">
-        <v>0.008223711868101101</v>
+        <v>0.0377041593069827</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01039190292358399</v>
+        <v>0.009200525283813477</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0023337944282012</v>
+        <v>0.006089853557486689</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -4864,42 +4864,42 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0.8117403723037526</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.02493507682239605</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.03283901214599609</v>
+        <v>0.04140324592590332</v>
       </c>
       <c r="B31" t="n">
-        <v>0.002766003551453363</v>
+        <v>0.01897973813488625</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02105116844177246</v>
+        <v>0.009203004837036132</v>
       </c>
       <c r="D31" t="n">
-        <v>0.008699010499406166</v>
+        <v>0.003087860417904665</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -4928,42 +4928,42 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0.8145769723234512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.02045597635197729</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3036283969879151</v>
+        <v>0.341350269317627</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04878918087124831</v>
+        <v>0.07970195436307238</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01413993835449219</v>
+        <v>0.01099281311035156</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002394476655889456</v>
+        <v>0.00193182599478481</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4992,42 +4992,42 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P32" t="n">
-        <v>0.9943858957943466</v>
+        <v>0.7934797596769428</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.006875915876166394</v>
+        <v>0.03010658373146632</v>
       </c>
       <c r="R32" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.04728412628173828</v>
+        <v>0.07802753448486328</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02679662129912054</v>
+        <v>0.02533352909090188</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00985870361328125</v>
+        <v>0.01084837913513184</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003567519210333072</v>
+        <v>0.002133473867811786</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -5056,42 +5056,42 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0.8159755737220526</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.02479699178692453</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.02730364799499512</v>
+        <v>0.03907642364501953</v>
       </c>
       <c r="B34" t="n">
-        <v>0.004171065416630073</v>
+        <v>0.007400064807542462</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01013660430908203</v>
+        <v>0.01021041870117187</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002471579808120569</v>
+        <v>0.002088643057662595</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -5120,42 +5120,42 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9929577464788732</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="O34" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P34" t="n">
-        <v>0.9901605436816705</v>
+        <v>0.8046981187826259</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.00561914754954524</v>
+        <v>0.03664474363146117</v>
       </c>
       <c r="R34" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.02273311614990235</v>
+        <v>0.05238299369812012</v>
       </c>
       <c r="B35" t="n">
-        <v>0.006951596343952159</v>
+        <v>0.01588814246924575</v>
       </c>
       <c r="C35" t="n">
-        <v>0.009218692779541016</v>
+        <v>0.01328139305114746</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002231611028657102</v>
+        <v>0.002791270350391218</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -5184,42 +5184,42 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0.8187826258248794</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>0.02709981271081308</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.153862476348877</v>
+        <v>0.1143199443817139</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03349968577935182</v>
+        <v>0.0112509009326034</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02810688018798828</v>
+        <v>0.03317131996154785</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01418739690425547</v>
+        <v>0.01443446886223422</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -5248,42 +5248,42 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0.9790209790209791</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M36" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N36" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="O36" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="P36" t="n">
-        <v>0.9831281394661678</v>
+        <v>0.7948586624642962</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.008436124318429068</v>
+        <v>0.0291678102367797</v>
       </c>
       <c r="R36" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.0880772590637207</v>
+        <v>0.1059735774993897</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02367471006463722</v>
+        <v>0.02928030844239394</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0205528736114502</v>
+        <v>0.02881016731262207</v>
       </c>
       <c r="D37" t="n">
-        <v>0.006005043427238599</v>
+        <v>0.00621386067958598</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -5312,42 +5312,42 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0.8117502216093765</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.0282401354689698</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.03269028663635254</v>
+        <v>1.630878496170044</v>
       </c>
       <c r="B38" t="n">
-        <v>0.009823720332878495</v>
+        <v>0.8064986754759965</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01118178367614746</v>
+        <v>0.005124616622924805</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003094047089980215</v>
+        <v>0.001438658264544324</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -5376,42 +5376,42 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0.813148823007978</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>0.02334618706263386</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.02177448272705078</v>
+        <v>0.1804500579833984</v>
       </c>
       <c r="B39" t="n">
-        <v>0.006929336787644092</v>
+        <v>0.04317117516801233</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009203338623046875</v>
+        <v>0.006677484512329102</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001394371002770817</v>
+        <v>0.001270335988983712</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -5440,42 +5440,42 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0.8201910765291046</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.01896970637912674</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.3004221439361572</v>
+        <v>1.814044952392578</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05740671815713614</v>
+        <v>0.7623116895125465</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01539392471313477</v>
+        <v>0.008400344848632812</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01007466056376526</v>
+        <v>0.00328359369555572</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -5504,42 +5504,42 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0.7412587412587412</v>
       </c>
       <c r="M40" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="P40" t="n">
-        <v>0.9943858957943466</v>
+        <v>0.7738500935684034</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.006875915876166394</v>
+        <v>0.03375781648761391</v>
       </c>
       <c r="R40" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.05132761001586914</v>
+        <v>0.1091905117034912</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01536113799279811</v>
+        <v>0.02963948950318701</v>
       </c>
       <c r="C41" t="n">
-        <v>0.007125616073608398</v>
+        <v>0.0101470947265625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0008789423975075966</v>
+        <v>0.001495538671837622</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -5568,42 +5568,42 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0.8145572737122034</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.03162232426781129</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.02694435119628906</v>
+        <v>0.03591661453247071</v>
       </c>
       <c r="B42" t="n">
-        <v>0.005256883536305507</v>
+        <v>0.006193811009431584</v>
       </c>
       <c r="C42" t="n">
-        <v>0.008645248413085938</v>
+        <v>0.008886051177978516</v>
       </c>
       <c r="D42" t="n">
-        <v>0.002260205551540337</v>
+        <v>0.001480500756662673</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -5632,42 +5632,42 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M42" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N42" t="n">
-        <v>0.9929577464788732</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="O42" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P42" t="n">
-        <v>0.9901605436816705</v>
+        <v>0.8061065694868512</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.00561914754954524</v>
+        <v>0.03416045902397346</v>
       </c>
       <c r="R42" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.01636381149291992</v>
+        <v>0.0305727481842041</v>
       </c>
       <c r="B43" t="n">
-        <v>0.002941485817645424</v>
+        <v>0.008699799116103349</v>
       </c>
       <c r="C43" t="n">
-        <v>0.006408405303955078</v>
+        <v>0.009565305709838868</v>
       </c>
       <c r="D43" t="n">
-        <v>0.001386369325099937</v>
+        <v>0.0006945006820859191</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -5696,25 +5696,25 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0.8229981286319316</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.02554225955416064</v>
       </c>
       <c r="R43" t="n">
         <v>1</v>
@@ -5722,16 +5722,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1459310531616211</v>
+        <v>0.07273273468017578</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01227026309241197</v>
+        <v>0.02013674284480913</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02446298599243164</v>
+        <v>0.0296682357788086</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007361729654015403</v>
+        <v>0.006546948212338012</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -5760,42 +5760,42 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0.972027972027972</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M44" t="n">
-        <v>0.9507042253521126</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N44" t="n">
-        <v>0.9577464788732394</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O44" t="n">
-        <v>0.9788732394366197</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P44" t="n">
-        <v>0.9718703831379887</v>
+        <v>0.7976854131783709</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.0172501077242867</v>
+        <v>0.03661769170219343</v>
       </c>
       <c r="R44" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.0630836009979248</v>
+        <v>0.07938799858093262</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0406155228051751</v>
+        <v>0.02185015307144124</v>
       </c>
       <c r="C45" t="n">
-        <v>0.01733870506286621</v>
+        <v>0.02316899299621582</v>
       </c>
       <c r="D45" t="n">
-        <v>0.007429278703851054</v>
+        <v>0.002054325035922374</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -5824,42 +5824,42 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0.8215995272333301</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>0.02090545223235443</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0146395206451416</v>
+        <v>1.456782245635986</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00388214742663139</v>
+        <v>0.7186675786981281</v>
       </c>
       <c r="C46" t="n">
-        <v>0.005051422119140625</v>
+        <v>0.004566049575805664</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0003886951015565357</v>
+        <v>0.000926896026471807</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -5888,42 +5888,42 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0.813148823007978</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.02334618706263386</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.01829347610473633</v>
+        <v>0.1514145851135254</v>
       </c>
       <c r="B47" t="n">
-        <v>0.006193796496555096</v>
+        <v>0.02995597304516226</v>
       </c>
       <c r="C47" t="n">
-        <v>0.008722448348999023</v>
+        <v>0.005321216583251953</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001603354819879154</v>
+        <v>0.000835217469073857</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -5952,42 +5952,42 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0.8201910765291046</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>0.01896970637912674</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.2060820579528809</v>
+        <v>1.624966096878052</v>
       </c>
       <c r="B48" t="n">
-        <v>0.09457747906151558</v>
+        <v>0.679228973931336</v>
       </c>
       <c r="C48" t="n">
-        <v>0.006368017196655274</v>
+        <v>0.008118629455566406</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001625919462306117</v>
+        <v>0.004289956043646524</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -6016,42 +6016,42 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.986013986013986</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0.7412587412587412</v>
       </c>
       <c r="M48" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="P48" t="n">
-        <v>0.9943858957943466</v>
+        <v>0.7738500935684034</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.006875915876166394</v>
+        <v>0.03375781648761391</v>
       </c>
       <c r="R48" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.05044760704040527</v>
+        <v>0.09467225074768067</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02072734313949632</v>
+        <v>0.02129981307195718</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01492114067077637</v>
+        <v>0.009613132476806641</v>
       </c>
       <c r="D49" t="n">
-        <v>0.005904136423098981</v>
+        <v>0.002566038041227222</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -6080,28 +6080,28 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0.8145572737122034</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>0.03162232426781129</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6217,16 +6217,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2958269119262695</v>
+        <v>0.332031774520874</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02020571414588377</v>
+        <v>0.01397299028092411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01534638404846191</v>
+        <v>0.017352294921875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001417765903406797</v>
+        <v>0.002585567386443961</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -6247,42 +6247,42 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0.81312912439673</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.03264380847179085</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.3502821445465088</v>
+        <v>0.5627477645874024</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02126039270363875</v>
+        <v>0.12510725926749</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0178257942199707</v>
+        <v>0.02022805213928223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003042460410500076</v>
+        <v>0.007008371233038366</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -6303,42 +6303,42 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.8019304639022948</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.01727704092315084</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5856868267059326</v>
+        <v>0.761696720123291</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03600511707838328</v>
+        <v>0.1716148418406757</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02620849609375</v>
+        <v>0.03089151382446289</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003077262157780125</v>
+        <v>0.008841318427504038</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -6359,42 +6359,42 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.8103614695163991</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.01513711708417211</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6674427509307861</v>
+        <v>0.992261266708374</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04484098429618533</v>
+        <v>0.07453423542939509</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02695760726928711</v>
+        <v>0.0312565803527832</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00397905566466614</v>
+        <v>0.002860017657887431</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -6415,42 +6415,42 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.8089431695065498</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.02321750222334517</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2877766609191895</v>
+        <v>0.3070003032684326</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02190216639929089</v>
+        <v>0.01306906298859402</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01479077339172363</v>
+        <v>0.0147150993347168</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006283776643204065</v>
+        <v>0.0009876339648828138</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -6471,42 +6471,42 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0.8258051807347583</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.0133576847887805</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3237441062927246</v>
+        <v>0.5874931335449218</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006594419961913649</v>
+        <v>0.08173119605258782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01618680953979492</v>
+        <v>0.02145309448242188</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001227118165077544</v>
+        <v>0.007322975518838115</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -6527,42 +6527,42 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.8075642667191962</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.01777262373883704</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6182753086090088</v>
+        <v>0.6989880084991456</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06145001628721251</v>
+        <v>0.06738612502877606</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02522835731506348</v>
+        <v>0.02679309844970703</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003198100488963286</v>
+        <v>0.003010567880727359</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -6583,42 +6583,42 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0.821589677927706</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.01849161949442684</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7049998283386231</v>
+        <v>1.179042387008667</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06637976293096892</v>
+        <v>0.1452897221989808</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02687458992004394</v>
+        <v>0.02815742492675781</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003154776953937709</v>
+        <v>0.002924506011653085</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -6639,42 +6639,42 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0.817374175120654</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.019247030104723</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2788980007171631</v>
+        <v>0.3416436195373535</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01807754245835672</v>
+        <v>0.0567580153046274</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01447267532348633</v>
+        <v>0.01416177749633789</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001133251739934557</v>
+        <v>0.001006774596370785</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
@@ -6695,42 +6695,42 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0.8258150300403821</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.01656950649357178</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3437389373779297</v>
+        <v>0.5529039859771728</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03399640359024586</v>
+        <v>0.1047825616997627</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02101969718933105</v>
+        <v>0.01992192268371582</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003673691412132166</v>
+        <v>0.00642560174416739</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
@@ -6751,42 +6751,42 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0.817374175120654</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.0152270583487567</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5844845771789551</v>
+        <v>0.6992349624633789</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03287056178141251</v>
+        <v>0.0512604242277985</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02419872283935547</v>
+        <v>0.03317008018493652</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001738326281636231</v>
+        <v>0.01138013595353469</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
@@ -6807,42 +6807,42 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0.8243967300305328</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.01310606948799554</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6863741874694824</v>
+        <v>1.063310575485229</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04716338535549034</v>
+        <v>0.0761645257332606</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02698898315429688</v>
+        <v>0.03762669563293457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002217570538710776</v>
+        <v>0.01287316619870619</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
@@ -6863,42 +6863,42 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0.8159854230276766</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.01465329099460871</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2749049186706543</v>
+        <v>0.3560238838195801</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007838795826256312</v>
+        <v>0.03934427884312283</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01396327018737793</v>
+        <v>0.01693196296691895</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000469306740556033</v>
+        <v>0.00146415225362081</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
@@ -6919,42 +6919,42 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0.8173544765094061</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.01990881639307553</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3560141563415528</v>
+        <v>0.6140647411346436</v>
       </c>
       <c r="B15" t="n">
-        <v>0.04497512082018089</v>
+        <v>0.12550757135887</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01892557144165039</v>
+        <v>0.02154378890991211</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002562903480496987</v>
+        <v>0.006135208566764622</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
@@ -6975,42 +6975,42 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0.8131685216192258</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.01845972194666508</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.6236851215362549</v>
+        <v>0.6503341197967529</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04039302239606974</v>
+        <v>0.04717189823718453</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03202238082885742</v>
+        <v>0.02348675727844238</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007472519481137458</v>
+        <v>0.00113150325503526</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
@@ -7031,42 +7031,42 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0.8272136314389836</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.01731665353552887</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7013503551483155</v>
+        <v>1.105645036697388</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1135067482346414</v>
+        <v>0.1237359175722837</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02609000205993652</v>
+        <v>0.03342046737670899</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001342591314332887</v>
+        <v>0.01210283694297118</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
@@ -7087,42 +7087,42 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0.8244164286417807</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.01908051250623249</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3022891521453858</v>
+        <v>0.3659709453582763</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01612549194661375</v>
+        <v>0.08028764447508108</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01808433532714844</v>
+        <v>0.0183349609375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007696111580886944</v>
+        <v>0.0048571121229095</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -7145,42 +7145,42 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0.8187432286023835</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.02503060295244837</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3514134883880615</v>
+        <v>0.5406868934631348</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02890476408485871</v>
+        <v>0.06687011686175812</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01704916954040527</v>
+        <v>0.01766605377197266</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002755660789545396</v>
+        <v>0.003863116592834348</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -7203,42 +7203,42 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0.8229981286319316</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.01888136292858558</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6451800346374512</v>
+        <v>0.7503421783447266</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1199514283472944</v>
+        <v>0.09531483591744844</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02932538986206055</v>
+        <v>0.03634905815124512</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004940183141075128</v>
+        <v>0.01348113861287043</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -7261,42 +7261,42 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0.8215699793164581</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.02160214322654467</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6984891891479492</v>
+        <v>1.056232643127441</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0446288289003325</v>
+        <v>0.1563325766914617</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02711343765258789</v>
+        <v>0.03457040786743164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00439056909996712</v>
+        <v>0.0102649887000261</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -7319,42 +7319,42 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0.8173544765094061</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.02518747658105392</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3563690662384033</v>
+        <v>0.3413359165191651</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08466114928875086</v>
+        <v>0.04470716304045972</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02125988006591797</v>
+        <v>0.0162531852722168</v>
       </c>
       <c r="D22" t="n">
-        <v>0.009782963571982979</v>
+        <v>0.003529225027049009</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -7377,42 +7377,42 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0.821589677927706</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.01849161949442684</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.3682597637176513</v>
+        <v>0.5883003234863281</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05798573702928077</v>
+        <v>0.07913792638844092</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01629142761230469</v>
+        <v>0.02095637321472168</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001056394551585524</v>
+        <v>0.009266841679764279</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -7435,42 +7435,42 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0.8117797695262483</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.0197669453969901</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5708157539367675</v>
+        <v>0.6802571773529053</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04605736265528113</v>
+        <v>0.08032354512982225</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0251929759979248</v>
+        <v>0.02883024215698242</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001983737599407815</v>
+        <v>0.01048122991317802</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -7493,42 +7493,42 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0.828612232837585</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.01195879310523865</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7246158123016357</v>
+        <v>1.086423110961914</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04991899576261333</v>
+        <v>0.1445420097086732</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02919383049011231</v>
+        <v>0.02902302742004394</v>
       </c>
       <c r="D25" t="n">
-        <v>0.004652231131338487</v>
+        <v>0.003491325035676428</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -7551,42 +7551,42 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0.8201910765291046</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.01998810715988234</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.287867021560669</v>
+        <v>0.3653902053833008</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01821332850925886</v>
+        <v>0.08297371746418399</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01838669776916504</v>
+        <v>0.01632232666015625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.005692337996214036</v>
+        <v>0.003690522726485511</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -7609,42 +7609,42 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0.8244065793361568</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>0.01510771116835683</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3280497550964355</v>
+        <v>0.4979603767395019</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01781281884422218</v>
+        <v>0.04700676634319031</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01711664199829101</v>
+        <v>0.01827707290649414</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002521238043111182</v>
+        <v>0.00703343620180437</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -7667,42 +7667,42 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0.8244262779474048</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.006584347368012606</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.5604515552520752</v>
+        <v>0.7026872634887695</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02832619119414559</v>
+        <v>0.07996414444043008</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02470536231994629</v>
+        <v>0.02544341087341308</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002310359421869608</v>
+        <v>0.002092375580306143</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -7725,42 +7725,42 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0.8229981286319313</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.0140643945885464</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.6569996356964112</v>
+        <v>1.056007480621338</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03118805112651883</v>
+        <v>0.1425920726598071</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02887067794799805</v>
+        <v>0.03367328643798828</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004130126056264732</v>
+        <v>0.01576763984192879</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -7783,42 +7783,42 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0.8145769723234512</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.01730384250213464</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.2691638946533203</v>
+        <v>0.368332052230835</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01210777905576254</v>
+        <v>0.07849077600265623</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01472735404968262</v>
+        <v>0.01884922981262207</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0008872478007062918</v>
+        <v>0.009592078085493578</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -7841,25 +7841,25 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0.8314291342460358</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.01042957292004727</v>
       </c>
       <c r="R30" t="n">
         <v>1</v>
@@ -7867,16 +7867,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3274716377258301</v>
+        <v>0.5388644218444825</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03043294869188587</v>
+        <v>0.08939847187364354</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01675982475280762</v>
+        <v>0.02517170906066895</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002651367862305722</v>
+        <v>0.009862002667553613</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -7899,42 +7899,42 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0.821619225844578</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.01157862853966676</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.5874533653259277</v>
+        <v>0.6287312984466553</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05354679266268635</v>
+        <v>0.04061400628478636</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02605633735656738</v>
+        <v>0.02441692352294922</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002821055891165201</v>
+        <v>0.002617616257712524</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -7957,42 +7957,42 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0.8187629272136314</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>0.01852649937084241</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.6415965557098389</v>
+        <v>1.0984938621521</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02541301616662889</v>
+        <v>0.1811424234567698</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02875065803527832</v>
+        <v>0.02811622619628906</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00236258959628778</v>
+        <v>0.003016028498286686</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -8015,42 +8015,42 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0.8230079779375554</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.009763886466496801</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2804548740386963</v>
+        <v>0.3660249710083008</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01556560627568549</v>
+        <v>0.04940288810773781</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01540555953979492</v>
+        <v>0.01607680320739746</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0007351684357527132</v>
+        <v>0.002841219092131449</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -8073,42 +8073,42 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0.8131783709248499</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.01832300715141987</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3324438095092773</v>
+        <v>0.558092451095581</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01874619218112513</v>
+        <v>0.08025613877304584</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01684150695800781</v>
+        <v>0.01600713729858399</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001278941622585787</v>
+        <v>0.001123621607042487</v>
       </c>
       <c r="E35" t="n">
         <v>20</v>
@@ -8131,42 +8131,42 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0.8187826258248793</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>0.02271371174720012</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.6002527236938476</v>
+        <v>0.6955482006072998</v>
       </c>
       <c r="B36" t="n">
-        <v>0.05898742552664924</v>
+        <v>0.03362529706794399</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02640681266784668</v>
+        <v>0.03139519691467285</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002451057289479097</v>
+        <v>0.01073359832505061</v>
       </c>
       <c r="E36" t="n">
         <v>20</v>
@@ -8189,42 +8189,42 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0.8187727765192554</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.02526144330477312</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.6324922561645507</v>
+        <v>1.061509752273559</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02050919946038994</v>
+        <v>0.06914311800692995</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02671055793762207</v>
+        <v>0.02699699401855469</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001027786898676842</v>
+        <v>0.001398424640137304</v>
       </c>
       <c r="E37" t="n">
         <v>20</v>
@@ -8247,42 +8247,42 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0.810371318822023</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.01960203846472719</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.3257069110870361</v>
+        <v>0.3743221282958984</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04385948662639649</v>
+        <v>0.06017268438601241</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01990466117858887</v>
+        <v>0.01990857124328613</v>
       </c>
       <c r="D38" t="n">
-        <v>0.006394648357044831</v>
+        <v>0.006551860152706433</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -8305,42 +8305,42 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0.8215896779277061</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>0.01353666578696674</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.3686078071594238</v>
+        <v>0.5401249885559082</v>
       </c>
       <c r="B39" t="n">
-        <v>0.05953060597682242</v>
+        <v>0.02196512907678261</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0163276195526123</v>
+        <v>0.02207927703857422</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001662825591849968</v>
+        <v>0.007213327147263689</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
@@ -8363,42 +8363,42 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0.8216290751502019</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.007153946032753276</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.5717700481414795</v>
+        <v>0.7151031494140625</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0356560154442155</v>
+        <v>0.0275639124384763</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0293571949005127</v>
+        <v>0.02569060325622559</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01061967662638765</v>
+        <v>0.002513177425391265</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
@@ -8421,42 +8421,42 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0.8258051807347583</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.01665346621840124</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.690358304977417</v>
+        <v>1.137354564666748</v>
       </c>
       <c r="B41" t="n">
-        <v>0.08339117210491546</v>
+        <v>0.1176695745499332</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02681803703308105</v>
+        <v>0.03264284133911133</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003713943306975416</v>
+        <v>0.008846325643415065</v>
       </c>
       <c r="E41" t="n">
         <v>20</v>
@@ -8479,42 +8479,42 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0.8187826258248794</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.01477676193893516</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.304823637008667</v>
+        <v>0.344295883178711</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02836965718188969</v>
+        <v>0.03500883497270094</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01693840026855469</v>
+        <v>0.01443123817443848</v>
       </c>
       <c r="D42" t="n">
-        <v>0.005108294700719777</v>
+        <v>0.0007338896122910368</v>
       </c>
       <c r="E42" t="n">
         <v>20</v>
@@ -8537,42 +8537,42 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0.8187826258248794</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.01477676193893516</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.3336862087249756</v>
+        <v>0.5197563171386719</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02200361481055106</v>
+        <v>0.08068154159192378</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01563920974731445</v>
+        <v>0.02051773071289063</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0009362319001716717</v>
+        <v>0.008822784480029941</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -8595,42 +8595,42 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0.8103319215995273</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.0271008364816829</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5755544185638428</v>
+        <v>0.7385560989379882</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0443550482342174</v>
+        <v>0.09131955243842085</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02697410583496094</v>
+        <v>0.02487478256225586</v>
       </c>
       <c r="D44" t="n">
-        <v>0.003966816654992152</v>
+        <v>0.0007506511122538603</v>
       </c>
       <c r="E44" t="n">
         <v>20</v>
@@ -8653,42 +8653,42 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>0.8271939328277357</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.01961758179301232</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.626926040649414</v>
+        <v>1.001477193832397</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04047129124248659</v>
+        <v>0.04538401929495562</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02718033790588379</v>
+        <v>0.02980914115905762</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001777954255689506</v>
+        <v>0.002442293702448829</v>
       </c>
       <c r="E45" t="n">
         <v>20</v>
@@ -8711,42 +8711,42 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0.8159854230276766</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>0.01594972114794922</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.2831298351287842</v>
+        <v>0.3781843185424805</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02828865582797882</v>
+        <v>0.04773206328145847</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01588234901428223</v>
+        <v>0.01460890769958496</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0020306371003239</v>
+        <v>0.001176098183071966</v>
       </c>
       <c r="E46" t="n">
         <v>20</v>
@@ -8769,42 +8769,42 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0.8271840835221116</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.02579513023023925</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.3485227108001709</v>
+        <v>0.574278450012207</v>
       </c>
       <c r="B47" t="n">
-        <v>0.04064616377377994</v>
+        <v>0.07874529127817345</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01660237312316894</v>
+        <v>0.01657543182373047</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001223797950498109</v>
+        <v>0.001519158334842267</v>
       </c>
       <c r="E47" t="n">
         <v>20</v>
@@ -8827,42 +8827,42 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0.8230079779375554</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>0.01395695609303528</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.4989845752716064</v>
+        <v>0.6327237129211426</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02693338505912797</v>
+        <v>0.01924631423340083</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01748833656311035</v>
+        <v>0.02135763168334961</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002813381754828632</v>
+        <v>0.002675386855517129</v>
       </c>
       <c r="E48" t="n">
         <v>20</v>
@@ -8885,42 +8885,42 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0.8215896779277061</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>0.01353666578696674</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.5116800308227539</v>
+        <v>0.8033017635345459</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04799554453151965</v>
+        <v>0.04432498441896889</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01286311149597168</v>
+        <v>0.01575655937194824</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00102989599848605</v>
+        <v>0.001813414943801525</v>
       </c>
       <c r="E49" t="n">
         <v>20</v>
@@ -8943,28 +8943,28 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0.8202009258347287</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>0.01542305028861071</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -9080,16 +9080,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2278040885925293</v>
+        <v>0.3959690570831299</v>
       </c>
       <c r="B2" t="n">
-        <v>0.004937397149645039</v>
+        <v>0.0253964241891879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004578638076782227</v>
+        <v>0.004753971099853515</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001575493639197839</v>
+        <v>0.0006447808662452966</v>
       </c>
       <c r="E2" t="n">
         <v>0.01</v>
@@ -9112,42 +9112,42 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0.8089727174234216</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.01872580695411698</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.987168264389038</v>
+        <v>2.740880298614502</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09842691202987125</v>
+        <v>0.183316353111016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005258035659790039</v>
+        <v>0.005850505828857422</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004831363031656717</v>
+        <v>0.001680383288470107</v>
       </c>
       <c r="E3" t="n">
         <v>0.01</v>
@@ -9170,42 +9170,42 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.8160051216389244</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.01745974937343777</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2784756183624267</v>
+        <v>0.4204488277435303</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02039781053593129</v>
+        <v>0.03055899873694897</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005597209930419922</v>
+        <v>0.004293489456176758</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001291368720924959</v>
+        <v>0.0003579774864245729</v>
       </c>
       <c r="E4" t="n">
         <v>0.01</v>
@@ -9228,42 +9228,42 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.8075741160248203</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.0202722446230608</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.681682920455933</v>
+        <v>3.157527256011963</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08424852745831422</v>
+        <v>0.1594183056973359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005423164367675782</v>
+        <v>0.005345678329467774</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0006843923084479614</v>
+        <v>0.0007945785625614567</v>
       </c>
       <c r="E5" t="n">
         <v>0.01</v>
@@ -9286,42 +9286,42 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.8160051216389244</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.01501644141379526</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4653010845184326</v>
+        <v>0.7965143203735352</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0224161382333016</v>
+        <v>0.044588789995104</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004253005981445313</v>
+        <v>0.005161809921264649</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001271667218133905</v>
+        <v>0.0006071233388174901</v>
       </c>
       <c r="E6" t="n">
         <v>0.01</v>
@@ -9344,42 +9344,42 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0.8230178272431793</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.01762195748602286</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.465656709671021</v>
+        <v>5.300039052963257</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1926863506532195</v>
+        <v>0.2223128900340471</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005522680282592773</v>
+        <v>0.006382465362548828</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0004108336198799247</v>
+        <v>0.001865733631028235</v>
       </c>
       <c r="E7" t="n">
         <v>0.01</v>
@@ -9402,42 +9402,42 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.8244065793361568</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.01217951768404301</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4901026248931885</v>
+        <v>0.8328022480010986</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03026845051877209</v>
+        <v>0.05368509300649652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00429534912109375</v>
+        <v>0.00528111457824707</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0002243160792857192</v>
+        <v>0.001394948689067532</v>
       </c>
       <c r="E8" t="n">
         <v>0.01</v>
@@ -9460,42 +9460,42 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0.8202009258347287</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.02708881368320212</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.944373035430908</v>
+        <v>6.853566360473633</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1932622129744223</v>
+        <v>0.6213207320334106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00528569221496582</v>
+        <v>0.009701681137084962</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0006108575712708246</v>
+        <v>0.004068395808053479</v>
       </c>
       <c r="E9" t="n">
         <v>0.01</v>
@@ -9518,42 +9518,42 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0.8286319314488327</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.01250324252370626</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.252858829498291</v>
+        <v>0.6712386608123779</v>
       </c>
       <c r="B10" t="n">
-        <v>0.009495280454285427</v>
+        <v>0.03989596706920134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004961204528808594</v>
+        <v>0.005823898315429688</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001232275566776823</v>
+        <v>0.002156434940781881</v>
       </c>
       <c r="E10" t="n">
         <v>0.01</v>
@@ -9576,42 +9576,42 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0.8047769132276175</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.01626180908842324</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.388978719711304</v>
+        <v>4.170315790176391</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3617414104597856</v>
+        <v>0.4627090335326322</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00650181770324707</v>
+        <v>0.006566953659057617</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002929714995617786</v>
+        <v>0.002034421750557302</v>
       </c>
       <c r="E11" t="n">
         <v>0.01</v>
@@ -9634,42 +9634,42 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0.8188121737417513</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.01439031752450696</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2655713081359863</v>
+        <v>0.7688354969024658</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02354636212093307</v>
+        <v>0.1480898555567569</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00431985855102539</v>
+        <v>0.0054351806640625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00062559345850583</v>
+        <v>0.002343055280767034</v>
       </c>
       <c r="E12" t="n">
         <v>0.01</v>
@@ -9692,42 +9692,42 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0.7902097902097902</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0.7977543583177387</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.02151272789356851</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.819629621505737</v>
+        <v>5.094480991363525</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1103349619014754</v>
+        <v>0.2386024435799102</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005365276336669922</v>
+        <v>0.006877231597900391</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000514200939577703</v>
+        <v>0.003191804873397834</v>
       </c>
       <c r="E13" t="n">
         <v>0.01</v>
@@ -9750,42 +9750,42 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0.810381168127647</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.01269076818873883</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4733738899230957</v>
+        <v>1.429280710220337</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01860322467144144</v>
+        <v>0.1056537130345749</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005267715454101563</v>
+        <v>0.006728839874267578</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001269978367290952</v>
+        <v>0.002632542370535413</v>
       </c>
       <c r="E14" t="n">
         <v>0.01</v>
@@ -9808,42 +9808,42 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0.8131685216192259</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.01488156094076099</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.402458667755127</v>
+        <v>8.650853204727174</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8769298417192123</v>
+        <v>0.4408504275724681</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005261135101318359</v>
+        <v>0.007317352294921875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001575443848354106</v>
+        <v>0.002139391536860217</v>
       </c>
       <c r="E15" t="n">
         <v>0.01</v>
@@ -9866,42 +9866,42 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0.8258248793460062</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.01151612554633841</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5134970188140869</v>
+        <v>1.502557563781738</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05968311048387675</v>
+        <v>0.1721621683838687</v>
       </c>
       <c r="C16" t="n">
-        <v>0.005191850662231445</v>
+        <v>0.008077192306518554</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0003356089675552479</v>
+        <v>0.005318288925212173</v>
       </c>
       <c r="E16" t="n">
         <v>0.01</v>
@@ -9924,42 +9924,42 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0.8061656653205949</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.02432750575944494</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.103811979293823</v>
+        <v>10.64501733779907</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1063751775390017</v>
+        <v>0.4809303886217817</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005261850357055664</v>
+        <v>0.008742809295654297</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003987100180872502</v>
+        <v>0.003542200734411601</v>
       </c>
       <c r="E17" t="n">
         <v>0.01</v>
@@ -9982,42 +9982,42 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0.8202009258347287</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.01175290860221879</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.230049991607666</v>
+        <v>0.3872026443481446</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02613584885887539</v>
+        <v>0.04728506365417792</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00392756462097168</v>
+        <v>0.004179811477661133</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001811207179338508</v>
+        <v>0.0003313722734517245</v>
       </c>
       <c r="E18" t="n">
         <v>0.1</v>
@@ -10040,42 +10040,42 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0.817374175120654</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.01647001817061745</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.724667119979858</v>
+        <v>2.743839645385742</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3378083392950943</v>
+        <v>0.2156797051281601</v>
       </c>
       <c r="C19" t="n">
-        <v>0.005274724960327148</v>
+        <v>0.006572723388671875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0005025952635163662</v>
+        <v>0.002841272741592453</v>
       </c>
       <c r="E19" t="n">
         <v>0.1</v>
@@ -10098,42 +10098,42 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0.8258544272628778</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.006554888638700961</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2211357116699219</v>
+        <v>0.4248929023742676</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01344810757426153</v>
+        <v>0.03488692884730428</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004402637481689453</v>
+        <v>0.004226112365722656</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0006160547117754282</v>
+        <v>0.0003819191966926157</v>
       </c>
       <c r="E20" t="n">
         <v>0.1</v>
@@ -10156,42 +10156,42 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0.8230276765488032</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.01442426016793293</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.231485748291016</v>
+        <v>3.307419919967651</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09874725791095139</v>
+        <v>0.2779432697589937</v>
       </c>
       <c r="C21" t="n">
-        <v>0.005667877197265625</v>
+        <v>0.006209373474121094</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001143253412355752</v>
+        <v>0.002945698153547341</v>
       </c>
       <c r="E21" t="n">
         <v>0.1</v>
@@ -10214,25 +10214,25 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0.837043238451689</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.0140289520849127</v>
       </c>
       <c r="R21" t="n">
         <v>1</v>
@@ -10240,16 +10240,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3892970561981201</v>
+        <v>0.78543062210083</v>
       </c>
       <c r="B22" t="n">
-        <v>0.009432842614677318</v>
+        <v>0.1285924831753038</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004415035247802734</v>
+        <v>0.0055999755859375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0003722193727973537</v>
+        <v>0.0008776498204584749</v>
       </c>
       <c r="E22" t="n">
         <v>0.1</v>
@@ -10272,42 +10272,42 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0.8174431202600217</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.01215010756949087</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.488258266448975</v>
+        <v>5.332302761077881</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4477520247147929</v>
+        <v>0.607511689871734</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005164194107055664</v>
+        <v>0.006137275695800781</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0002609240294169344</v>
+        <v>0.001099522699208124</v>
       </c>
       <c r="E23" t="n">
         <v>0.1</v>
@@ -10330,42 +10330,42 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0.8117896188318724</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.02725440795651051</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.3950511455535889</v>
+        <v>0.8410661697387696</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02671847547416273</v>
+        <v>0.1168395832960546</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004832172393798828</v>
+        <v>0.005061483383178711</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0007626578973756498</v>
+        <v>0.001507773960264632</v>
       </c>
       <c r="E24" t="n">
         <v>0.1</v>
@@ -10388,42 +10388,42 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0.7902097902097902</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0.8174135723431497</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.02348223187165564</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.170387935638428</v>
+        <v>6.882714748382568</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09721657611981852</v>
+        <v>0.4567538723302216</v>
       </c>
       <c r="C25" t="n">
-        <v>0.005866098403930664</v>
+        <v>0.006633090972900391</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00111794140120275</v>
+        <v>0.003281460937145526</v>
       </c>
       <c r="E25" t="n">
         <v>0.1</v>
@@ -10446,42 +10446,42 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0.8356347877474637</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.0184616715086574</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2231451511383057</v>
+        <v>0.6317144870758057</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01028733361061927</v>
+        <v>0.04963330374646774</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004168510437011719</v>
+        <v>0.005417108535766602</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0003740351519636346</v>
+        <v>0.00174459442133166</v>
       </c>
       <c r="E26" t="n">
         <v>0.1</v>
@@ -10504,42 +10504,42 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0.8145671230178273</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>0.01620471506295068</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.557092094421387</v>
+        <v>4.43177433013916</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2359614548846886</v>
+        <v>0.4540159350335412</v>
       </c>
       <c r="C27" t="n">
-        <v>0.005808973312377929</v>
+        <v>0.006152915954589844</v>
       </c>
       <c r="D27" t="n">
-        <v>0.000738866071431923</v>
+        <v>0.001454082607649082</v>
       </c>
       <c r="E27" t="n">
         <v>0.1</v>
@@ -10562,42 +10562,42 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0.817393873731902</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.009308557850182123</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.2205078601837158</v>
+        <v>0.6499312877655029</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01140045818780994</v>
+        <v>0.03751289124409678</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00412149429321289</v>
+        <v>0.004507637023925782</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0003178151818046214</v>
+        <v>0.0002982853537754288</v>
       </c>
       <c r="E28" t="n">
         <v>0.1</v>
@@ -10620,42 +10620,42 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0.8089530188121739</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.02745359626663252</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.29622917175293</v>
+        <v>5.540172481536866</v>
       </c>
       <c r="B29" t="n">
-        <v>0.08028174712228001</v>
+        <v>0.5281430504637687</v>
       </c>
       <c r="C29" t="n">
-        <v>0.005247783660888672</v>
+        <v>0.00795884132385254</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0006801178785638975</v>
+        <v>0.005579072157820019</v>
       </c>
       <c r="E29" t="n">
         <v>0.1</v>
@@ -10678,42 +10678,42 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0.8187924751305033</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.01078139563692523</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4144733905792236</v>
+        <v>1.296289968490601</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03373572888209279</v>
+        <v>0.07973703780946204</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004173660278320312</v>
+        <v>0.005443525314331055</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001657109360441852</v>
+        <v>0.0004941173462316577</v>
       </c>
       <c r="E30" t="n">
         <v>0.1</v>
@@ -10736,42 +10736,42 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0.7991332611050921</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.02474810076376751</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.40603461265564</v>
+        <v>7.662507247924805</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2444550790598887</v>
+        <v>0.17215066056134</v>
       </c>
       <c r="C31" t="n">
-        <v>0.003897476196289063</v>
+        <v>0.005324172973632813</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0009295453264045432</v>
+        <v>0.0003905274608863747</v>
       </c>
       <c r="E31" t="n">
         <v>0.1</v>
@@ -10794,42 +10794,42 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0.8047572146163695</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.01065545570981617</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3908119678497314</v>
+        <v>1.417961883544922</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01841857006458894</v>
+        <v>0.1428366372100346</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005478668212890625</v>
+        <v>0.006241893768310547</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002541943546131004</v>
+        <v>0.002326515608659055</v>
       </c>
       <c r="E32" t="n">
         <v>0.1</v>
@@ -10852,42 +10852,42 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0.7902097902097902</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0.8118093174431202</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>0.01944776758837698</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.821315717697144</v>
+        <v>7.582989978790283</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04892649464718569</v>
+        <v>0.3149087476546085</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002837944030761719</v>
+        <v>0.003483438491821289</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0004009881670294328</v>
+        <v>0.0001607216123843963</v>
       </c>
       <c r="E33" t="n">
         <v>0.1</v>
@@ -10910,28 +10910,28 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0.8230079779375554</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.01395695609303528</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/machine_learning/labs/lab_08/grid_search_results.xlsx
+++ b/machine_learning/labs/lab_08/grid_search_results.xlsx
@@ -470,24 +470,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Случайный лес</t>
+          <t>SVM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8314291342460358</v>
+        <v>0.8229981286319316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8212290502793296</v>
+        <v>0.8156424581005587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Случайный лес</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8229981286319316</v>
+        <v>0.8328277356446371</v>
       </c>
       <c r="C4" t="n">
         <v>0.8156424581005587</v>
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.837043238451689</v>
+        <v>0.8398699891657639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8100558659217877</v>
+        <v>0.7988826815642458</v>
       </c>
     </row>
   </sheetData>
@@ -619,16 +619,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01703915596008301</v>
+        <v>0.01273670196533203</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003273030117198052</v>
+        <v>0.001121827903829629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007067680358886719</v>
+        <v>0.004934358596801758</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002895107037979281</v>
+        <v>0.0005278564813181592</v>
       </c>
       <c r="E2" t="n">
         <v>0.1</v>
@@ -683,16 +683,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01929268836975098</v>
+        <v>0.01178216934204102</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008614436678654653</v>
+        <v>0.0007498017096272472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008627891540527344</v>
+        <v>0.004476356506347656</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006590775509261609</v>
+        <v>0.0004412563412556163</v>
       </c>
       <c r="E3" t="n">
         <v>0.1</v>
@@ -747,16 +747,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.04794869422912598</v>
+        <v>0.05253391265869141</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008513648916830072</v>
+        <v>0.02171968698069641</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007007598876953125</v>
+        <v>0.007246160507202148</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001515172156106174</v>
+        <v>0.002331373349722762</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
@@ -811,16 +811,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02080526351928711</v>
+        <v>0.02502431869506836</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003875572314977514</v>
+        <v>0.01217485115794767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00588068962097168</v>
+        <v>0.00763859748840332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001093284605825514</v>
+        <v>0.002146254995852515</v>
       </c>
       <c r="E5" t="n">
         <v>0.1</v>
@@ -875,16 +875,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5123631477355957</v>
+        <v>0.8341049671173095</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04397310282108922</v>
+        <v>0.09785586630870698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01718082427978516</v>
+        <v>0.02434000968933105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00200199256385104</v>
+        <v>0.01107261321805322</v>
       </c>
       <c r="E6" t="n">
         <v>0.1</v>
@@ -939,16 +939,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1404029369354248</v>
+        <v>0.2648891925811768</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01185959099569847</v>
+        <v>0.04331881495271569</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01692938804626465</v>
+        <v>0.01781034469604492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002234970498023619</v>
+        <v>0.002772762887804638</v>
       </c>
       <c r="E7" t="n">
         <v>0.1</v>
@@ -1003,16 +1003,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01442036628723145</v>
+        <v>0.02049689292907715</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002374569720165012</v>
+        <v>0.01135623555034593</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005746316909790039</v>
+        <v>0.01026716232299805</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001124228577420804</v>
+        <v>0.004669650418244745</v>
       </c>
       <c r="E8" t="n">
         <v>0.1</v>
@@ -1067,16 +1067,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01995906829833984</v>
+        <v>0.01725568771362305</v>
       </c>
       <c r="B9" t="n">
-        <v>0.007279765953547307</v>
+        <v>0.006131602480387152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01363053321838379</v>
+        <v>0.006777620315551758</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007784198337973653</v>
+        <v>0.002497551285287821</v>
       </c>
       <c r="E9" t="n">
         <v>0.1</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4790103435516357</v>
+        <v>0.5087429523468018</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08418865420828692</v>
+        <v>0.1081690122328195</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01450142860412598</v>
+        <v>0.0260441780090332</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003941514209310779</v>
+        <v>0.01373364495209013</v>
       </c>
       <c r="E10" t="n">
         <v>0.1</v>
@@ -1190,21 +1190,21 @@
         <v>0.04232412230152331</v>
       </c>
       <c r="R10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03867573738098144</v>
+        <v>0.0474609375</v>
       </c>
       <c r="B11" t="n">
-        <v>0.008025682987940035</v>
+        <v>0.01950715431970451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01307439804077148</v>
+        <v>0.01556396484375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004847959894097948</v>
+        <v>0.006680725981424095</v>
       </c>
       <c r="E11" t="n">
         <v>0.1</v>
@@ -1259,16 +1259,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.957475328445435</v>
+        <v>9.754085922241211</v>
       </c>
       <c r="B12" t="n">
-        <v>3.392939789164199</v>
+        <v>3.54338939565877</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02773776054382324</v>
+        <v>0.02770223617553711</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00909932151259063</v>
+        <v>0.006116274578461035</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
@@ -1323,16 +1323,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4095721244812012</v>
+        <v>0.4288061141967773</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1100111816673276</v>
+        <v>0.1047246940929613</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02336311340332031</v>
+        <v>0.02900986671447754</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009326890054792335</v>
+        <v>0.01127912776490488</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
@@ -1387,16 +1387,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03587150573730469</v>
+        <v>0.03715090751647949</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003982012800536796</v>
+        <v>0.01597190921542707</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01829190254211426</v>
+        <v>0.01004958152770996</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01229848634847335</v>
+        <v>0.003920185551430175</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1451,16 +1451,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02209620475769043</v>
+        <v>0.02298703193664551</v>
       </c>
       <c r="B15" t="n">
-        <v>0.007474002180497548</v>
+        <v>0.01145618514964281</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008479070663452149</v>
+        <v>0.008442068099975586</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002872596210796177</v>
+        <v>0.001555146407497208</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1515,16 +1515,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2937754154205322</v>
+        <v>0.279279899597168</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09295465006362953</v>
+        <v>0.03424326581795745</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01419157981872559</v>
+        <v>0.01139497756958008</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005284447829094424</v>
+        <v>0.003813667375895722</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1579,16 +1579,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.05827531814575195</v>
+        <v>0.04022636413574219</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03054239107727738</v>
+        <v>0.007424956315398131</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01840720176696777</v>
+        <v>0.01181273460388184</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004539877461757743</v>
+        <v>0.001039442242031286</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.8531468531468531</v>
+        <v>0.8601398601398601</v>
       </c>
       <c r="L17" t="n">
         <v>0.8251748251748252</v>
@@ -1632,27 +1632,27 @@
         <v>0.8380281690140845</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8243967300305328</v>
+        <v>0.8257953314291342</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02382036595244125</v>
+        <v>0.02560574354315448</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.268102359771728</v>
+        <v>1.255770921707153</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05862659350422877</v>
+        <v>0.1230610505831364</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03135585784912109</v>
+        <v>0.03290371894836426</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0145746029195558</v>
+        <v>0.01852607980393516</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1707,16 +1707,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2875335693359375</v>
+        <v>0.2281495571136475</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06151708980920371</v>
+        <v>0.07860115340817622</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03281397819519043</v>
+        <v>0.0238131046295166</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01104382201397341</v>
+        <v>0.004864170701840425</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1771,16 +1771,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.04288911819458008</v>
+        <v>0.02814197540283203</v>
       </c>
       <c r="B20" t="n">
-        <v>0.005063250800330601</v>
+        <v>0.002536411712212658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0149848461151123</v>
+        <v>0.01358556747436523</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002733371591890811</v>
+        <v>0.002204386006202357</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1835,16 +1835,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.02790298461914063</v>
+        <v>0.02730717658996582</v>
       </c>
       <c r="B21" t="n">
-        <v>0.004520295370372686</v>
+        <v>0.004915008006202147</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01475753784179687</v>
+        <v>0.01136512756347656</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004304261469168557</v>
+        <v>0.001867212783496822</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1899,16 +1899,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9619048595428467</v>
+        <v>1.126805639266968</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04095274863165142</v>
+        <v>0.1473274563940014</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02164044380187988</v>
+        <v>0.02967591285705566</v>
       </c>
       <c r="D22" t="n">
-        <v>0.008627173601929954</v>
+        <v>0.01362183515859156</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.07287302017211914</v>
+        <v>0.09817657470703126</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02135844435979074</v>
+        <v>0.02265512395284522</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01848282814025879</v>
+        <v>0.02979650497436524</v>
       </c>
       <c r="D23" t="n">
-        <v>0.008496101259453994</v>
+        <v>0.01535160001402441</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -2027,16 +2027,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>20.27140822410583</v>
+        <v>21.53766551017761</v>
       </c>
       <c r="B24" t="n">
-        <v>3.047357154073624</v>
+        <v>4.538665491334855</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02194256782531738</v>
+        <v>0.0306879997253418</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0109674890321065</v>
+        <v>0.01948264585259027</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -2091,16 +2091,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.6731324195861816</v>
+        <v>0.8079524517059327</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03789035813085674</v>
+        <v>0.1173599634841173</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01841616630554199</v>
+        <v>0.0294245719909668</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002716980682327913</v>
+        <v>0.006840226908018966</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1143515586853027</v>
+        <v>0.1070140361785889</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03923544969452166</v>
+        <v>0.06029298243845214</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01250920295715332</v>
+        <v>0.01747512817382812</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008008918251379008</v>
+        <v>0.004915531409723391</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -2219,16 +2219,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.03199033737182617</v>
+        <v>0.03953561782836914</v>
       </c>
       <c r="B27" t="n">
-        <v>0.007344967746010387</v>
+        <v>0.008523720696864846</v>
       </c>
       <c r="C27" t="n">
-        <v>0.009955739974975586</v>
+        <v>0.012847900390625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002521125379052579</v>
+        <v>0.002091859749315164</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -2283,16 +2283,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.22862753868103</v>
+        <v>2.089455461502075</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7388987535487239</v>
+        <v>0.5554105812318829</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02133145332336426</v>
+        <v>0.02036499977111816</v>
       </c>
       <c r="D28" t="n">
-        <v>0.006162726281963088</v>
+        <v>0.005952547088780549</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -2347,16 +2347,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.09949698448181152</v>
+        <v>0.1061503410339355</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03950290068168737</v>
+        <v>0.009543250662012046</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01392836570739746</v>
+        <v>0.01877079010009765</v>
       </c>
       <c r="D29" t="n">
-        <v>0.005358845674209865</v>
+        <v>0.007668777566947103</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -2411,16 +2411,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.32930097579956</v>
+        <v>4.785493612289429</v>
       </c>
       <c r="B30" t="n">
-        <v>1.211140324831153</v>
+        <v>1.799724126984364</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04149289131164551</v>
+        <v>0.02673749923706055</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01352180728765943</v>
+        <v>0.002494993213283656</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2449,25 +2449,25 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7622377622377622</v>
       </c>
       <c r="L30" t="n">
         <v>0.7412587412587412</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7605633802816901</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7112676056338029</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="O30" t="n">
         <v>0.7887323943661971</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7542105781542401</v>
+        <v>0.7528119767556387</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02634224362986855</v>
+        <v>0.02860808090992603</v>
       </c>
       <c r="R30" t="n">
         <v>36</v>
@@ -2475,16 +2475,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.3164121150970459</v>
+        <v>0.3055013179779053</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04468870548060265</v>
+        <v>0.03118620965795382</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02858066558837891</v>
+        <v>0.02028603553771973</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003853565546302548</v>
+        <v>0.00438460521444652</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2513,7 +2513,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.8111888111888111</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L31" t="n">
         <v>0.8391608391608392</v>
@@ -2528,27 +2528,27 @@
         <v>0.8380281690140845</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8103516202107752</v>
+        <v>0.8131488230079779</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.02696802111767347</v>
+        <v>0.0276270722815341</v>
       </c>
       <c r="R31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.04631710052490234</v>
+        <v>0.02418808937072754</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02027567732095322</v>
+        <v>0.001147002910812787</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01659655570983887</v>
+        <v>0.008424711227416993</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006649698329197325</v>
+        <v>0.001065801392010938</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2603,16 +2603,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.0263343334197998</v>
+        <v>0.01905093193054199</v>
       </c>
       <c r="B33" t="n">
-        <v>0.009148055423087815</v>
+        <v>0.001440698666229977</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01155252456665039</v>
+        <v>0.008045434951782227</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003872216815037456</v>
+        <v>0.001499693230175114</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -2667,16 +2667,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.110765886306763</v>
+        <v>1.809715700149536</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4536662984283061</v>
+        <v>0.4616184611567665</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02204213142395019</v>
+        <v>0.01793737411499024</v>
       </c>
       <c r="D34" t="n">
-        <v>0.009096674040644024</v>
+        <v>0.006858734279361389</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -2731,16 +2731,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.0904416561126709</v>
+        <v>0.07306194305419922</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0211521112144245</v>
+        <v>0.01622869362594483</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01678571701049805</v>
+        <v>0.0128026008605957</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002893059710936756</v>
+        <v>0.002575972108386825</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -2795,16 +2795,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18.51182813644409</v>
+        <v>24.2292875289917</v>
       </c>
       <c r="B36" t="n">
-        <v>2.004291851807555</v>
+        <v>2.631559142161353</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00716242790222168</v>
+        <v>0.005957984924316406</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001807768810424404</v>
+        <v>0.001150050965081883</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -2859,16 +2859,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.7086989402771</v>
+        <v>1.550062894821167</v>
       </c>
       <c r="B37" t="n">
-        <v>0.364876995681309</v>
+        <v>0.1293041582676534</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0295997142791748</v>
+        <v>0.03332490921020508</v>
       </c>
       <c r="D37" t="n">
-        <v>0.007655621784344355</v>
+        <v>0.007034439172651536</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -3034,16 +3034,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07346081733703613</v>
+        <v>0.05740523338317871</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01800251292836285</v>
+        <v>0.02074919245359838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01534576416015625</v>
+        <v>0.02197079658508301</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003275579714397778</v>
+        <v>0.01290197797313457</v>
       </c>
       <c r="E2" t="n">
         <v>0.1</v>
@@ -3098,16 +3098,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.05374341011047364</v>
+        <v>0.07322406768798828</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01088277360442921</v>
+        <v>0.01714968600626262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01588163375854492</v>
+        <v>0.02813053131103516</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003125346283654647</v>
+        <v>0.01452506546970148</v>
       </c>
       <c r="E3" t="n">
         <v>0.1</v>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2969259262084961</v>
+        <v>0.3133650779724121</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08324865893195026</v>
+        <v>0.06586266535677041</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1044406414031982</v>
+        <v>0.09043436050415039</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0166175727670483</v>
+        <v>0.02020029901358199</v>
       </c>
       <c r="E4" t="n">
         <v>0.1</v>
@@ -3226,16 +3226,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.30638108253479</v>
+        <v>0.2484966278076172</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06729155494120116</v>
+        <v>0.03814340046149014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05273656845092774</v>
+        <v>0.03120169639587402</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0171961149454062</v>
+        <v>0.005762637407147034</v>
       </c>
       <c r="E5" t="n">
         <v>0.1</v>
@@ -3290,16 +3290,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.09832162857055664</v>
+        <v>0.07309198379516602</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02283234268187808</v>
+        <v>0.04679469161486807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01805615425109863</v>
+        <v>0.009851217269897461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009997970784075823</v>
+        <v>0.004570937564510427</v>
       </c>
       <c r="E6" t="n">
         <v>0.1</v>
@@ -3354,16 +3354,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.05447330474853516</v>
+        <v>0.02514867782592773</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01086338990302126</v>
+        <v>0.006384526546917578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01583652496337891</v>
+        <v>0.009124040603637695</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005532507560241607</v>
+        <v>0.00230465247359945</v>
       </c>
       <c r="E7" t="n">
         <v>0.1</v>
@@ -3418,16 +3418,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1599667549133301</v>
+        <v>0.2400999069213867</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04737872045444416</v>
+        <v>0.05982709303695111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.013427734375</v>
+        <v>0.01945419311523438</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003628849981257294</v>
+        <v>0.006261343486816526</v>
       </c>
       <c r="E8" t="n">
         <v>0.1</v>
@@ -3482,16 +3482,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1622718334197998</v>
+        <v>0.1903184413909912</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02740758254495024</v>
+        <v>0.04914736491859741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02223367691040039</v>
+        <v>0.01643786430358887</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006147294363769765</v>
+        <v>0.006694800686628821</v>
       </c>
       <c r="E9" t="n">
         <v>0.1</v>
@@ -3546,16 +3546,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.04264945983886718</v>
+        <v>0.04397025108337402</v>
       </c>
       <c r="B10" t="n">
-        <v>0.009928660089233666</v>
+        <v>0.01094125246466082</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01520962715148926</v>
+        <v>0.01548075675964355</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005477159866638911</v>
+        <v>0.00390172631303731</v>
       </c>
       <c r="E10" t="n">
         <v>0.1</v>
@@ -3610,16 +3610,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.05147442817687988</v>
+        <v>0.03159770965576172</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01471811329319253</v>
+        <v>0.004016723517266798</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02581000328063965</v>
+        <v>0.01530418395996094</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008880856169057358</v>
+        <v>0.004601605217431237</v>
       </c>
       <c r="E11" t="n">
         <v>0.1</v>
@@ -3674,16 +3674,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2715997219085693</v>
+        <v>0.2577888488769531</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08507896898530622</v>
+        <v>0.05123122128864935</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07851452827453613</v>
+        <v>0.07820601463317871</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02388658757295798</v>
+        <v>0.02214617430177499</v>
       </c>
       <c r="E12" t="n">
         <v>0.1</v>
@@ -3738,16 +3738,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2168123245239258</v>
+        <v>0.2872059345245361</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04413159127859111</v>
+        <v>0.04459864385235781</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1005650520324707</v>
+        <v>0.07140493392944336</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03897615084963669</v>
+        <v>0.01882106615070178</v>
       </c>
       <c r="E13" t="n">
         <v>0.1</v>
@@ -3802,16 +3802,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.06182847023010254</v>
+        <v>0.06333932876586915</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01861019595067509</v>
+        <v>0.01730403531059253</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01510004997253418</v>
+        <v>0.0133880615234375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006200259533424975</v>
+        <v>0.002895047064761657</v>
       </c>
       <c r="E14" t="n">
         <v>0.1</v>
@@ -3866,16 +3866,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.04154610633850098</v>
+        <v>0.0423037052154541</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01189816064998174</v>
+        <v>0.01414485233670946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01274833679199219</v>
+        <v>0.01276931762695313</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00257551315607976</v>
+        <v>0.004108182876822855</v>
       </c>
       <c r="E15" t="n">
         <v>0.1</v>
@@ -3930,16 +3930,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2618557453155518</v>
+        <v>0.2368636608123779</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05663666426948028</v>
+        <v>0.03811924300740669</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01830182075500488</v>
+        <v>0.01191620826721191</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007121113523522763</v>
+        <v>0.004123028501567898</v>
       </c>
       <c r="E16" t="n">
         <v>0.1</v>
@@ -3994,16 +3994,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2161958694458008</v>
+        <v>0.202412748336792</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09095964787510392</v>
+        <v>0.06554788849830628</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02088265419006348</v>
+        <v>0.01703362464904785</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01178142319958622</v>
+        <v>0.002681235519917995</v>
       </c>
       <c r="E17" t="n">
         <v>0.1</v>
@@ -4058,16 +4058,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07234458923339844</v>
+        <v>0.05948290824890137</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02206731058034352</v>
+        <v>0.0154672375246182</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03085322380065918</v>
+        <v>0.02335433959960937</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01119624173002791</v>
+        <v>0.006312160817693247</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -4122,16 +4122,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.03824830055236816</v>
+        <v>0.03949694633483887</v>
       </c>
       <c r="B19" t="n">
-        <v>0.007847485316054703</v>
+        <v>0.01159707696467109</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01431727409362793</v>
+        <v>0.01258745193481445</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003746273623365945</v>
+        <v>0.005051873187151221</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -4186,16 +4186,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2098266124725342</v>
+        <v>0.1416000366210937</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08768759137201898</v>
+        <v>0.02887418518972207</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05729775428771973</v>
+        <v>0.04007344245910645</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02741561766141079</v>
+        <v>0.02099977514866075</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -4250,16 +4250,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1170624256134033</v>
+        <v>0.1384830474853516</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03040274716003512</v>
+        <v>0.02488964080367669</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02876653671264649</v>
+        <v>0.03097167015075684</v>
       </c>
       <c r="D21" t="n">
-        <v>0.007775876292405764</v>
+        <v>0.02080161203873169</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4314,16 +4314,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2173095703125</v>
+        <v>0.2245877742767334</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05623662203830511</v>
+        <v>0.0696991088378113</v>
       </c>
       <c r="C22" t="n">
-        <v>0.008170461654663086</v>
+        <v>0.009716320037841796</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001297965666287857</v>
+        <v>0.005208535301172604</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -4378,16 +4378,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.04246296882629395</v>
+        <v>0.03753237724304199</v>
       </c>
       <c r="B23" t="n">
-        <v>0.008182208495229768</v>
+        <v>0.01037219079218966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0103485107421875</v>
+        <v>0.009473276138305665</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003810211582343191</v>
+        <v>0.003466154051322503</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4442,16 +4442,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.3648327350616455</v>
+        <v>0.3448029041290283</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08273846536177051</v>
+        <v>0.01743938755499394</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0124204158782959</v>
+        <v>0.01184477806091309</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001758018248159629</v>
+        <v>0.005402224372148705</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -4506,16 +4506,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.08867855072021484</v>
+        <v>0.09849820137023926</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03241796638639131</v>
+        <v>0.05443823426476941</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01161918640136719</v>
+        <v>0.009702062606811524</v>
       </c>
       <c r="D25" t="n">
-        <v>0.004599393633159045</v>
+        <v>0.001958682854047492</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4570,16 +4570,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.04562554359436035</v>
+        <v>0.02619881629943848</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01516286410095492</v>
+        <v>0.003241466575137786</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01204094886779785</v>
+        <v>0.008263683319091797</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002718598856453256</v>
+        <v>0.001751189618787974</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4634,16 +4634,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0264686107635498</v>
+        <v>0.02628774642944336</v>
       </c>
       <c r="B27" t="n">
-        <v>0.002293207027109724</v>
+        <v>0.006432695928260243</v>
       </c>
       <c r="C27" t="n">
-        <v>0.009299516677856445</v>
+        <v>0.01103415489196777</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001161811167320576</v>
+        <v>0.002243515482868613</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4698,16 +4698,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1391372680664062</v>
+        <v>0.09763135910034179</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06308160077488749</v>
+        <v>0.03945104950665118</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04494357109069824</v>
+        <v>0.03938584327697754</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01237577363804108</v>
+        <v>0.01546530680148899</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -4762,16 +4762,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1295916557312012</v>
+        <v>0.1410199642181396</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04825016130399482</v>
+        <v>0.03094712595056472</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05185542106628418</v>
+        <v>0.04343099594116211</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01156580437335655</v>
+        <v>0.007784044391103096</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4826,16 +4826,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1969847679138184</v>
+        <v>0.2167448043823242</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0377041593069827</v>
+        <v>0.07695144319993749</v>
       </c>
       <c r="C30" t="n">
-        <v>0.009200525283813477</v>
+        <v>0.008477878570556641</v>
       </c>
       <c r="D30" t="n">
-        <v>0.006089853557486689</v>
+        <v>0.003006371041559079</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -4890,16 +4890,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.04140324592590332</v>
+        <v>0.03553953170776367</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01897973813488625</v>
+        <v>0.01193599641112592</v>
       </c>
       <c r="C31" t="n">
-        <v>0.009203004837036132</v>
+        <v>0.008206987380981445</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003087860417904665</v>
+        <v>0.002221496967801675</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -4954,16 +4954,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.341350269317627</v>
+        <v>0.26963210105896</v>
       </c>
       <c r="B32" t="n">
-        <v>0.07970195436307238</v>
+        <v>0.07180611497106619</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01099281311035156</v>
+        <v>0.01076731681823731</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00193182599478481</v>
+        <v>0.001870754838617107</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -5018,16 +5018,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.07802753448486328</v>
+        <v>0.06910147666931152</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02533352909090188</v>
+        <v>0.02824786583229198</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01084837913513184</v>
+        <v>0.01022047996520996</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002133473867811786</v>
+        <v>0.001968735346523469</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -5082,16 +5082,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.03907642364501953</v>
+        <v>0.03294134140014648</v>
       </c>
       <c r="B34" t="n">
-        <v>0.007400064807542462</v>
+        <v>0.005593926347102035</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01021041870117187</v>
+        <v>0.008256244659423827</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002088643057662595</v>
+        <v>0.00160085096635558</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -5146,16 +5146,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.05238299369812012</v>
+        <v>0.03193826675415039</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01588814246924575</v>
+        <v>0.002358256734036454</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01328139305114746</v>
+        <v>0.009692811965942382</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002791270350391218</v>
+        <v>0.001357006828747689</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -5210,16 +5210,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1143199443817139</v>
+        <v>0.1062227725982666</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0112509009326034</v>
+        <v>0.02573176950363079</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03317131996154785</v>
+        <v>0.0325838565826416</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01443446886223422</v>
+        <v>0.007741193447807171</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -5274,16 +5274,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.1059735774993897</v>
+        <v>0.09826574325561524</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02928030844239394</v>
+        <v>0.01375202317056914</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02881016731262207</v>
+        <v>0.0226292610168457</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00621386067958598</v>
+        <v>0.003185714391894653</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -5338,16 +5338,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.630878496170044</v>
+        <v>2.102404499053955</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8064986754759965</v>
+        <v>1.537022172919049</v>
       </c>
       <c r="C38" t="n">
-        <v>0.005124616622924805</v>
+        <v>0.004021215438842774</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001438658264544324</v>
+        <v>0.0009097208527696025</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -5402,16 +5402,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1804500579833984</v>
+        <v>0.2251993656158447</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04317117516801233</v>
+        <v>0.1697090732941525</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006677484512329102</v>
+        <v>0.0118736743927002</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001270335988983712</v>
+        <v>0.01300589672496676</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -5466,16 +5466,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.814044952392578</v>
+        <v>2.706072330474854</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7623116895125465</v>
+        <v>1.341492354386364</v>
       </c>
       <c r="C40" t="n">
-        <v>0.008400344848632812</v>
+        <v>0.01545867919921875</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00328359369555572</v>
+        <v>0.01673034584450814</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -5530,16 +5530,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1091905117034912</v>
+        <v>0.1155536651611328</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02963948950318701</v>
+        <v>0.04075811617932718</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0101470947265625</v>
+        <v>0.007988309860229493</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001495538671837622</v>
+        <v>0.0007011619333697482</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -5594,16 +5594,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.03591661453247071</v>
+        <v>0.03695569038391113</v>
       </c>
       <c r="B42" t="n">
-        <v>0.006193811009431584</v>
+        <v>0.0131214202694516</v>
       </c>
       <c r="C42" t="n">
-        <v>0.008886051177978516</v>
+        <v>0.008920431137084961</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001480500756662673</v>
+        <v>0.003042161594903701</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -5658,16 +5658,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.0305727481842041</v>
+        <v>0.02083706855773926</v>
       </c>
       <c r="B43" t="n">
-        <v>0.008699799116103349</v>
+        <v>0.001343896912986425</v>
       </c>
       <c r="C43" t="n">
-        <v>0.009565305709838868</v>
+        <v>0.006768417358398437</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0006945006820859191</v>
+        <v>0.0006699777477507644</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -5722,16 +5722,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.07273273468017578</v>
+        <v>0.08537201881408692</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02013674284480913</v>
+        <v>0.01979399830364661</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0296682357788086</v>
+        <v>0.02412896156311035</v>
       </c>
       <c r="D44" t="n">
-        <v>0.006546948212338012</v>
+        <v>0.0008867322488107647</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -5786,16 +5786,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.07938799858093262</v>
+        <v>0.05772628784179688</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02185015307144124</v>
+        <v>0.01704611061282025</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02316899299621582</v>
+        <v>0.01920924186706543</v>
       </c>
       <c r="D45" t="n">
-        <v>0.002054325035922374</v>
+        <v>0.001549390857500196</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -5850,16 +5850,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.456782245635986</v>
+        <v>2.319288444519043</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7186675786981281</v>
+        <v>1.349270788213937</v>
       </c>
       <c r="C46" t="n">
-        <v>0.004566049575805664</v>
+        <v>0.003773069381713867</v>
       </c>
       <c r="D46" t="n">
-        <v>0.000926896026471807</v>
+        <v>0.0007751175028346699</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -5914,16 +5914,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1514145851135254</v>
+        <v>0.1260149478912354</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02995597304516226</v>
+        <v>0.02502830404038235</v>
       </c>
       <c r="C47" t="n">
-        <v>0.005321216583251953</v>
+        <v>0.00500335693359375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.000835217469073857</v>
+        <v>0.0002428927511955666</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -5978,16 +5978,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.624966096878052</v>
+        <v>2.754851961135864</v>
       </c>
       <c r="B48" t="n">
-        <v>0.679228973931336</v>
+        <v>0.9890515714998394</v>
       </c>
       <c r="C48" t="n">
-        <v>0.008118629455566406</v>
+        <v>0.01310172080993652</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004289956043646524</v>
+        <v>0.0142666182250472</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -6042,16 +6042,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.09467225074768067</v>
+        <v>0.3352678298950195</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02129981307195718</v>
+        <v>0.3907809462313447</v>
       </c>
       <c r="C49" t="n">
-        <v>0.009613132476806641</v>
+        <v>0.02079191207885742</v>
       </c>
       <c r="D49" t="n">
-        <v>0.002566038041227222</v>
+        <v>0.02703693283823174</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -6217,16 +6217,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.332031774520874</v>
+        <v>0.2833131313323974</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01397299028092411</v>
+        <v>0.01240247789914145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.017352294921875</v>
+        <v>0.01334505081176758</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002585567386443961</v>
+        <v>0.001108262758636134</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
@@ -6247,25 +6247,25 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.8531468531468531</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8380281690140845</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P2" t="n">
-        <v>0.81312912439673</v>
+        <v>0.8145474244065793</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03264380847179085</v>
+        <v>0.02207535484291925</v>
       </c>
       <c r="R2" t="n">
         <v>41</v>
@@ -6273,16 +6273,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5627477645874024</v>
+        <v>0.4562574863433838</v>
       </c>
       <c r="B3" t="n">
-        <v>0.12510725926749</v>
+        <v>0.008089766807883562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02022805213928223</v>
+        <v>0.01569080352783203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007008371233038366</v>
+        <v>0.002237295484368467</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
@@ -6303,25 +6303,25 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8111888111888111</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M3" t="n">
         <v>0.7887323943661971</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O3" t="n">
         <v>0.8169014084507042</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8019304639022948</v>
+        <v>0.8046981187826259</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01727704092315084</v>
+        <v>0.03042986607867304</v>
       </c>
       <c r="R3" t="n">
         <v>48</v>
@@ -6329,16 +6329,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.761696720123291</v>
+        <v>0.5727216720581054</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1716148418406757</v>
+        <v>0.0324677867063273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03089151382446289</v>
+        <v>0.02263221740722656</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008841318427504038</v>
+        <v>0.001197053977376306</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
@@ -6362,39 +6362,39 @@
         <v>0.8251748251748252</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N4" t="n">
         <v>0.795774647887324</v>
       </c>
       <c r="O4" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8103614695163991</v>
+        <v>0.8145769723234512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01513711708417211</v>
+        <v>0.01549798176835694</v>
       </c>
       <c r="R4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.992261266708374</v>
+        <v>0.8885767459869385</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07453423542939509</v>
+        <v>0.04439042177940963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0312565803527832</v>
+        <v>0.02538223266601563</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002860017657887431</v>
+        <v>0.003260262705001116</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
@@ -6415,42 +6415,42 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8089431695065498</v>
+        <v>0.8089333202009259</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02321750222334517</v>
+        <v>0.02644576893177817</v>
       </c>
       <c r="R5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3070003032684326</v>
+        <v>0.2865979194641113</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01306906298859402</v>
+        <v>0.004684604603238359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0147150993347168</v>
+        <v>0.01280012130737305</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0009876339648828138</v>
+        <v>0.0006747478912423956</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
@@ -6471,42 +6471,42 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L6" t="n">
         <v>0.8391608391608392</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8258051807347583</v>
+        <v>0.8215699793164581</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0133576847887805</v>
+        <v>0.02250171681682998</v>
       </c>
       <c r="R6" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5874931335449218</v>
+        <v>0.4330697059631348</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08173119605258782</v>
+        <v>0.01168274618903408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02145309448242188</v>
+        <v>0.01406254768371582</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007322975518838115</v>
+        <v>0.001279458590152511</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
@@ -6527,42 +6527,42 @@
         </is>
       </c>
       <c r="K7" t="n">
+        <v>0.8391608391608392</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.8251748251748252</v>
       </c>
-      <c r="L7" t="n">
-        <v>0.8041958041958042</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8075642667191962</v>
+        <v>0.8215995272333301</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01777262373883704</v>
+        <v>0.02092528036756372</v>
       </c>
       <c r="R7" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6989880084991456</v>
+        <v>0.5658891677856446</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06738612502877606</v>
+        <v>0.01735928268545942</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02679309844970703</v>
+        <v>0.0225283145904541</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003010567880727359</v>
+        <v>0.001096601941574727</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
@@ -6589,36 +6589,36 @@
         <v>0.8321678321678322</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N8" t="n">
         <v>0.795774647887324</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8380281690140845</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P8" t="n">
-        <v>0.821589677927706</v>
+        <v>0.8201812272234807</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01849161949442684</v>
+        <v>0.01562233384583073</v>
       </c>
       <c r="R8" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.179042387008667</v>
+        <v>0.8365785598754882</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1452897221989808</v>
+        <v>0.01409202159891222</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02815742492675781</v>
+        <v>0.02392020225524902</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002924506011653085</v>
+        <v>0.001826736644919973</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
@@ -6639,42 +6639,42 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M9" t="n">
         <v>0.8169014084507042</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7816901408450704</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O9" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P9" t="n">
-        <v>0.817374175120654</v>
+        <v>0.825824879346006</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.019247030104723</v>
+        <v>0.0145592061269955</v>
       </c>
       <c r="R9" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3416436195373535</v>
+        <v>0.2862698554992676</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0567580153046274</v>
+        <v>0.01637228868133923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01416177749633789</v>
+        <v>0.01355319023132324</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001006774596370785</v>
+        <v>0.001251398590355094</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
@@ -6698,39 +6698,39 @@
         <v>0.8391608391608392</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N10" t="n">
         <v>0.8098591549295775</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8450704225352113</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8258150300403821</v>
+        <v>0.8244164286417808</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01656950649357178</v>
+        <v>0.01029097381930333</v>
       </c>
       <c r="R10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5529039859771728</v>
+        <v>0.4456528186798095</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1047825616997627</v>
+        <v>0.01509009636533361</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01992192268371582</v>
+        <v>0.01493210792541504</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00642560174416739</v>
+        <v>0.001429764754588586</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
@@ -6754,39 +6754,39 @@
         <v>0.8321678321678322</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M11" t="n">
         <v>0.8028169014084507</v>
       </c>
       <c r="N11" t="n">
-        <v>0.795774647887324</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O11" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P11" t="n">
-        <v>0.817374175120654</v>
+        <v>0.8173840244262781</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0152270583487567</v>
+        <v>0.01864701172585733</v>
       </c>
       <c r="R11" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6992349624633789</v>
+        <v>0.5444038391113282</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0512604242277985</v>
+        <v>0.009024873257263305</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03317008018493652</v>
+        <v>0.0224395751953125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01138013595353469</v>
+        <v>0.001770209643157612</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
@@ -6807,42 +6807,42 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O12" t="n">
         <v>0.823943661971831</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8243967300305328</v>
+        <v>0.8145572737122034</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01310606948799554</v>
+        <v>0.01859074634818043</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.063310575485229</v>
+        <v>2.684516668319702</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0761645257332606</v>
+        <v>0.02099140736788448</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03762669563293457</v>
+        <v>0.02420368194580078</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01287316619870619</v>
+        <v>0.001832574636950417</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
@@ -6866,39 +6866,39 @@
         <v>0.8321678321678322</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M13" t="n">
         <v>0.8169014084507042</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O13" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8159854230276766</v>
+        <v>0.8230178272431793</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01465329099460871</v>
+        <v>0.01232212298025648</v>
       </c>
       <c r="R13" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.3560238838195801</v>
+        <v>0.3051069736480713</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03934427884312283</v>
+        <v>0.05890500279913507</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01693196296691895</v>
+        <v>0.05075521469116211</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00146415225362081</v>
+        <v>0.04925190876905686</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
@@ -6919,42 +6919,42 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N14" t="n">
         <v>0.8028169014084507</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8173544765094061</v>
+        <v>0.8216093765389541</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01990881639307553</v>
+        <v>0.01330409700042411</v>
       </c>
       <c r="R14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.6140647411346436</v>
+        <v>2.151706218719482</v>
       </c>
       <c r="B15" t="n">
-        <v>0.12550757135887</v>
+        <v>0.1523941520424296</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02154378890991211</v>
+        <v>0.03550953865051269</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006135208566764622</v>
+        <v>0.03952951038809839</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
@@ -6975,42 +6975,42 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L15" t="n">
         <v>0.8251748251748252</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7816901408450704</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8131685216192258</v>
+        <v>0.8131586723136019</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01845972194666508</v>
+        <v>0.02057192001424875</v>
       </c>
       <c r="R15" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.6503341197967529</v>
+        <v>1.223604583740234</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04717189823718453</v>
+        <v>0.74442903098604</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02348675727844238</v>
+        <v>0.02156872749328613</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00113150325503526</v>
+        <v>0.0009725132757652847</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
@@ -7031,42 +7031,42 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M16" t="n">
+        <v>0.8028169014084507</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8028169014084507</v>
+      </c>
+      <c r="O16" t="n">
         <v>0.823943661971831</v>
       </c>
-      <c r="N16" t="n">
-        <v>0.795774647887324</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.8380281690140845</v>
-      </c>
       <c r="P16" t="n">
-        <v>0.8272136314389836</v>
+        <v>0.8201812272234807</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01731665353552887</v>
+        <v>0.01622780633270113</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.105645036697388</v>
+        <v>0.8315334796905518</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1237359175722837</v>
+        <v>0.04335214337983841</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03342046737670899</v>
+        <v>0.02581624984741211</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01210283694297118</v>
+        <v>0.00284953566327609</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
@@ -7093,36 +7093,36 @@
         <v>0.8321678321678322</v>
       </c>
       <c r="M17" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N17" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O17" t="n">
         <v>0.8450704225352113</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8244164286417807</v>
+        <v>0.8244164286417808</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01908051250623249</v>
+        <v>0.01687354799830721</v>
       </c>
       <c r="R17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3659709453582763</v>
+        <v>0.2741002082824707</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08028764447508108</v>
+        <v>0.01425027172968582</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0183349609375</v>
+        <v>0.01329317092895508</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0048571121229095</v>
+        <v>0.0009581745375163392</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -7148,39 +7148,39 @@
         <v>0.8461538461538461</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N18" t="n">
         <v>0.7816901408450704</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8187432286023835</v>
+        <v>0.8145474244065793</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02503060295244837</v>
+        <v>0.02294434590229572</v>
       </c>
       <c r="R18" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5406868934631348</v>
+        <v>0.4305709838867188</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06687011686175812</v>
+        <v>0.03288388951588277</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01766605377197266</v>
+        <v>0.02974233627319336</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003863116592834348</v>
+        <v>0.01705467036487467</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -7203,42 +7203,42 @@
         </is>
       </c>
       <c r="K19" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L19" t="n">
         <v>0.8391608391608392</v>
       </c>
-      <c r="L19" t="n">
-        <v>0.8321678321678322</v>
-      </c>
       <c r="M19" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O19" t="n">
         <v>0.8380281690140845</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8229981286319316</v>
+        <v>0.8229784300206836</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01888136292858558</v>
+        <v>0.02409275046257405</v>
       </c>
       <c r="R19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7503421783447266</v>
+        <v>0.6065457344055176</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09531483591744844</v>
+        <v>0.05210023270625592</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03634905815124512</v>
+        <v>0.02202992439270019</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01348113861287043</v>
+        <v>0.001537708467534152</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -7261,42 +7261,42 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="L20" t="n">
         <v>0.8391608391608392</v>
       </c>
       <c r="M20" t="n">
-        <v>0.795774647887324</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N20" t="n">
-        <v>0.795774647887324</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O20" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8215699793164581</v>
+        <v>0.8328277356446371</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02160214322654467</v>
+        <v>0.01989563636749881</v>
       </c>
       <c r="R20" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.056232643127441</v>
+        <v>0.8630052089691163</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1563325766914617</v>
+        <v>0.03874820864309111</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03457040786743164</v>
+        <v>0.02415194511413574</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0102649887000261</v>
+        <v>0.002648986210091216</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -7319,42 +7319,42 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N21" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8173544765094061</v>
+        <v>0.8215896779277061</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02518747658105392</v>
+        <v>0.02407145711404593</v>
       </c>
       <c r="R21" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3413359165191651</v>
+        <v>0.2736252307891845</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04470716304045972</v>
+        <v>0.01595197346088083</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0162531852722168</v>
+        <v>0.01330142021179199</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003529225027049009</v>
+        <v>0.001836819003312994</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L22" t="n">
         <v>0.8391608391608392</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N22" t="n">
         <v>0.795774647887324</v>
@@ -7392,27 +7392,27 @@
         <v>0.8380281690140845</v>
       </c>
       <c r="P22" t="n">
-        <v>0.821589677927706</v>
+        <v>0.8258051807347581</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01849161949442684</v>
+        <v>0.01724678944297724</v>
       </c>
       <c r="R22" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5883003234863281</v>
+        <v>0.4298467636108398</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07913792638844092</v>
+        <v>0.01710712781795939</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02095637321472168</v>
+        <v>0.01534943580627441</v>
       </c>
       <c r="D23" t="n">
-        <v>0.009266841679764279</v>
+        <v>0.0018363843183742</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -7435,42 +7435,42 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.8111888111888111</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M23" t="n">
         <v>0.8169014084507042</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8117797695262483</v>
+        <v>0.8244262779474048</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0197669453969901</v>
+        <v>0.01421451023290234</v>
       </c>
       <c r="R23" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6802571773529053</v>
+        <v>0.5451841831207276</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08032354512982225</v>
+        <v>0.01955820379155313</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02883024215698242</v>
+        <v>0.02153291702270508</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01048122991317802</v>
+        <v>0.001421201567817827</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -7493,13 +7493,13 @@
         </is>
       </c>
       <c r="K24" t="n">
+        <v>0.8531468531468531</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.8391608391608392</v>
       </c>
-      <c r="L24" t="n">
-        <v>0.8461538461538461</v>
-      </c>
       <c r="M24" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="N24" t="n">
         <v>0.8169014084507042</v>
@@ -7508,27 +7508,27 @@
         <v>0.823943661971831</v>
       </c>
       <c r="P24" t="n">
-        <v>0.828612232837585</v>
+        <v>0.8257854821235103</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01195879310523865</v>
+        <v>0.01954745015698916</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.086423110961914</v>
+        <v>0.8510748863220214</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1445420097086732</v>
+        <v>0.05571249118572327</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02902302742004394</v>
+        <v>0.02444524765014649</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003491325035676428</v>
+        <v>0.001664565198666418</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -7551,42 +7551,42 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M25" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7816901408450704</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8201910765291046</v>
+        <v>0.8230079779375554</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01998810715988234</v>
+        <v>0.0176837418550024</v>
       </c>
       <c r="R25" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3653902053833008</v>
+        <v>0.2800467014312744</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08297371746418399</v>
+        <v>0.01367830230501547</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01632232666015625</v>
+        <v>0.01349382400512695</v>
       </c>
       <c r="D26" t="n">
-        <v>0.003690522726485511</v>
+        <v>0.001092710010537879</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -7609,7 +7609,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L26" t="n">
         <v>0.8321678321678322</v>
@@ -7618,33 +7618,33 @@
         <v>0.8028169014084507</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8380281690140845</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8244065793361568</v>
+        <v>0.8229882793263075</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01510771116835683</v>
+        <v>0.02318999295823676</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4979603767395019</v>
+        <v>0.4139777183532715</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04700676634319031</v>
+        <v>0.01296638909019156</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01827707290649414</v>
+        <v>0.01460809707641602</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00703343620180437</v>
+        <v>0.0009477681546278557</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -7667,7 +7667,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L27" t="n">
         <v>0.8251748251748252</v>
@@ -7676,33 +7676,33 @@
         <v>0.8169014084507042</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8244262779474048</v>
+        <v>0.8201910765291046</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.006584347368012606</v>
+        <v>0.01418277438344309</v>
       </c>
       <c r="R27" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7026872634887695</v>
+        <v>2.191363716125488</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07996414444043008</v>
+        <v>0.3226563426247664</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02544341087341308</v>
+        <v>0.06774349212646484</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002092375580306143</v>
+        <v>0.07112704490377139</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
@@ -7725,42 +7725,42 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="L28" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M28" t="n">
+        <v>0.823943661971831</v>
+      </c>
+      <c r="N28" t="n">
         <v>0.8028169014084507</v>
       </c>
-      <c r="N28" t="n">
-        <v>0.8098591549295775</v>
-      </c>
       <c r="O28" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8229981286319313</v>
+        <v>0.8300009849305624</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.0140643945885464</v>
+        <v>0.01793880074572686</v>
       </c>
       <c r="R28" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.056007480621338</v>
+        <v>2.616823196411133</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1425920726598071</v>
+        <v>0.01898914416704022</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03367328643798828</v>
+        <v>0.02480883598327637</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01576763984192879</v>
+        <v>0.004703291574026999</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -7786,7 +7786,7 @@
         <v>0.8321678321678322</v>
       </c>
       <c r="L29" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M29" t="n">
         <v>0.8169014084507042</v>
@@ -7795,30 +7795,30 @@
         <v>0.7816901408450704</v>
       </c>
       <c r="O29" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8145769723234512</v>
+        <v>0.8201910765291046</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01730384250213464</v>
+        <v>0.02048507351311924</v>
       </c>
       <c r="R29" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.368332052230835</v>
+        <v>1.105371713638306</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07849077600265623</v>
+        <v>0.8179862583015314</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01884922981262207</v>
+        <v>0.01276984214782715</v>
       </c>
       <c r="D30" t="n">
-        <v>0.009592078085493578</v>
+        <v>0.0009832830770344716</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -7847,36 +7847,36 @@
         <v>0.8391608391608392</v>
       </c>
       <c r="M30" t="n">
+        <v>0.8098591549295775</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.7887323943661971</v>
+      </c>
+      <c r="O30" t="n">
         <v>0.823943661971831</v>
       </c>
-      <c r="N30" t="n">
-        <v>0.8169014084507042</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.8309859154929577</v>
-      </c>
       <c r="P30" t="n">
-        <v>0.8314291342460358</v>
+        <v>0.8215699793164581</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01042957292004727</v>
+        <v>0.02066344415279054</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.5388644218444825</v>
+        <v>0.4065243244171143</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08939847187364354</v>
+        <v>0.01156184911126105</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02517170906066895</v>
+        <v>0.01527881622314453</v>
       </c>
       <c r="D31" t="n">
-        <v>0.009862002667553613</v>
+        <v>0.001650536168429815</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -7899,42 +7899,42 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M31" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N31" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8380281690140845</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P31" t="n">
-        <v>0.821619225844578</v>
+        <v>0.8145769723234512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01157862853966676</v>
+        <v>0.0204559763519773</v>
       </c>
       <c r="R31" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.6287312984466553</v>
+        <v>0.5440793991088867</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04061400628478636</v>
+        <v>0.01488737004524318</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02441692352294922</v>
+        <v>0.02113814353942871</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002617616257712524</v>
+        <v>0.001907412524345315</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -7957,42 +7957,42 @@
         </is>
       </c>
       <c r="K32" t="n">
+        <v>0.8321678321678322</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.8461538461538461</v>
       </c>
-      <c r="L32" t="n">
-        <v>0.8321678321678322</v>
-      </c>
       <c r="M32" t="n">
+        <v>0.823943661971831</v>
+      </c>
+      <c r="N32" t="n">
         <v>0.8028169014084507</v>
       </c>
-      <c r="N32" t="n">
-        <v>0.795774647887324</v>
-      </c>
       <c r="O32" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P32" t="n">
-        <v>0.8187629272136314</v>
+        <v>0.8258051807347583</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01852649937084241</v>
+        <v>0.01407084225048791</v>
       </c>
       <c r="R32" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.0984938621521</v>
+        <v>0.8222856998443604</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1811424234567698</v>
+        <v>0.02183968296453011</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02811622619628906</v>
+        <v>0.02602434158325195</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003016028498286686</v>
+        <v>0.002622293163388462</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -8015,42 +8015,42 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O33" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8230079779375554</v>
+        <v>0.821619225844578</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.009763886466496801</v>
+        <v>0.01459922940323461</v>
       </c>
       <c r="R33" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3660249710083008</v>
+        <v>0.2866015911102295</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04940288810773781</v>
+        <v>0.006583679283407471</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01607680320739746</v>
+        <v>0.01274089813232422</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002841219092131449</v>
+        <v>0.0006814417315914345</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -8073,42 +8073,42 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L34" t="n">
         <v>0.8041958041958042</v>
       </c>
       <c r="M34" t="n">
-        <v>0.795774647887324</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N34" t="n">
-        <v>0.795774647887324</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O34" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="P34" t="n">
-        <v>0.8131783709248499</v>
+        <v>0.8075741160248203</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01832300715141987</v>
+        <v>0.02509988047710044</v>
       </c>
       <c r="R34" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.558092451095581</v>
+        <v>0.4388469219207763</v>
       </c>
       <c r="B35" t="n">
-        <v>0.08025613877304584</v>
+        <v>0.02087700220704947</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01600713729858399</v>
+        <v>0.01461539268493652</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001123621607042487</v>
+        <v>0.001116579595773382</v>
       </c>
       <c r="E35" t="n">
         <v>20</v>
@@ -8131,42 +8131,42 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L35" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M35" t="n">
+        <v>0.8028169014084507</v>
+      </c>
+      <c r="N35" t="n">
         <v>0.795774647887324</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.7887323943661971</v>
       </c>
       <c r="O35" t="n">
         <v>0.8450704225352113</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8187826258248793</v>
+        <v>0.8215995272333301</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02271371174720012</v>
+        <v>0.02090545223235443</v>
       </c>
       <c r="R35" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.6955482006072998</v>
+        <v>0.568454360961914</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03362529706794399</v>
+        <v>0.01262762787872142</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03139519691467285</v>
+        <v>0.02242293357849121</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01073359832505061</v>
+        <v>0.001666373389927889</v>
       </c>
       <c r="E36" t="n">
         <v>20</v>
@@ -8189,42 +8189,42 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M36" t="n">
-        <v>0.795774647887324</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N36" t="n">
         <v>0.7816901408450704</v>
       </c>
       <c r="O36" t="n">
-        <v>0.8450704225352113</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P36" t="n">
-        <v>0.8187727765192554</v>
+        <v>0.8117600709150004</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02526144330477312</v>
+        <v>0.02229079999951938</v>
       </c>
       <c r="R36" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.061509752273559</v>
+        <v>0.8815639019012451</v>
       </c>
       <c r="B37" t="n">
-        <v>0.06914311800692995</v>
+        <v>0.02942412848953426</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02699699401855469</v>
+        <v>0.02407131195068359</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001398424640137304</v>
+        <v>0.001437543493882845</v>
       </c>
       <c r="E37" t="n">
         <v>20</v>
@@ -8250,39 +8250,39 @@
         <v>0.8251748251748252</v>
       </c>
       <c r="L37" t="n">
-        <v>0.8111888111888111</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M37" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P37" t="n">
-        <v>0.810371318822023</v>
+        <v>0.8047276666994977</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01960203846472719</v>
+        <v>0.03028525187533468</v>
       </c>
       <c r="R37" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.3743221282958984</v>
+        <v>0.2824458122253418</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06017268438601241</v>
+        <v>0.0127631127119483</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01990857124328613</v>
+        <v>0.01347651481628418</v>
       </c>
       <c r="D38" t="n">
-        <v>0.006551860152706433</v>
+        <v>0.0009900313350952531</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -8305,42 +8305,42 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L38" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="O38" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P38" t="n">
-        <v>0.8215896779277061</v>
+        <v>0.8230079779375554</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01353666578696674</v>
+        <v>0.01244369239886722</v>
       </c>
       <c r="R38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.5401249885559082</v>
+        <v>0.4344420433044434</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02196512907678261</v>
+        <v>0.02324046151782071</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02207927703857422</v>
+        <v>0.01556243896484375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.007213327147263689</v>
+        <v>0.001318827507411811</v>
       </c>
       <c r="E39" t="n">
         <v>20</v>
@@ -8366,39 +8366,39 @@
         <v>0.8251748251748252</v>
       </c>
       <c r="L39" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M39" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="P39" t="n">
-        <v>0.8216290751502019</v>
+        <v>0.8230178272431793</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.007153946032753276</v>
+        <v>0.02072576630219424</v>
       </c>
       <c r="R39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7151031494140625</v>
+        <v>0.5627513885498047</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0275639124384763</v>
+        <v>0.01498792752474561</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02569060325622559</v>
+        <v>0.02329268455505371</v>
       </c>
       <c r="D40" t="n">
-        <v>0.002513177425391265</v>
+        <v>0.002009563658215926</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
@@ -8421,42 +8421,42 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8531468531468531</v>
       </c>
       <c r="L40" t="n">
         <v>0.8321678321678322</v>
       </c>
       <c r="M40" t="n">
+        <v>0.8098591549295775</v>
+      </c>
+      <c r="N40" t="n">
         <v>0.8028169014084507</v>
       </c>
-      <c r="N40" t="n">
-        <v>0.8098591549295775</v>
-      </c>
       <c r="O40" t="n">
-        <v>0.8380281690140845</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P40" t="n">
-        <v>0.8258051807347583</v>
+        <v>0.824386880724909</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01665346621840124</v>
+        <v>0.01768725239503283</v>
       </c>
       <c r="R40" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.137354564666748</v>
+        <v>2.739810800552368</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1176695745499332</v>
+        <v>0.02888581827499923</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03264284133911133</v>
+        <v>0.02561607360839844</v>
       </c>
       <c r="D41" t="n">
-        <v>0.008846325643415065</v>
+        <v>0.002703242544514172</v>
       </c>
       <c r="E41" t="n">
         <v>20</v>
@@ -8482,39 +8482,39 @@
         <v>0.8391608391608392</v>
       </c>
       <c r="L41" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M41" t="n">
         <v>0.8098591549295775</v>
       </c>
       <c r="N41" t="n">
-        <v>0.795774647887324</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O41" t="n">
         <v>0.823943661971831</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8187826258248794</v>
+        <v>0.8173643258150299</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01477676193893516</v>
+        <v>0.02032975416440847</v>
       </c>
       <c r="R41" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.344295883178711</v>
+        <v>0.7997259616851806</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03500883497270094</v>
+        <v>0.5129421034149058</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01443123817443848</v>
+        <v>0.08208708763122559</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0007338896122910368</v>
+        <v>0.05890072091307376</v>
       </c>
       <c r="E42" t="n">
         <v>20</v>
@@ -8537,42 +8537,42 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L42" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M42" t="n">
+        <v>0.8169014084507042</v>
+      </c>
+      <c r="N42" t="n">
         <v>0.8098591549295775</v>
       </c>
-      <c r="N42" t="n">
-        <v>0.795774647887324</v>
-      </c>
       <c r="O42" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P42" t="n">
-        <v>0.8187826258248794</v>
+        <v>0.8258150300403821</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01477676193893516</v>
+        <v>0.01076335795845732</v>
       </c>
       <c r="R42" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5197563171386719</v>
+        <v>2.19202446937561</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08068154159192378</v>
+        <v>0.2166752380801517</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02051773071289063</v>
+        <v>0.01559634208679199</v>
       </c>
       <c r="D43" t="n">
-        <v>0.008822784480029941</v>
+        <v>0.001434180746606997</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
@@ -8598,39 +8598,39 @@
         <v>0.8321678321678322</v>
       </c>
       <c r="L43" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M43" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7605633802816901</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O43" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8103319215995273</v>
+        <v>0.8187924751305033</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0271008364816829</v>
+        <v>0.01597184488142224</v>
       </c>
       <c r="R43" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7385560989379882</v>
+        <v>0.7661573886871338</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09131955243842085</v>
+        <v>0.2798000817958514</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02487478256225586</v>
+        <v>0.02167057991027832</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0007506511122538603</v>
+        <v>0.00114346949423218</v>
       </c>
       <c r="E44" t="n">
         <v>20</v>
@@ -8653,25 +8653,25 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0.8531468531468531</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L44" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N44" t="n">
-        <v>0.795774647887324</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O44" t="n">
         <v>0.8309859154929577</v>
       </c>
       <c r="P44" t="n">
-        <v>0.8271939328277357</v>
+        <v>0.8272136314389836</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01961758179301232</v>
+        <v>0.01416615051303283</v>
       </c>
       <c r="R44" t="n">
         <v>4</v>
@@ -8679,16 +8679,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.001477193832397</v>
+        <v>0.8287885665893555</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04538401929495562</v>
+        <v>0.03862325346257564</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02980914115905762</v>
+        <v>0.02411084175109863</v>
       </c>
       <c r="D45" t="n">
-        <v>0.002442293702448829</v>
+        <v>0.0011176257014916</v>
       </c>
       <c r="E45" t="n">
         <v>20</v>
@@ -8711,42 +8711,42 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L45" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="M45" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N45" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P45" t="n">
-        <v>0.8159854230276766</v>
+        <v>0.8201910765291046</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01594972114794922</v>
+        <v>0.02095707745749864</v>
       </c>
       <c r="R45" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.3781843185424805</v>
+        <v>0.2805750370025635</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04773206328145847</v>
+        <v>0.01195229183434152</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01460890769958496</v>
+        <v>0.01360940933227539</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001176098183071966</v>
+        <v>0.001650072473665384</v>
       </c>
       <c r="E46" t="n">
         <v>20</v>
@@ -8775,36 +8775,36 @@
         <v>0.8461538461538461</v>
       </c>
       <c r="M46" t="n">
-        <v>0.795774647887324</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N46" t="n">
-        <v>0.795774647887324</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="O46" t="n">
-        <v>0.8450704225352113</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P46" t="n">
-        <v>0.8271840835221116</v>
+        <v>0.8328178863390132</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02579513023023925</v>
+        <v>0.01672542601855559</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.574278450012207</v>
+        <v>0.4215460300445557</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07874529127817345</v>
+        <v>0.0130803067016125</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01657543182373047</v>
+        <v>0.01515936851501465</v>
       </c>
       <c r="D47" t="n">
-        <v>0.001519158334842267</v>
+        <v>0.001131784139891308</v>
       </c>
       <c r="E47" t="n">
         <v>20</v>
@@ -8830,10 +8830,10 @@
         <v>0.8321678321678322</v>
       </c>
       <c r="L47" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M47" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N47" t="n">
         <v>0.795774647887324</v>
@@ -8842,27 +8842,27 @@
         <v>0.8309859154929577</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8230079779375554</v>
+        <v>0.817393873731902</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.01395695609303528</v>
+        <v>0.01362202053372408</v>
       </c>
       <c r="R47" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6327237129211426</v>
+        <v>0.5134164333343506</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01924631423340083</v>
+        <v>0.007156807429284771</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02135763168334961</v>
+        <v>0.01692581176757812</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002675386855517129</v>
+        <v>0.002766039110580627</v>
       </c>
       <c r="E48" t="n">
         <v>20</v>
@@ -8885,42 +8885,42 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L48" t="n">
         <v>0.8391608391608392</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N48" t="n">
         <v>0.8028169014084507</v>
       </c>
       <c r="O48" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P48" t="n">
-        <v>0.8215896779277061</v>
+        <v>0.8272037821333598</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01353666578696674</v>
+        <v>0.01560281722559566</v>
       </c>
       <c r="R48" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8033017635345459</v>
+        <v>0.6282838821411133</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04432498441896889</v>
+        <v>0.03348073682548934</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01575655937194824</v>
+        <v>0.01341466903686523</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001813414943801525</v>
+        <v>0.0002528388013151795</v>
       </c>
       <c r="E49" t="n">
         <v>20</v>
@@ -8946,25 +8946,25 @@
         <v>0.8321678321678322</v>
       </c>
       <c r="L49" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="N49" t="n">
-        <v>0.795774647887324</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O49" t="n">
         <v>0.8380281690140845</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8202009258347287</v>
+        <v>0.8188023244361272</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01542305028861071</v>
+        <v>0.01706733195709156</v>
       </c>
       <c r="R49" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -9080,16 +9080,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3959690570831299</v>
+        <v>0.3260892868041992</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0253964241891879</v>
+        <v>0.006452312646904233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004753971099853515</v>
+        <v>0.004149627685546875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0006447808662452966</v>
+        <v>0.00023183842246684</v>
       </c>
       <c r="E2" t="n">
         <v>0.01</v>
@@ -9112,42 +9112,42 @@
         </is>
       </c>
       <c r="K2" t="n">
+        <v>0.8251748251748252</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.8111888111888111</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.8181818181818182</v>
       </c>
       <c r="M2" t="n">
         <v>0.8309859154929577</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O2" t="n">
         <v>0.8098591549295775</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8089727174234216</v>
+        <v>0.814596670934699</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01872580695411698</v>
+        <v>0.01240024839961406</v>
       </c>
       <c r="R2" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.740880298614502</v>
+        <v>3.910909366607666</v>
       </c>
       <c r="B3" t="n">
-        <v>0.183316353111016</v>
+        <v>0.03217784580239481</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005850505828857422</v>
+        <v>0.004751014709472656</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001680383288470107</v>
+        <v>0.0003934412374633592</v>
       </c>
       <c r="E3" t="n">
         <v>0.01</v>
@@ -9170,42 +9170,42 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.7972027972027972</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M3" t="n">
         <v>0.8309859154929577</v>
       </c>
       <c r="N3" t="n">
-        <v>0.795774647887324</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O3" t="n">
         <v>0.8169014084507042</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8160051216389244</v>
+        <v>0.8188121737417513</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01745974937343777</v>
+        <v>0.01135067414602942</v>
       </c>
       <c r="R3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4204488277435303</v>
+        <v>0.331250810623169</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03055899873694897</v>
+        <v>0.006307603539315829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004293489456176758</v>
+        <v>0.003709220886230469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003579774864245729</v>
+        <v>0.0001516290879731899</v>
       </c>
       <c r="E4" t="n">
         <v>0.01</v>
@@ -9249,21 +9249,21 @@
         <v>0.0202722446230608</v>
       </c>
       <c r="R4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.157527256011963</v>
+        <v>4.38794322013855</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1594183056973359</v>
+        <v>0.04860940207970459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005345678329467774</v>
+        <v>0.004396963119506836</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0007945785625614567</v>
+        <v>0.0001372471538394935</v>
       </c>
       <c r="E5" t="n">
         <v>0.01</v>
@@ -9312,16 +9312,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7965143203735352</v>
+        <v>1.24555835723877</v>
       </c>
       <c r="B6" t="n">
-        <v>0.044588789995104</v>
+        <v>0.6158841933991819</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005161809921264649</v>
+        <v>0.02144203186035156</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006071233388174901</v>
+        <v>0.02379886956252433</v>
       </c>
       <c r="E6" t="n">
         <v>0.01</v>
@@ -9350,19 +9350,19 @@
         <v>0.8321678321678322</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8380281690140845</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O6" t="n">
         <v>0.8309859154929577</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8230178272431793</v>
+        <v>0.8230178272431795</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01762195748602286</v>
+        <v>0.01383869150119412</v>
       </c>
       <c r="R6" t="n">
         <v>8</v>
@@ -9370,16 +9370,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.300039052963257</v>
+        <v>6.096651554107666</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2223128900340471</v>
+        <v>0.2060398688093607</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006382465362548828</v>
+        <v>0.006190633773803711</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001865733631028235</v>
+        <v>0.002830958854620089</v>
       </c>
       <c r="E7" t="n">
         <v>0.01</v>
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L7" t="n">
         <v>0.8461538461538461</v>
@@ -9411,16 +9411,16 @@
         <v>0.8169014084507042</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O7" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8244065793361568</v>
+        <v>0.8258051807347583</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01217951768404301</v>
+        <v>0.01475892731537237</v>
       </c>
       <c r="R7" t="n">
         <v>6</v>
@@ -9428,16 +9428,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8328022480010986</v>
+        <v>0.655510425567627</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05368509300649652</v>
+        <v>0.0126121808602329</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00528111457824707</v>
+        <v>0.003869056701660156</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001394948689067532</v>
+        <v>0.0001367271828658419</v>
       </c>
       <c r="E8" t="n">
         <v>0.01</v>
@@ -9481,21 +9481,21 @@
         <v>0.02708881368320212</v>
       </c>
       <c r="R8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.853566360473633</v>
+        <v>8.095048522949218</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6213207320334106</v>
+        <v>1.021850881349603</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009701681137084962</v>
+        <v>0.004618263244628907</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004068395808053479</v>
+        <v>0.0001946967984267189</v>
       </c>
       <c r="E9" t="n">
         <v>0.01</v>
@@ -9544,16 +9544,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6712386608123779</v>
+        <v>0.8812659740447998</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03989596706920134</v>
+        <v>0.7167158178674821</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005823898315429688</v>
+        <v>0.0136476993560791</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002156434940781881</v>
+        <v>0.01937044651495125</v>
       </c>
       <c r="E10" t="n">
         <v>0.01</v>
@@ -9579,39 +9579,39 @@
         <v>0.8111888111888111</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7972027972027972</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7816901408450704</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="O10" t="n">
         <v>0.8309859154929577</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8047769132276175</v>
+        <v>0.8075839653304442</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01626180908842324</v>
+        <v>0.01867471981955933</v>
       </c>
       <c r="R10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.170315790176391</v>
+        <v>5.278784656524659</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4627090335326322</v>
+        <v>0.09035981394690784</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006566953659057617</v>
+        <v>0.004911947250366211</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002034421750557302</v>
+        <v>0.0003603151889388005</v>
       </c>
       <c r="E11" t="n">
         <v>0.01</v>
@@ -9634,42 +9634,42 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.8041958041958042</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L11" t="n">
         <v>0.8391608391608392</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8188121737417513</v>
+        <v>0.8188023244361272</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01439031752450696</v>
+        <v>0.01147892520286781</v>
       </c>
       <c r="R11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7688354969024658</v>
+        <v>0.5298067092895508</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1480898555567569</v>
+        <v>0.02144638667010633</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0054351806640625</v>
+        <v>0.003914165496826172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002343055280767034</v>
+        <v>0.0001953815686395511</v>
       </c>
       <c r="E12" t="n">
         <v>0.01</v>
@@ -9718,16 +9718,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.094480991363525</v>
+        <v>7.683685064315796</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2386024435799102</v>
+        <v>0.1240132270951869</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006877231597900391</v>
+        <v>0.004989910125732422</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003191804873397834</v>
+        <v>0.0008572419686332443</v>
       </c>
       <c r="E13" t="n">
         <v>0.01</v>
@@ -9750,7 +9750,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>0.7972027972027972</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="L13" t="n">
         <v>0.8321678321678322</v>
@@ -9759,33 +9759,33 @@
         <v>0.8169014084507042</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="P13" t="n">
-        <v>0.810381168127647</v>
+        <v>0.8117797695262485</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01269076818873883</v>
+        <v>0.0123229338453855</v>
       </c>
       <c r="R13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.429280710220337</v>
+        <v>1.035616397857666</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1056537130345749</v>
+        <v>0.01913522502430072</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006728839874267578</v>
+        <v>0.004733896255493164</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002632542370535413</v>
+        <v>0.0003920799905163467</v>
       </c>
       <c r="E14" t="n">
         <v>0.01</v>
@@ -9808,42 +9808,42 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="M14" t="n">
-        <v>0.795774647887324</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N14" t="n">
-        <v>0.795774647887324</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O14" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8131685216192259</v>
+        <v>0.810381168127647</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01488156094076099</v>
+        <v>0.01554061881754217</v>
       </c>
       <c r="R14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.650853204727174</v>
+        <v>10.47037291526794</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4408504275724681</v>
+        <v>0.09368568617076645</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007317352294921875</v>
+        <v>0.007867622375488281</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002139391536860217</v>
+        <v>0.002966591709967024</v>
       </c>
       <c r="E15" t="n">
         <v>0.01</v>
@@ -9866,7 +9866,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L15" t="n">
         <v>0.8321678321678322</v>
@@ -9875,33 +9875,33 @@
         <v>0.8309859154929577</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="O15" t="n">
         <v>0.8309859154929577</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8258248793460062</v>
+        <v>0.8244361272530286</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01151612554633841</v>
+        <v>0.008912723679575286</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.502557563781738</v>
+        <v>1.810042238235474</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1721621683838687</v>
+        <v>0.8898604805612644</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008077192306518554</v>
+        <v>0.00431218147277832</v>
       </c>
       <c r="D16" t="n">
-        <v>0.005318288925212173</v>
+        <v>0.0001230527784973997</v>
       </c>
       <c r="E16" t="n">
         <v>0.01</v>
@@ -9927,39 +9927,39 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8041958041958042</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7605633802816901</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="O16" t="n">
         <v>0.8169014084507042</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8061656653205949</v>
+        <v>0.8075642667191962</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02432750575944494</v>
+        <v>0.0285017973363393</v>
       </c>
       <c r="R16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.64501733779907</v>
+        <v>11.9182032585144</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4809303886217817</v>
+        <v>0.167808640995311</v>
       </c>
       <c r="C17" t="n">
-        <v>0.008742809295654297</v>
+        <v>0.005590581893920898</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003542200734411601</v>
+        <v>0.0004599265223445478</v>
       </c>
       <c r="E17" t="n">
         <v>0.01</v>
@@ -10003,21 +10003,21 @@
         <v>0.01175290860221879</v>
       </c>
       <c r="R17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3872026443481446</v>
+        <v>0.3002591609954834</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04728506365417792</v>
+        <v>0.007107572282094943</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004179811477661133</v>
+        <v>0.003502273559570313</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0003313722734517245</v>
+        <v>0.0002075006957657202</v>
       </c>
       <c r="E18" t="n">
         <v>0.1</v>
@@ -10040,42 +10040,42 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8601398601398601</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P18" t="n">
-        <v>0.817374175120654</v>
+        <v>0.825824879346006</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01647001817061745</v>
+        <v>0.01964899197310659</v>
       </c>
       <c r="R18" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.743839645385742</v>
+        <v>3.682410383224487</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2156797051281601</v>
+        <v>0.3212731783803429</v>
       </c>
       <c r="C19" t="n">
-        <v>0.006572723388671875</v>
+        <v>0.01664490699768066</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002841272741592453</v>
+        <v>0.01498866427933948</v>
       </c>
       <c r="E19" t="n">
         <v>0.1</v>
@@ -10098,42 +10098,42 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L19" t="n">
         <v>0.8251748251748252</v>
       </c>
       <c r="M19" t="n">
-        <v>0.823943661971831</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N19" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8380281690140845</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="P19" t="n">
-        <v>0.8258544272628778</v>
+        <v>0.8187924751305033</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.006554888638700961</v>
+        <v>0.02433792317712841</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4248929023742676</v>
+        <v>0.3373794555664062</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03488692884730428</v>
+        <v>0.01248981720463727</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004226112365722656</v>
+        <v>0.003939199447631836</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0003819191966926157</v>
+        <v>0.0006415207599875428</v>
       </c>
       <c r="E20" t="n">
         <v>0.1</v>
@@ -10156,42 +10156,42 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M20" t="n">
         <v>0.8309859154929577</v>
       </c>
       <c r="N20" t="n">
-        <v>0.795774647887324</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="O20" t="n">
         <v>0.8380281690140845</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8230276765488032</v>
+        <v>0.8258150300403819</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01442426016793293</v>
+        <v>0.01881217374175123</v>
       </c>
       <c r="R20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.307419919967651</v>
+        <v>4.292252540588379</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2779432697589937</v>
+        <v>0.4422738711531946</v>
       </c>
       <c r="C21" t="n">
-        <v>0.006209373474121094</v>
+        <v>0.004632568359375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002945698153547341</v>
+        <v>0.0004686131964965622</v>
       </c>
       <c r="E21" t="n">
         <v>0.1</v>
@@ -10223,33 +10223,33 @@
         <v>0.8169014084507042</v>
       </c>
       <c r="N21" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="O21" t="n">
         <v>0.8450704225352113</v>
       </c>
       <c r="P21" t="n">
-        <v>0.837043238451689</v>
+        <v>0.8356347877474637</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0140289520849127</v>
+        <v>0.01554498779613314</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.78543062210083</v>
+        <v>0.7207328319549561</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1285924831753038</v>
+        <v>0.2152766077525278</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0055999755859375</v>
+        <v>0.004259634017944336</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0008776498204584749</v>
+        <v>0.0003920767081749341</v>
       </c>
       <c r="E22" t="n">
         <v>0.1</v>
@@ -10272,25 +10272,25 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.8041958041958042</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8111888111888111</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="M22" t="n">
         <v>0.8098591549295775</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8380281690140845</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="O22" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8174431202600217</v>
+        <v>0.8188318723529993</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01215010756949087</v>
+        <v>0.01341659816609018</v>
       </c>
       <c r="R22" t="n">
         <v>14</v>
@@ -10298,16 +10298,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.332302761077881</v>
+        <v>6.710861778259277</v>
       </c>
       <c r="B23" t="n">
-        <v>0.607511689871734</v>
+        <v>0.9384583684628881</v>
       </c>
       <c r="C23" t="n">
-        <v>0.006137275695800781</v>
+        <v>0.01109867095947266</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001099522699208124</v>
+        <v>0.01220435046062674</v>
       </c>
       <c r="E23" t="n">
         <v>0.1</v>
@@ -10330,7 +10330,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0.7972027972027972</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="L23" t="n">
         <v>0.8321678321678322</v>
@@ -10339,33 +10339,33 @@
         <v>0.8028169014084507</v>
       </c>
       <c r="N23" t="n">
-        <v>0.7746478873239436</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="O23" t="n">
-        <v>0.852112676056338</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8117896188318724</v>
+        <v>0.8202206244459767</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02725440795651051</v>
+        <v>0.01307918068532433</v>
       </c>
       <c r="R23" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8410661697387696</v>
+        <v>1.747888517379761</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1168395832960546</v>
+        <v>0.769913559542496</v>
       </c>
       <c r="C24" t="n">
-        <v>0.005061483383178711</v>
+        <v>0.01555581092834473</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001507773960264632</v>
+        <v>0.01288297879713151</v>
       </c>
       <c r="E24" t="n">
         <v>0.1</v>
@@ -10388,13 +10388,13 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="L24" t="n">
         <v>0.7902097902097902</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="N24" t="n">
         <v>0.8028169014084507</v>
@@ -10403,27 +10403,27 @@
         <v>0.8450704225352113</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8174135723431497</v>
+        <v>0.810381168127647</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02348223187165564</v>
+        <v>0.02746846850929965</v>
       </c>
       <c r="R24" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6.882714748382568</v>
+        <v>8.590842294692994</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4567538723302216</v>
+        <v>0.4578591523805585</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006633090972900391</v>
+        <v>0.004801511764526367</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003281460937145526</v>
+        <v>0.0006994328480165944</v>
       </c>
       <c r="E25" t="n">
         <v>0.1</v>
@@ -10449,39 +10449,39 @@
         <v>0.8531468531468531</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8391608391608392</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="O25" t="n">
-        <v>0.852112676056338</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8356347877474637</v>
+        <v>0.8398699891657639</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0184616715086574</v>
+        <v>0.01453260288703366</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.6317144870758057</v>
+        <v>0.5272245883941651</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04963330374646774</v>
+        <v>0.07748329697754429</v>
       </c>
       <c r="C26" t="n">
-        <v>0.005417108535766602</v>
+        <v>0.004077768325805664</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00174459442133166</v>
+        <v>0.0002348469041479596</v>
       </c>
       <c r="E26" t="n">
         <v>0.1</v>
@@ -10504,25 +10504,25 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L26" t="n">
         <v>0.8181818181818182</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8145671230178273</v>
+        <v>0.814586821629075</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01620471506295068</v>
+        <v>0.02436928007672657</v>
       </c>
       <c r="R26" t="n">
         <v>20</v>
@@ -10530,16 +10530,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.43177433013916</v>
+        <v>5.929356908798217</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4540159350335412</v>
+        <v>0.794354214585869</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006152915954589844</v>
+        <v>0.0187800407409668</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001454082607649082</v>
+        <v>0.01682705311779044</v>
       </c>
       <c r="E27" t="n">
         <v>0.1</v>
@@ -10562,7 +10562,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L27" t="n">
         <v>0.8251748251748252</v>
@@ -10571,33 +10571,33 @@
         <v>0.8028169014084507</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="O27" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P27" t="n">
-        <v>0.817393873731902</v>
+        <v>0.821629075150202</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.009308557850182123</v>
+        <v>0.01052097644834038</v>
       </c>
       <c r="R27" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.6499312877655029</v>
+        <v>0.7504287719726562</v>
       </c>
       <c r="B28" t="n">
-        <v>0.03751289124409678</v>
+        <v>0.4159326578584722</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004507637023925782</v>
+        <v>0.003692626953125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0002982853537754288</v>
+        <v>4.624976312479611e-05</v>
       </c>
       <c r="E28" t="n">
         <v>0.1</v>
@@ -10620,10 +10620,10 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L28" t="n">
-        <v>0.8111888111888111</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="M28" t="n">
         <v>0.7605633802816901</v>
@@ -10635,27 +10635,27 @@
         <v>0.8380281690140845</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8089530188121739</v>
+        <v>0.8047572146163695</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02745359626663252</v>
+        <v>0.02659986563295382</v>
       </c>
       <c r="R28" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.540172481536866</v>
+        <v>6.035759210586548</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5281430504637687</v>
+        <v>0.08566949193932769</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00795884132385254</v>
+        <v>0.004992198944091797</v>
       </c>
       <c r="D29" t="n">
-        <v>0.005579072157820019</v>
+        <v>0.0009262832787377844</v>
       </c>
       <c r="E29" t="n">
         <v>0.1</v>
@@ -10678,7 +10678,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L29" t="n">
         <v>0.8321678321678322</v>
@@ -10687,33 +10687,33 @@
         <v>0.8028169014084507</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8098591549295775</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="O29" t="n">
-        <v>0.823943661971831</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="P29" t="n">
-        <v>0.8187924751305033</v>
+        <v>0.8131685216192258</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01078139563692523</v>
+        <v>0.01898215459503706</v>
       </c>
       <c r="R29" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.296289968490601</v>
+        <v>2.109930849075317</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07973703780946204</v>
+        <v>0.8900351997274596</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005443525314331055</v>
+        <v>0.004454565048217773</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0004941173462316577</v>
+        <v>0.0003222785131178446</v>
       </c>
       <c r="E30" t="n">
         <v>0.1</v>
@@ -10736,42 +10736,42 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8041958041958042</v>
       </c>
       <c r="L30" t="n">
-        <v>0.7832167832167832</v>
+        <v>0.7902097902097902</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N30" t="n">
-        <v>0.7676056338028169</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="O30" t="n">
         <v>0.823943661971831</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7991332611050921</v>
+        <v>0.8062050625430908</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02474810076376751</v>
+        <v>0.01094875146178011</v>
       </c>
       <c r="R30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.662507247924805</v>
+        <v>9.437602472305297</v>
       </c>
       <c r="B31" t="n">
-        <v>0.17215066056134</v>
+        <v>0.6110743850925161</v>
       </c>
       <c r="C31" t="n">
-        <v>0.005324172973632813</v>
+        <v>0.01848793029785156</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0003905274608863747</v>
+        <v>0.01743677907166552</v>
       </c>
       <c r="E31" t="n">
         <v>0.1</v>
@@ -10794,42 +10794,42 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.8111888111888111</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8111888111888111</v>
+        <v>0.8321678321678322</v>
       </c>
       <c r="M31" t="n">
-        <v>0.795774647887324</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8047572146163695</v>
+        <v>0.8145671230178273</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01065545570981617</v>
+        <v>0.02529930994981744</v>
       </c>
       <c r="R31" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.417961883544922</v>
+        <v>1.472138690948486</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1428366372100346</v>
+        <v>0.6927434188287672</v>
       </c>
       <c r="C32" t="n">
-        <v>0.006241893768310547</v>
+        <v>0.004357576370239258</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002326515608659055</v>
+        <v>0.000261587536806588</v>
       </c>
       <c r="E32" t="n">
         <v>0.1</v>
@@ -10852,42 +10852,42 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.8251748251748252</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L32" t="n">
         <v>0.7902097902097902</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7887323943661971</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="O32" t="n">
-        <v>0.8380281690140845</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="P32" t="n">
-        <v>0.8118093174431202</v>
+        <v>0.8075938146360681</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01944776758837698</v>
+        <v>0.01799969697530585</v>
       </c>
       <c r="R32" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7.582989978790283</v>
+        <v>10.327863073349</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3149087476546085</v>
+        <v>0.0200692527251628</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003483438491821289</v>
+        <v>0.003419160842895508</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001607216123843963</v>
+        <v>0.0002406317037189088</v>
       </c>
       <c r="E33" t="n">
         <v>0.1</v>
@@ -10910,7 +10910,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.8321678321678322</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="L33" t="n">
         <v>0.8321678321678322</v>
@@ -10919,19 +10919,19 @@
         <v>0.8098591549295775</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8028169014084507</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8380281690140845</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8230079779375554</v>
+        <v>0.8216093765389541</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01395695609303528</v>
+        <v>0.007614131192901836</v>
       </c>
       <c r="R33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
